--- a/Översikt FLEN.xlsx
+++ b/Översikt FLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44883</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44587</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>44378</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43776</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>44832</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43493</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43752</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>43838</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43668</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44071</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44578</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>45002</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45039</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>45105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>45142</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43643</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43703</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>44624</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44714</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44819</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44865</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44986</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>45140</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43363</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43661</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43691</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43703</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43747</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43754</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43776</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43858</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43943</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44014</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>44484</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44503</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>44503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>44608</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44624</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44624</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44792</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44931</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44957</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>44971</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>45044</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>45156</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45166</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43324</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43347</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43347</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43347</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43347</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43357</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43368</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43368</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43371</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43388</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43397</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43412</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43431</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43433</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43446</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43450</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43455</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43472</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43483</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43494</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43495</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43497</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43514</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43522</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43535</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43538</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43539</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43539</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43551</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43559</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43559</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43560</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43560</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43565</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43567</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43570</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43616</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>43621</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43635</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43643</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43659</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43661</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>43661</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>43661</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43664</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43668</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43669</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43669</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43669</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43669</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43675</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43676</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>43676</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>43678</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>43679</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43679</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43679</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>43679</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>43682</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43684</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43688</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>43688</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>43691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43697</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43717</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>43725</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>43726</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>43738</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>43739</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>43740</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>43745</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>43746</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43747</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43752</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>43752</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>43753</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>43756</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>43758</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>43758</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>43769</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>43776</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>43776</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>43787</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>43794</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>43795</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>43798</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43803</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>43811</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>43811</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43811</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43823</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43832</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>43839</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43846</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>43847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43847</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43853</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43857</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>43864</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43872</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43873</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43881</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>43885</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>43885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>43889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>43889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>43893</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>43894</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>43901</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>43901</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>43902</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43902</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43907</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43907</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>43911</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>43917</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>43922</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>43943</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>43948</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>43955</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>43955</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>43957</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>43959</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>43959</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>43959</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>43979</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>43980</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>43983</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>43983</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>43983</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>43985</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>43998</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>43999</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43999</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44004</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>44005</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>44007</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>44011</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         <v>44011</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16600,7 +16600,7 @@
         <v>44012</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44018</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44018</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44021</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>44026</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44027</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44028</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44029</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44039</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44039</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44042</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44043</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44043</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44047</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44049</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44053</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>44053</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>44056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>44062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44062</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>44067</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>44085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44085</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44097</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44098</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>44104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44106</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44113</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44127</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44127</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44138</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44138</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44138</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44140</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44140</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44152</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44158</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44158</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44172</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44178</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44187</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44188</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20018,7 +20018,7 @@
         <v>44193</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44201</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44203</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44208</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>44208</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44208</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44209</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44217</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>44218</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44230</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44242</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44242</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44242</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44246</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>44246</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44246</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44248</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44250</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44250</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44252</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44252</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>44258</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>44260</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>44263</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>44263</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>44265</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44281</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44281</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44292</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44292</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44292</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44293</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44297</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44297</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44297</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44301</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22450,7 +22450,7 @@
         <v>44301</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22512,7 +22512,7 @@
         <v>44302</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>44302</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44302</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>44323</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>44323</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44328</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44344</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44350</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44350</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44360</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44360</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>44365</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44365</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44365</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44378</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44384</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44384</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44384</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44386</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44398</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44404</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44411</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44413</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44414</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44414</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44421</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44421</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44423</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44423</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44425</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44425</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44425</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44425</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44431</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44432</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>44432</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44433</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44433</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44435</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44448</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44448</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44449</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44449</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44449</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44452</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>44452</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44453</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44453</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44454</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44454</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44458</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44458</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44459</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44459</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44459</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44463</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44463</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44463</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44463</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44463</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44463</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44466</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44469</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>44469</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>44470</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>44472</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>44473</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>44473</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>44487</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>44490</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>44495</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44495</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>44495</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>44501</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>44508</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44508</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>44511</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>44518</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>44522</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>44522</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>44531</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>44535</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>44536</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>44544</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>44566</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28064,7 +28064,7 @@
         <v>44578</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>44578</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>44579</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>44580</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>44588</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>44588</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>44594</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>44596</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>44602</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>44606</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44608</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>44610</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>44614</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>44614</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>44614</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28939,7 +28939,7 @@
         <v>44616</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28996,7 +28996,7 @@
         <v>44624</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29053,7 +29053,7 @@
         <v>44624</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29110,7 +29110,7 @@
         <v>44624</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29167,7 +29167,7 @@
         <v>44624</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>44624</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29281,7 +29281,7 @@
         <v>44636</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29338,7 +29338,7 @@
         <v>44636</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>44636</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29452,7 +29452,7 @@
         <v>44636</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29509,7 +29509,7 @@
         <v>44637</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44637</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>44640</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29680,7 +29680,7 @@
         <v>44643</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29737,7 +29737,7 @@
         <v>44643</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44643</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29851,7 +29851,7 @@
         <v>44648</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         <v>44667</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44671</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30027,7 +30027,7 @@
         <v>44676</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>44680</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         <v>44697</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30203,7 +30203,7 @@
         <v>44697</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>44701</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>44704</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         <v>44705</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30431,7 +30431,7 @@
         <v>44715</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30493,7 +30493,7 @@
         <v>44715</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>44719</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>44722</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44725</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44733</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44739</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44739</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>44741</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>44742</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44746</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31088,7 +31088,7 @@
         <v>44752</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31145,7 +31145,7 @@
         <v>44752</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>44752</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>44752</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31316,7 +31316,7 @@
         <v>44753</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44769</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44769</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44769</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44769</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44769</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44770</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44771</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44774</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44778</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44778</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44782</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44785</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44785</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44791</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44795</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44796</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44807</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44807</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44814</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44817</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44818</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44818</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44818</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44823</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44826</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44830</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44834</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44837</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44838</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44838</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44838</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44838</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44839</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44839</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44841</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44846</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44846</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44848</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>44848</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33626,7 +33626,7 @@
         <v>44848</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44851</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44855</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44855</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44855</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44855</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44859</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44859</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>44859</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>44862</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44862</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>44864</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>44865</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>44868</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34459,7 +34459,7 @@
         <v>44868</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34516,7 +34516,7 @@
         <v>44868</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44869</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34640,7 +34640,7 @@
         <v>44872</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44873</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44879</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>44881</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>44881</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44886</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>44886</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>44886</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>44887</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>44887</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>44887</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>44887</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>44895</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>44895</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>44896</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44896</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44897</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44897</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44897</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>44897</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44900</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44900</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44904</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44908</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44908</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36090,7 +36090,7 @@
         <v>44908</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44909</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>44909</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36276,7 +36276,7 @@
         <v>44909</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44909</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44911</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44911</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44931</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36581,7 +36581,7 @@
         <v>44934</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36638,7 +36638,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36700,7 +36700,7 @@
         <v>44943</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36757,7 +36757,7 @@
         <v>44943</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36814,7 +36814,7 @@
         <v>44949</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36876,7 +36876,7 @@
         <v>44957</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36933,7 +36933,7 @@
         <v>44957</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36990,7 +36990,7 @@
         <v>44958</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>44958</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>44960</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>44960</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>44966</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>44970</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>44970</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37399,7 +37399,7 @@
         <v>44971</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37456,7 +37456,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37513,7 +37513,7 @@
         <v>44979</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37570,7 +37570,7 @@
         <v>44979</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37627,7 +37627,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37684,7 +37684,7 @@
         <v>44985</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         <v>44985</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37803,7 +37803,7 @@
         <v>44986</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37860,7 +37860,7 @@
         <v>44988</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37922,7 +37922,7 @@
         <v>44991</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37979,7 +37979,7 @@
         <v>44991</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38036,7 +38036,7 @@
         <v>44998</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38093,7 +38093,7 @@
         <v>44999</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>44999</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45001</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38274,7 +38274,7 @@
         <v>45001</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38336,7 +38336,7 @@
         <v>45001</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38398,7 +38398,7 @@
         <v>45007</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38455,7 +38455,7 @@
         <v>45007</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38517,7 +38517,7 @@
         <v>45012</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38579,7 +38579,7 @@
         <v>45013</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38636,7 +38636,7 @@
         <v>45014</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38698,7 +38698,7 @@
         <v>45014</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         <v>45014</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>45016</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38879,7 +38879,7 @@
         <v>45022</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38936,7 +38936,7 @@
         <v>45022</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38993,7 +38993,7 @@
         <v>45022</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39050,7 +39050,7 @@
         <v>45022</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39107,7 +39107,7 @@
         <v>45029</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39164,7 +39164,7 @@
         <v>45030</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39221,7 +39221,7 @@
         <v>45034</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39278,7 +39278,7 @@
         <v>45036</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39335,7 +39335,7 @@
         <v>45039</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39392,7 +39392,7 @@
         <v>45039</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39449,7 +39449,7 @@
         <v>45039</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         <v>45039</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39563,7 +39563,7 @@
         <v>45041</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39620,7 +39620,7 @@
         <v>45043</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>45048</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>45048</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45051</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>45053</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>45056</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39972,7 +39972,7 @@
         <v>45056</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40029,7 +40029,7 @@
         <v>45056</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40086,7 +40086,7 @@
         <v>45056</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>45056</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40200,7 +40200,7 @@
         <v>45056</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40257,7 +40257,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40314,7 +40314,7 @@
         <v>45066</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40371,7 +40371,7 @@
         <v>45068</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
         <v>45073</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40485,7 +40485,7 @@
         <v>45073</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>45079</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>45081</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40656,7 +40656,7 @@
         <v>45081</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40713,7 +40713,7 @@
         <v>45082</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40770,7 +40770,7 @@
         <v>45085</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40832,7 +40832,7 @@
         <v>45089</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40889,7 +40889,7 @@
         <v>45097</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         <v>45098</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41008,7 +41008,7 @@
         <v>45099</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41065,7 +41065,7 @@
         <v>45103</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41142,7 +41142,7 @@
         <v>45104</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41199,7 +41199,7 @@
         <v>45104</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41256,7 +41256,7 @@
         <v>45105</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41318,7 +41318,7 @@
         <v>45105</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41380,7 +41380,7 @@
         <v>45110</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41437,7 +41437,7 @@
         <v>45113</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41499,7 +41499,7 @@
         <v>45114</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41556,7 +41556,7 @@
         <v>45114</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41613,7 +41613,7 @@
         <v>45114</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41670,7 +41670,7 @@
         <v>45119</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41727,7 +41727,7 @@
         <v>45121</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41784,7 +41784,7 @@
         <v>45121</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41841,7 +41841,7 @@
         <v>45121</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41898,7 +41898,7 @@
         <v>45140</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41955,7 +41955,7 @@
         <v>45140</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42012,7 +42012,7 @@
         <v>45140</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         <v>45140</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>45141</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42188,7 +42188,7 @@
         <v>45141</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42245,7 +42245,7 @@
         <v>45142</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42302,7 +42302,7 @@
         <v>45147</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42359,7 +42359,7 @@
         <v>45147</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42416,7 +42416,7 @@
         <v>45147</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42478,7 +42478,7 @@
         <v>45148</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42535,7 +42535,7 @@
         <v>45149</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45154</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45155</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42716,7 +42716,7 @@
         <v>45159</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42773,7 +42773,7 @@
         <v>45159</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42830,7 +42830,7 @@
         <v>45160</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42892,7 +42892,7 @@
         <v>45160</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42954,7 +42954,7 @@
         <v>45160</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43016,7 +43016,7 @@
         <v>45160</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43078,7 +43078,7 @@
         <v>45161</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43135,7 +43135,7 @@
         <v>45161</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43192,7 +43192,7 @@
         <v>45162</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>45163</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43306,7 +43306,7 @@
         <v>45163</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         <v>45163</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43420,7 +43420,7 @@
         <v>45163</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43477,7 +43477,7 @@
         <v>45166</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43534,7 +43534,7 @@
         <v>45166</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43591,7 +43591,7 @@
         <v>45166</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43648,7 +43648,7 @@
         <v>45169</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43705,7 +43705,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43762,7 +43762,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>

--- a/Översikt FLEN.xlsx
+++ b/Översikt FLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44883</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44587</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>44378</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43776</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>44832</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43493</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43752</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>43838</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43668</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44071</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44578</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>45002</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45039</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>45105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>45142</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43643</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43703</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>44624</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44714</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44819</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44865</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44986</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>45140</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43363</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43661</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43691</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43703</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43747</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43754</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43776</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43858</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43943</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44014</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>44484</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44503</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>44503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>44608</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44624</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44624</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44792</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44931</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44957</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>44971</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>45044</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>45156</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45166</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43324</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43347</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43347</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43347</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43347</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43357</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43368</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43368</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43371</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43388</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43397</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43412</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43431</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43433</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43446</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43450</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43455</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43472</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43483</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43494</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43495</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43497</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43514</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43522</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43535</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43538</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43539</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43539</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43551</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43559</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43559</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43560</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43560</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43565</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43567</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43570</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43616</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>43621</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43635</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43643</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43659</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43661</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>43661</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>43661</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43664</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43668</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43669</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43669</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43669</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43669</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43675</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43676</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>43676</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>43678</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>43679</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43679</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43679</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>43679</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>43682</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43684</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43688</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>43688</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>43691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43697</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43717</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>43725</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>43726</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>43738</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>43739</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>43740</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>43745</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>43746</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43747</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43752</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>43752</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>43753</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>43756</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>43758</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>43758</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>43769</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>43776</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>43776</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>43787</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>43794</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>43795</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>43798</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43803</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>43811</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>43811</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43811</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43823</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43832</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>43839</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43846</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>43847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43847</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43853</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43857</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>43864</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43872</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43873</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43881</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>43885</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>43885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>43889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>43889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>43893</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>43894</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>43901</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>43901</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>43902</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43902</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43907</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43907</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>43911</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>43917</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>43922</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>43943</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>43948</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>43955</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>43955</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>43957</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>43959</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>43959</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>43959</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>43979</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>43980</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>43983</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>43983</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>43983</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>43985</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>43998</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>43999</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43999</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44004</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>44005</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>44007</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>44011</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         <v>44011</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16600,7 +16600,7 @@
         <v>44012</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44018</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44018</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44021</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>44026</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44027</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44028</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44029</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44039</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44039</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44042</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44043</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44043</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44047</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44049</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44053</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>44053</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>44056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>44062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44062</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>44067</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>44085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44085</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44097</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44098</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>44104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44106</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44113</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44127</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44127</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44138</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44138</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44138</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44140</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44140</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44152</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44158</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44158</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44172</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44178</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44187</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44188</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20018,7 +20018,7 @@
         <v>44193</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44201</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44203</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44208</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>44208</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44208</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44209</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44217</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>44218</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44230</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44242</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44242</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44242</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44246</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>44246</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44246</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44248</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44250</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44250</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44252</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44252</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>44258</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>44260</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>44263</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>44263</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>44265</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44281</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44281</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44292</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44292</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44292</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44293</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44297</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44297</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44297</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44301</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22450,7 +22450,7 @@
         <v>44301</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22512,7 +22512,7 @@
         <v>44302</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>44302</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44302</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>44323</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>44323</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44328</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44344</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44350</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44350</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44360</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44360</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>44365</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44365</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44365</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44378</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44384</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44384</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44384</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44386</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44398</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44404</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44411</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44413</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44414</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44414</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44421</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44421</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44423</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44423</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44425</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44425</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44425</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44425</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44431</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44432</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>44432</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44433</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44433</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44435</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44448</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44448</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44449</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44449</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44449</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44452</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>44452</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44453</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44453</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44454</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44454</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44458</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44458</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44459</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44459</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44459</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44463</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44463</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44463</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44463</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44463</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44463</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44466</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44469</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>44469</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>44470</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>44472</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>44473</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>44473</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>44487</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>44490</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>44495</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44495</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>44495</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>44501</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>44508</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44508</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>44511</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>44518</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>44522</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>44522</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>44531</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>44535</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>44536</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>44544</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>44566</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28064,7 +28064,7 @@
         <v>44578</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>44578</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>44579</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>44580</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>44588</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>44588</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>44594</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>44596</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>44602</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>44606</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44608</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>44610</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>44614</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>44614</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>44614</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28939,7 +28939,7 @@
         <v>44616</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28996,7 +28996,7 @@
         <v>44624</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29053,7 +29053,7 @@
         <v>44624</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29110,7 +29110,7 @@
         <v>44624</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29167,7 +29167,7 @@
         <v>44624</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>44624</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29281,7 +29281,7 @@
         <v>44636</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29338,7 +29338,7 @@
         <v>44636</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>44636</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29452,7 +29452,7 @@
         <v>44636</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29509,7 +29509,7 @@
         <v>44637</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44637</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>44640</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29680,7 +29680,7 @@
         <v>44643</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29737,7 +29737,7 @@
         <v>44643</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44643</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29851,7 +29851,7 @@
         <v>44648</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         <v>44667</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44671</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30027,7 +30027,7 @@
         <v>44676</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>44680</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         <v>44697</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30203,7 +30203,7 @@
         <v>44697</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>44701</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>44704</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         <v>44705</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30431,7 +30431,7 @@
         <v>44715</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30493,7 +30493,7 @@
         <v>44715</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>44719</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>44722</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44725</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44733</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44739</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44739</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>44741</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>44742</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44746</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31088,7 +31088,7 @@
         <v>44752</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31145,7 +31145,7 @@
         <v>44752</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>44752</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>44752</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31316,7 +31316,7 @@
         <v>44753</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44769</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44769</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44769</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44769</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44769</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44770</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44771</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44774</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44778</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44778</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44782</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44785</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44785</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44791</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44795</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44796</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44807</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44807</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44814</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44817</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44818</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44818</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44818</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44823</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44826</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44830</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44834</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44837</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44838</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44838</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44838</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44838</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44839</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44839</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44841</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44846</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44846</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44848</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>44848</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33626,7 +33626,7 @@
         <v>44848</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44851</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44855</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44855</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44855</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44855</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44859</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44859</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>44859</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>44862</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44862</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>44864</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>44865</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>44868</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34459,7 +34459,7 @@
         <v>44868</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34516,7 +34516,7 @@
         <v>44868</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44869</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34640,7 +34640,7 @@
         <v>44872</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44873</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44879</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>44881</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>44881</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44886</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>44886</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>44886</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>44887</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>44887</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>44887</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>44887</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>44895</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>44895</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>44896</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44896</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44897</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44897</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44897</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>44897</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44900</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44900</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44904</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44908</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44908</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36090,7 +36090,7 @@
         <v>44908</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44909</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>44909</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36276,7 +36276,7 @@
         <v>44909</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44909</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44911</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44911</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44931</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36581,7 +36581,7 @@
         <v>44934</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36638,7 +36638,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36700,7 +36700,7 @@
         <v>44943</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36757,7 +36757,7 @@
         <v>44943</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36814,7 +36814,7 @@
         <v>44949</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36876,7 +36876,7 @@
         <v>44957</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36933,7 +36933,7 @@
         <v>44957</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36990,7 +36990,7 @@
         <v>44958</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>44958</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>44960</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>44960</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>44966</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>44970</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>44970</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37399,7 +37399,7 @@
         <v>44971</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37456,7 +37456,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37513,7 +37513,7 @@
         <v>44979</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37570,7 +37570,7 @@
         <v>44979</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37627,7 +37627,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37684,7 +37684,7 @@
         <v>44985</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         <v>44985</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37803,7 +37803,7 @@
         <v>44986</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37860,7 +37860,7 @@
         <v>44988</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37922,7 +37922,7 @@
         <v>44991</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37979,7 +37979,7 @@
         <v>44991</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38036,7 +38036,7 @@
         <v>44998</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38093,7 +38093,7 @@
         <v>44999</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>44999</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45001</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38274,7 +38274,7 @@
         <v>45001</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38336,7 +38336,7 @@
         <v>45001</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38398,7 +38398,7 @@
         <v>45007</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38455,7 +38455,7 @@
         <v>45007</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38517,7 +38517,7 @@
         <v>45012</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38579,7 +38579,7 @@
         <v>45013</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38636,7 +38636,7 @@
         <v>45014</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38698,7 +38698,7 @@
         <v>45014</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         <v>45014</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>45016</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38879,7 +38879,7 @@
         <v>45022</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38936,7 +38936,7 @@
         <v>45022</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38993,7 +38993,7 @@
         <v>45022</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39050,7 +39050,7 @@
         <v>45022</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39107,7 +39107,7 @@
         <v>45029</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39164,7 +39164,7 @@
         <v>45030</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39221,7 +39221,7 @@
         <v>45034</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39278,7 +39278,7 @@
         <v>45036</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39335,7 +39335,7 @@
         <v>45039</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39392,7 +39392,7 @@
         <v>45039</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39449,7 +39449,7 @@
         <v>45039</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         <v>45039</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39563,7 +39563,7 @@
         <v>45041</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39620,7 +39620,7 @@
         <v>45043</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>45048</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>45048</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45051</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>45053</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>45056</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39972,7 +39972,7 @@
         <v>45056</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40029,7 +40029,7 @@
         <v>45056</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40086,7 +40086,7 @@
         <v>45056</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>45056</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40200,7 +40200,7 @@
         <v>45056</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40257,7 +40257,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40314,7 +40314,7 @@
         <v>45066</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40371,7 +40371,7 @@
         <v>45068</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
         <v>45073</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40485,7 +40485,7 @@
         <v>45073</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>45079</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>45081</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40656,7 +40656,7 @@
         <v>45081</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40713,7 +40713,7 @@
         <v>45082</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40770,7 +40770,7 @@
         <v>45085</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40832,7 +40832,7 @@
         <v>45089</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40889,7 +40889,7 @@
         <v>45097</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         <v>45098</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41008,7 +41008,7 @@
         <v>45099</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41065,7 +41065,7 @@
         <v>45103</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41142,7 +41142,7 @@
         <v>45104</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41199,7 +41199,7 @@
         <v>45104</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41256,7 +41256,7 @@
         <v>45105</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41318,7 +41318,7 @@
         <v>45105</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41380,7 +41380,7 @@
         <v>45110</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41437,7 +41437,7 @@
         <v>45113</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41499,7 +41499,7 @@
         <v>45114</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41556,7 +41556,7 @@
         <v>45114</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41613,7 +41613,7 @@
         <v>45114</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41670,7 +41670,7 @@
         <v>45119</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41727,7 +41727,7 @@
         <v>45121</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41784,7 +41784,7 @@
         <v>45121</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41841,7 +41841,7 @@
         <v>45121</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41898,7 +41898,7 @@
         <v>45140</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41955,7 +41955,7 @@
         <v>45140</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42012,7 +42012,7 @@
         <v>45140</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         <v>45140</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>45141</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42188,7 +42188,7 @@
         <v>45141</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42245,7 +42245,7 @@
         <v>45142</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42302,7 +42302,7 @@
         <v>45147</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42359,7 +42359,7 @@
         <v>45147</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42416,7 +42416,7 @@
         <v>45147</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42478,7 +42478,7 @@
         <v>45148</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42535,7 +42535,7 @@
         <v>45149</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45154</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45155</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42716,7 +42716,7 @@
         <v>45159</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42773,7 +42773,7 @@
         <v>45159</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42830,7 +42830,7 @@
         <v>45160</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42892,7 +42892,7 @@
         <v>45160</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42954,7 +42954,7 @@
         <v>45160</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43016,7 +43016,7 @@
         <v>45160</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43078,7 +43078,7 @@
         <v>45161</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43135,7 +43135,7 @@
         <v>45161</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43192,7 +43192,7 @@
         <v>45162</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>45163</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43306,7 +43306,7 @@
         <v>45163</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         <v>45163</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43420,7 +43420,7 @@
         <v>45163</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43477,7 +43477,7 @@
         <v>45166</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43534,7 +43534,7 @@
         <v>45166</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43591,7 +43591,7 @@
         <v>45166</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43648,7 +43648,7 @@
         <v>45169</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43705,7 +43705,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43762,7 +43762,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>

--- a/Översikt FLEN.xlsx
+++ b/Översikt FLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44883</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44587</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>44378</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43776</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>44832</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43493</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43752</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>43838</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43668</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44071</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44578</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>45002</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45039</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>45105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>45142</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43643</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43703</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>44624</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44714</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44819</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44865</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44986</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>45140</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43363</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43661</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43691</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43703</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43747</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43754</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43776</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43858</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43943</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44014</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>44484</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44503</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>44503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>44608</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44624</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44624</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44792</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44931</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44957</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>44971</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>45044</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>45156</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45166</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43324</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43347</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43347</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43347</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43347</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43357</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43368</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43368</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43371</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43388</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43397</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43412</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43431</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43433</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43446</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43450</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43455</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43472</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43483</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43494</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43495</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43497</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43514</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43522</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43535</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43538</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43539</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43539</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43551</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43559</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43559</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43560</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43560</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43565</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43567</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43570</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43616</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>43621</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43635</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43643</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43659</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43661</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>43661</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>43661</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43664</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43668</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43669</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43669</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43669</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43669</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43675</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43676</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>43676</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>43678</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>43679</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43679</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43679</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>43679</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>43682</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43684</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43688</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>43688</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>43691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43697</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43717</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>43725</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>43726</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>43738</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>43739</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>43740</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>43745</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>43746</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43747</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43752</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>43752</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>43753</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>43756</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>43758</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>43758</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>43769</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>43776</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>43776</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>43787</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>43794</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>43795</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>43798</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43803</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>43811</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>43811</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43811</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43823</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43832</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>43839</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43846</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>43847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43847</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43853</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43857</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>43864</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43872</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43873</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43881</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>43885</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>43885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>43889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>43889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>43893</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>43894</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>43901</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>43901</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>43902</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43902</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43907</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43907</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>43911</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>43917</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>43922</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>43943</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>43948</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>43955</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>43955</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>43957</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>43959</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>43959</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>43959</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>43979</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>43980</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>43983</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>43983</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>43983</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>43985</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>43998</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>43999</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43999</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44004</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>44005</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>44007</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>44011</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         <v>44011</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16600,7 +16600,7 @@
         <v>44012</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44018</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44018</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44021</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>44026</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44027</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44028</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44029</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44039</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44039</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44042</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44043</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44043</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44047</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44049</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44053</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>44053</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>44056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>44062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44062</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>44067</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>44085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44085</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44097</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44098</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>44104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44106</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44113</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44127</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44127</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44138</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44138</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44138</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44140</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44140</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44152</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44158</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44158</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44172</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44178</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44187</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44188</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20018,7 +20018,7 @@
         <v>44193</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44201</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44203</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44208</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>44208</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44208</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44209</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44217</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>44218</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44230</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44242</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44242</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44242</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44246</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>44246</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44246</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44248</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44250</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44250</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44252</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44252</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>44258</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>44260</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>44263</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>44263</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>44265</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44281</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44281</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44292</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44292</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44292</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44293</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44297</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44297</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44297</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44301</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22450,7 +22450,7 @@
         <v>44301</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22512,7 +22512,7 @@
         <v>44302</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>44302</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44302</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>44323</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>44323</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44328</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44344</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44350</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44350</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44360</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44360</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>44365</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44365</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44365</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44378</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44384</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44384</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44384</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44386</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44398</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44404</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44411</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44413</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44414</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44414</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44421</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44421</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44423</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44423</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44425</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44425</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44425</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44425</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44431</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44432</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>44432</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44433</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44433</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44435</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44448</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44448</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44449</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44449</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44449</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44452</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>44452</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44453</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44453</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44454</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44454</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44458</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44458</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44459</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44459</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44459</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44463</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44463</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44463</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44463</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44463</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44463</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44466</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44469</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>44469</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>44470</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>44472</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>44473</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>44473</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>44487</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>44490</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>44495</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44495</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>44495</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>44501</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>44508</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44508</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>44511</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>44518</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>44522</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>44522</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>44531</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>44535</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>44536</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>44544</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>44566</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28064,7 +28064,7 @@
         <v>44578</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>44578</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>44579</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>44580</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>44588</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>44588</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>44594</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>44596</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>44602</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>44606</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44608</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>44610</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>44614</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>44614</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>44614</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28939,7 +28939,7 @@
         <v>44616</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28996,7 +28996,7 @@
         <v>44624</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29053,7 +29053,7 @@
         <v>44624</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29110,7 +29110,7 @@
         <v>44624</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29167,7 +29167,7 @@
         <v>44624</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>44624</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29281,7 +29281,7 @@
         <v>44636</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29338,7 +29338,7 @@
         <v>44636</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>44636</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29452,7 +29452,7 @@
         <v>44636</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29509,7 +29509,7 @@
         <v>44637</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44637</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>44640</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29680,7 +29680,7 @@
         <v>44643</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29737,7 +29737,7 @@
         <v>44643</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44643</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29851,7 +29851,7 @@
         <v>44648</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         <v>44667</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44671</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30027,7 +30027,7 @@
         <v>44676</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>44680</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         <v>44697</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30203,7 +30203,7 @@
         <v>44697</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>44701</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>44704</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         <v>44705</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30431,7 +30431,7 @@
         <v>44715</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30493,7 +30493,7 @@
         <v>44715</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>44719</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>44722</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44725</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44733</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44739</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44739</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>44741</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>44742</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44746</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31088,7 +31088,7 @@
         <v>44752</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31145,7 +31145,7 @@
         <v>44752</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>44752</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>44752</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31316,7 +31316,7 @@
         <v>44753</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44769</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44769</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44769</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44769</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44769</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44770</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44771</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44774</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44778</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44778</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44782</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44785</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44785</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44791</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44795</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44796</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44807</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44807</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44814</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44817</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44818</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44818</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44818</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44823</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44826</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44830</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44834</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44837</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44838</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44838</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44838</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44838</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44839</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44839</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44841</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44846</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44846</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44848</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>44848</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33626,7 +33626,7 @@
         <v>44848</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44851</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44855</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44855</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44855</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44855</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44859</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44859</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>44859</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>44862</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44862</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>44864</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>44865</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>44868</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34459,7 +34459,7 @@
         <v>44868</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34516,7 +34516,7 @@
         <v>44868</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44869</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34640,7 +34640,7 @@
         <v>44872</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44873</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44879</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>44881</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>44881</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44886</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>44886</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>44886</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>44887</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>44887</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>44887</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>44887</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>44895</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>44895</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>44896</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44896</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44897</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44897</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44897</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>44897</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44900</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44900</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44904</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44908</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44908</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36090,7 +36090,7 @@
         <v>44908</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44909</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>44909</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36276,7 +36276,7 @@
         <v>44909</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44909</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44911</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44911</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44931</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36581,7 +36581,7 @@
         <v>44934</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36638,7 +36638,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36700,7 +36700,7 @@
         <v>44943</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36757,7 +36757,7 @@
         <v>44943</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36814,7 +36814,7 @@
         <v>44949</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36876,7 +36876,7 @@
         <v>44957</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36933,7 +36933,7 @@
         <v>44957</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36990,7 +36990,7 @@
         <v>44958</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>44958</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>44960</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>44960</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>44966</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>44970</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>44970</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37399,7 +37399,7 @@
         <v>44971</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37456,7 +37456,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37513,7 +37513,7 @@
         <v>44979</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37570,7 +37570,7 @@
         <v>44979</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37627,7 +37627,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37684,7 +37684,7 @@
         <v>44985</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         <v>44985</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37803,7 +37803,7 @@
         <v>44986</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37860,7 +37860,7 @@
         <v>44988</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37922,7 +37922,7 @@
         <v>44991</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37979,7 +37979,7 @@
         <v>44991</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38036,7 +38036,7 @@
         <v>44998</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38093,7 +38093,7 @@
         <v>44999</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>44999</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45001</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38274,7 +38274,7 @@
         <v>45001</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38336,7 +38336,7 @@
         <v>45001</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38398,7 +38398,7 @@
         <v>45007</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38455,7 +38455,7 @@
         <v>45007</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38517,7 +38517,7 @@
         <v>45012</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38579,7 +38579,7 @@
         <v>45013</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38636,7 +38636,7 @@
         <v>45014</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38698,7 +38698,7 @@
         <v>45014</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         <v>45014</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>45016</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38879,7 +38879,7 @@
         <v>45022</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38936,7 +38936,7 @@
         <v>45022</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38993,7 +38993,7 @@
         <v>45022</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39050,7 +39050,7 @@
         <v>45022</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39107,7 +39107,7 @@
         <v>45029</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39164,7 +39164,7 @@
         <v>45030</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39221,7 +39221,7 @@
         <v>45034</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39278,7 +39278,7 @@
         <v>45036</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39335,7 +39335,7 @@
         <v>45039</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39392,7 +39392,7 @@
         <v>45039</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39449,7 +39449,7 @@
         <v>45039</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         <v>45039</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39563,7 +39563,7 @@
         <v>45041</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39620,7 +39620,7 @@
         <v>45043</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>45048</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>45048</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45051</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>45053</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>45056</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39972,7 +39972,7 @@
         <v>45056</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40029,7 +40029,7 @@
         <v>45056</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40086,7 +40086,7 @@
         <v>45056</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>45056</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40200,7 +40200,7 @@
         <v>45056</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40257,7 +40257,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40314,7 +40314,7 @@
         <v>45066</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40371,7 +40371,7 @@
         <v>45068</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
         <v>45073</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40485,7 +40485,7 @@
         <v>45073</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>45079</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>45081</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40656,7 +40656,7 @@
         <v>45081</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40713,7 +40713,7 @@
         <v>45082</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40770,7 +40770,7 @@
         <v>45085</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40832,7 +40832,7 @@
         <v>45089</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40889,7 +40889,7 @@
         <v>45097</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         <v>45098</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41008,7 +41008,7 @@
         <v>45099</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41065,7 +41065,7 @@
         <v>45103</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41142,7 +41142,7 @@
         <v>45104</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41199,7 +41199,7 @@
         <v>45104</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41256,7 +41256,7 @@
         <v>45105</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41318,7 +41318,7 @@
         <v>45105</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41380,7 +41380,7 @@
         <v>45110</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41437,7 +41437,7 @@
         <v>45113</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41499,7 +41499,7 @@
         <v>45114</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41556,7 +41556,7 @@
         <v>45114</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41613,7 +41613,7 @@
         <v>45114</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41670,7 +41670,7 @@
         <v>45119</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41727,7 +41727,7 @@
         <v>45121</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41784,7 +41784,7 @@
         <v>45121</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41841,7 +41841,7 @@
         <v>45121</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41898,7 +41898,7 @@
         <v>45140</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41955,7 +41955,7 @@
         <v>45140</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42012,7 +42012,7 @@
         <v>45140</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         <v>45140</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>45141</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42188,7 +42188,7 @@
         <v>45141</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42245,7 +42245,7 @@
         <v>45142</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42302,7 +42302,7 @@
         <v>45147</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42359,7 +42359,7 @@
         <v>45147</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42416,7 +42416,7 @@
         <v>45147</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42478,7 +42478,7 @@
         <v>45148</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42535,7 +42535,7 @@
         <v>45149</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45154</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45155</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42716,7 +42716,7 @@
         <v>45159</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42773,7 +42773,7 @@
         <v>45159</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42830,7 +42830,7 @@
         <v>45160</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42892,7 +42892,7 @@
         <v>45160</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42954,7 +42954,7 @@
         <v>45160</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43016,7 +43016,7 @@
         <v>45160</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43078,7 +43078,7 @@
         <v>45161</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43135,7 +43135,7 @@
         <v>45161</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43192,7 +43192,7 @@
         <v>45162</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>45163</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43306,7 +43306,7 @@
         <v>45163</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         <v>45163</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43420,7 +43420,7 @@
         <v>45163</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43477,7 +43477,7 @@
         <v>45166</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43534,7 +43534,7 @@
         <v>45166</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43591,7 +43591,7 @@
         <v>45166</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43648,7 +43648,7 @@
         <v>45169</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43705,7 +43705,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43762,7 +43762,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>

--- a/Översikt FLEN.xlsx
+++ b/Översikt FLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44883</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44587</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>44378</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43776</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>44832</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43493</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43752</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>43838</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43668</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44071</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44578</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>45002</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45039</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>45105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>45142</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43643</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43703</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>44624</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44714</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44819</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44865</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44986</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>45140</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43363</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43661</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43691</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43703</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43747</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43754</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43776</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43858</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43943</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44014</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>44484</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44503</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>44503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>44608</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44624</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44624</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44792</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44931</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44957</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>44971</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>45044</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>45156</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45166</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43324</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43347</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43347</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43347</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43347</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43357</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43368</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43368</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43371</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43388</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43397</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43412</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43431</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43433</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43446</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43450</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43455</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43472</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43483</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43494</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43495</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43497</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43514</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43522</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43535</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43538</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43539</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43539</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43551</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43559</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43559</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43560</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43560</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43565</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43567</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43570</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43616</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>43621</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43635</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43643</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43659</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43661</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>43661</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>43661</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43664</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43668</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43669</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43669</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43669</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43669</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43675</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43676</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>43676</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>43678</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>43679</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43679</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43679</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>43679</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>43682</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43684</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43688</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>43688</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>43691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43697</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43717</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>43725</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>43726</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>43738</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>43739</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>43740</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>43745</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>43746</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43747</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43752</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>43752</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>43753</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>43756</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>43758</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>43758</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>43769</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>43776</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>43776</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>43787</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>43794</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>43795</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>43798</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43803</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>43811</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>43811</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43811</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43823</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43832</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>43839</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43846</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>43847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43847</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43853</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43857</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>43864</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43872</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43873</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43881</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>43885</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>43885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>43889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>43889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>43893</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>43894</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>43901</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>43901</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>43902</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43902</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43907</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43907</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>43911</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>43917</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>43922</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>43943</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>43948</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>43955</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>43955</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>43957</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>43959</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>43959</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>43959</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>43979</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>43980</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>43983</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>43983</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>43983</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>43985</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>43998</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>43999</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43999</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44004</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>44005</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>44007</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>44011</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         <v>44011</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16600,7 +16600,7 @@
         <v>44012</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44018</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44018</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44021</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>44026</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44027</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44028</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44029</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44039</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44039</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44042</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44043</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44043</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44047</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44049</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44053</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>44053</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>44056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>44062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44062</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>44067</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>44085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44085</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44097</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44098</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>44104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44106</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44113</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44127</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44127</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44138</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44138</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44138</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44140</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44140</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44152</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44158</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44158</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44172</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44178</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44187</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44188</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20018,7 +20018,7 @@
         <v>44193</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44201</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44203</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44208</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>44208</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44208</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44209</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44217</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>44218</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44230</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44242</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44242</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44242</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44246</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>44246</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44246</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44248</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44250</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44250</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44252</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44252</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>44258</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>44260</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>44263</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>44263</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>44265</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44281</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44281</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44292</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44292</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44292</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44293</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44297</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44297</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44297</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44301</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22450,7 +22450,7 @@
         <v>44301</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22512,7 +22512,7 @@
         <v>44302</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>44302</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44302</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>44323</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>44323</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44328</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44344</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44350</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44350</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44360</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44360</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>44365</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44365</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44365</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44378</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44384</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44384</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44384</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44386</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44398</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44404</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44411</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44413</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44414</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44414</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44421</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44421</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44423</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44423</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44425</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44425</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44425</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44425</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44431</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44432</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>44432</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44433</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44433</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44435</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44448</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44448</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44449</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44449</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44449</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44452</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>44452</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44453</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44453</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44454</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44454</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44458</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44458</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44459</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44459</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44459</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44463</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44463</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44463</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44463</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44463</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44463</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44466</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44469</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>44469</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>44470</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>44472</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>44473</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>44473</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>44487</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>44490</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>44495</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44495</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>44495</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>44501</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>44508</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44508</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>44511</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>44518</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>44522</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>44522</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>44531</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>44535</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>44536</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>44544</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>44566</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28064,7 +28064,7 @@
         <v>44578</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>44578</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>44579</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>44580</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>44588</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>44588</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>44594</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>44596</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>44602</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>44606</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44608</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>44610</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>44614</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>44614</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>44614</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28939,7 +28939,7 @@
         <v>44616</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28996,7 +28996,7 @@
         <v>44624</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29053,7 +29053,7 @@
         <v>44624</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29110,7 +29110,7 @@
         <v>44624</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29167,7 +29167,7 @@
         <v>44624</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>44624</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29281,7 +29281,7 @@
         <v>44636</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29338,7 +29338,7 @@
         <v>44636</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>44636</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29452,7 +29452,7 @@
         <v>44636</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29509,7 +29509,7 @@
         <v>44637</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44637</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>44640</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29680,7 +29680,7 @@
         <v>44643</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29737,7 +29737,7 @@
         <v>44643</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44643</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29851,7 +29851,7 @@
         <v>44648</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         <v>44667</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44671</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30027,7 +30027,7 @@
         <v>44676</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>44680</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         <v>44697</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30203,7 +30203,7 @@
         <v>44697</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>44701</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>44704</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         <v>44705</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30431,7 +30431,7 @@
         <v>44715</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30493,7 +30493,7 @@
         <v>44715</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>44719</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>44722</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44725</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44733</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44739</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44739</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>44741</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>44742</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44746</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31088,7 +31088,7 @@
         <v>44752</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31145,7 +31145,7 @@
         <v>44752</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>44752</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>44752</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31316,7 +31316,7 @@
         <v>44753</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44769</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44769</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44769</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44769</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44769</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44770</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44771</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44774</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44778</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44778</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44782</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44785</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44785</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44791</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44795</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44796</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44807</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44807</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44814</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44817</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44818</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44818</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44818</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44823</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44826</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44830</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44834</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44837</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44838</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44838</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44838</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44838</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44839</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44839</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44841</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44846</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44846</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44848</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>44848</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33626,7 +33626,7 @@
         <v>44848</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44851</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44855</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44855</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44855</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44855</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44859</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44859</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>44859</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>44862</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44862</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>44864</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>44865</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>44868</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34459,7 +34459,7 @@
         <v>44868</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34516,7 +34516,7 @@
         <v>44868</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44869</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34640,7 +34640,7 @@
         <v>44872</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44873</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44879</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>44881</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>44881</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44886</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>44886</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>44886</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>44887</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>44887</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>44887</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>44887</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>44895</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>44895</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>44896</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44896</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44897</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44897</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44897</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>44897</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44900</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44900</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44904</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44908</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44908</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36090,7 +36090,7 @@
         <v>44908</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44909</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>44909</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36276,7 +36276,7 @@
         <v>44909</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44909</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44911</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44911</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44931</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36581,7 +36581,7 @@
         <v>44934</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36638,7 +36638,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36700,7 +36700,7 @@
         <v>44943</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36757,7 +36757,7 @@
         <v>44943</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36814,7 +36814,7 @@
         <v>44949</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36876,7 +36876,7 @@
         <v>44957</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36933,7 +36933,7 @@
         <v>44957</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36990,7 +36990,7 @@
         <v>44958</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>44958</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>44960</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>44960</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>44966</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>44970</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>44970</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37399,7 +37399,7 @@
         <v>44971</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37456,7 +37456,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37513,7 +37513,7 @@
         <v>44979</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37570,7 +37570,7 @@
         <v>44979</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37627,7 +37627,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37684,7 +37684,7 @@
         <v>44985</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         <v>44985</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37803,7 +37803,7 @@
         <v>44986</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37860,7 +37860,7 @@
         <v>44988</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37922,7 +37922,7 @@
         <v>44991</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37979,7 +37979,7 @@
         <v>44991</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38036,7 +38036,7 @@
         <v>44998</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38093,7 +38093,7 @@
         <v>44999</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>44999</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45001</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38274,7 +38274,7 @@
         <v>45001</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38336,7 +38336,7 @@
         <v>45001</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38398,7 +38398,7 @@
         <v>45007</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38455,7 +38455,7 @@
         <v>45007</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38517,7 +38517,7 @@
         <v>45012</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38579,7 +38579,7 @@
         <v>45013</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38636,7 +38636,7 @@
         <v>45014</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38698,7 +38698,7 @@
         <v>45014</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         <v>45014</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>45016</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38879,7 +38879,7 @@
         <v>45022</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38936,7 +38936,7 @@
         <v>45022</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38993,7 +38993,7 @@
         <v>45022</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39050,7 +39050,7 @@
         <v>45022</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39107,7 +39107,7 @@
         <v>45029</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39164,7 +39164,7 @@
         <v>45030</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39221,7 +39221,7 @@
         <v>45034</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39278,7 +39278,7 @@
         <v>45036</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39335,7 +39335,7 @@
         <v>45039</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39392,7 +39392,7 @@
         <v>45039</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39449,7 +39449,7 @@
         <v>45039</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         <v>45039</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39563,7 +39563,7 @@
         <v>45041</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39620,7 +39620,7 @@
         <v>45043</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>45048</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>45048</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45051</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>45053</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>45056</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39972,7 +39972,7 @@
         <v>45056</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40029,7 +40029,7 @@
         <v>45056</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40086,7 +40086,7 @@
         <v>45056</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>45056</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40200,7 +40200,7 @@
         <v>45056</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40257,7 +40257,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40314,7 +40314,7 @@
         <v>45066</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40371,7 +40371,7 @@
         <v>45068</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
         <v>45073</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40485,7 +40485,7 @@
         <v>45073</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>45079</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>45081</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40656,7 +40656,7 @@
         <v>45081</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40713,7 +40713,7 @@
         <v>45082</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40770,7 +40770,7 @@
         <v>45085</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40832,7 +40832,7 @@
         <v>45089</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40889,7 +40889,7 @@
         <v>45097</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         <v>45098</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41008,7 +41008,7 @@
         <v>45099</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41065,7 +41065,7 @@
         <v>45103</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41142,7 +41142,7 @@
         <v>45104</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41199,7 +41199,7 @@
         <v>45104</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41256,7 +41256,7 @@
         <v>45105</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41318,7 +41318,7 @@
         <v>45105</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41380,7 +41380,7 @@
         <v>45110</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41437,7 +41437,7 @@
         <v>45113</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41499,7 +41499,7 @@
         <v>45114</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41556,7 +41556,7 @@
         <v>45114</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41613,7 +41613,7 @@
         <v>45114</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41670,7 +41670,7 @@
         <v>45119</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41727,7 +41727,7 @@
         <v>45121</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41784,7 +41784,7 @@
         <v>45121</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41841,7 +41841,7 @@
         <v>45121</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41898,7 +41898,7 @@
         <v>45140</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41955,7 +41955,7 @@
         <v>45140</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42012,7 +42012,7 @@
         <v>45140</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         <v>45140</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>45141</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42188,7 +42188,7 @@
         <v>45141</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42245,7 +42245,7 @@
         <v>45142</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42302,7 +42302,7 @@
         <v>45147</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42359,7 +42359,7 @@
         <v>45147</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42416,7 +42416,7 @@
         <v>45147</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42478,7 +42478,7 @@
         <v>45148</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42535,7 +42535,7 @@
         <v>45149</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45154</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45155</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42716,7 +42716,7 @@
         <v>45159</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42773,7 +42773,7 @@
         <v>45159</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42830,7 +42830,7 @@
         <v>45160</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42892,7 +42892,7 @@
         <v>45160</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42954,7 +42954,7 @@
         <v>45160</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43016,7 +43016,7 @@
         <v>45160</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43078,7 +43078,7 @@
         <v>45161</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43135,7 +43135,7 @@
         <v>45161</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43192,7 +43192,7 @@
         <v>45162</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>45163</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43306,7 +43306,7 @@
         <v>45163</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         <v>45163</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43420,7 +43420,7 @@
         <v>45163</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43477,7 +43477,7 @@
         <v>45166</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43534,7 +43534,7 @@
         <v>45166</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43591,7 +43591,7 @@
         <v>45166</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43648,7 +43648,7 @@
         <v>45169</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43705,7 +43705,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43762,7 +43762,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>

--- a/Översikt FLEN.xlsx
+++ b/Översikt FLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44883</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44587</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>44378</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43776</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>44832</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43493</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43752</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>43838</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43668</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44071</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44578</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>45002</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45039</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>45105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>45142</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43643</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43703</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>44624</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44714</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44819</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44865</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44986</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>45140</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43363</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43661</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43691</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43703</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43747</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43754</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43776</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43858</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43943</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44014</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>44484</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44503</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>44503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>44608</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44624</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44624</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44792</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44931</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44957</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>44971</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>45044</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>45156</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45166</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43324</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43347</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43347</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43347</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43347</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43357</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43368</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43368</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43371</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43388</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43397</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43412</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43431</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43433</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43446</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43450</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43455</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43472</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43483</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43494</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43495</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43497</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43514</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43522</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43535</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43538</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43539</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43539</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43551</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43559</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43559</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43560</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43560</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43565</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43567</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43570</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43616</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>43621</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43635</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43643</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43659</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43661</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>43661</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>43661</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43664</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43668</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43669</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43669</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43669</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43669</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43675</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43676</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>43676</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>43678</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>43679</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43679</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43679</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>43679</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>43682</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43684</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43688</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>43688</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>43691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43697</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43717</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>43725</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>43726</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>43738</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>43739</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>43740</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>43745</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>43746</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43747</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43752</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>43752</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>43753</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>43756</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>43758</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>43758</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>43769</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>43776</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>43776</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>43787</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>43794</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>43795</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>43798</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43803</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>43811</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>43811</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43811</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43823</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43832</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>43839</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43846</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>43847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43847</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43853</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43857</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>43864</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43872</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43873</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43881</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>43885</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>43885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>43889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>43889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>43893</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>43894</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>43901</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>43901</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>43902</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43902</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43907</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43907</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>43911</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>43917</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>43922</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>43943</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>43948</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>43955</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>43955</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>43957</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>43959</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>43959</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>43959</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>43979</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>43980</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>43983</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>43983</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>43983</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>43985</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>43998</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>43999</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43999</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44004</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>44005</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>44007</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>44011</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         <v>44011</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16600,7 +16600,7 @@
         <v>44012</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44018</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44018</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44021</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>44026</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44027</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44028</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44029</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44039</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44039</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44042</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44043</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44043</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44047</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44049</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44053</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>44053</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>44056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>44062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44062</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>44067</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>44085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44085</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44097</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44098</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>44104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44106</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44113</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44127</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44127</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44138</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44138</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44138</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44140</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44140</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44152</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44158</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44158</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44172</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44178</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44187</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44188</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20018,7 +20018,7 @@
         <v>44193</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44201</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44203</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44208</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>44208</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44208</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44209</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44217</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>44218</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44230</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44242</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44242</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44242</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44246</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>44246</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44246</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44248</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44250</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44250</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44252</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44252</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>44258</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>44260</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>44263</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>44263</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>44265</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44281</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44281</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44292</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44292</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44292</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44293</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44297</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44297</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44297</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44301</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22450,7 +22450,7 @@
         <v>44301</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22512,7 +22512,7 @@
         <v>44302</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>44302</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44302</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>44323</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>44323</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44328</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44344</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44350</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44350</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44360</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44360</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>44365</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44365</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44365</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44378</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44384</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44384</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44384</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44386</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44398</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44404</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44411</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44413</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44414</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44414</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44421</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44421</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44423</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44423</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44425</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44425</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44425</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44425</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44431</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44432</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>44432</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44433</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44433</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44435</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44448</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44448</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44449</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44449</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44449</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44452</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>44452</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44453</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44453</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44454</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44454</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44458</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44458</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44459</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44459</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44459</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44463</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44463</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44463</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44463</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44463</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44463</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44466</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44469</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>44469</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>44470</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>44472</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>44473</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>44473</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>44487</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>44490</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>44495</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44495</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>44495</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>44501</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>44508</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44508</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>44511</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>44518</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>44522</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>44522</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>44531</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>44535</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>44536</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>44544</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>44566</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28064,7 +28064,7 @@
         <v>44578</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>44578</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>44579</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>44580</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>44588</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>44588</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>44594</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>44596</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>44602</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>44606</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44608</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>44610</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>44614</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>44614</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>44614</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28939,7 +28939,7 @@
         <v>44616</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28996,7 +28996,7 @@
         <v>44624</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29053,7 +29053,7 @@
         <v>44624</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29110,7 +29110,7 @@
         <v>44624</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29167,7 +29167,7 @@
         <v>44624</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>44624</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29281,7 +29281,7 @@
         <v>44636</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29338,7 +29338,7 @@
         <v>44636</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>44636</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29452,7 +29452,7 @@
         <v>44636</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29509,7 +29509,7 @@
         <v>44637</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44637</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>44640</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29680,7 +29680,7 @@
         <v>44643</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29737,7 +29737,7 @@
         <v>44643</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44643</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29851,7 +29851,7 @@
         <v>44648</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         <v>44667</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44671</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30027,7 +30027,7 @@
         <v>44676</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>44680</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         <v>44697</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30203,7 +30203,7 @@
         <v>44697</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>44701</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>44704</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         <v>44705</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30431,7 +30431,7 @@
         <v>44715</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30493,7 +30493,7 @@
         <v>44715</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>44719</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>44722</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44725</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44733</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44739</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44739</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>44741</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>44742</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44746</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31088,7 +31088,7 @@
         <v>44752</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31145,7 +31145,7 @@
         <v>44752</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>44752</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>44752</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31316,7 +31316,7 @@
         <v>44753</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44769</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44769</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44769</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44769</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44769</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44770</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44771</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44774</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44778</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44778</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44782</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44785</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44785</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44791</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44795</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44796</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44807</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44807</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44814</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44817</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44818</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44818</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44818</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44823</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44826</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44830</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44834</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44837</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44838</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44838</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44838</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44838</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44839</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44839</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44841</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44846</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44846</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44848</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>44848</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33626,7 +33626,7 @@
         <v>44848</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44851</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44855</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44855</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44855</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44855</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44859</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44859</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>44859</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>44862</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44862</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>44864</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>44865</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>44868</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34459,7 +34459,7 @@
         <v>44868</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34516,7 +34516,7 @@
         <v>44868</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44869</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34640,7 +34640,7 @@
         <v>44872</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44873</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44879</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>44881</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>44881</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44886</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>44886</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>44886</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>44887</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>44887</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>44887</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>44887</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>44895</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>44895</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>44896</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44896</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44897</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44897</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44897</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>44897</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44900</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44900</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44904</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44908</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44908</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36090,7 +36090,7 @@
         <v>44908</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44909</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>44909</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36276,7 +36276,7 @@
         <v>44909</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44909</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44911</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44911</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44931</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36581,7 +36581,7 @@
         <v>44934</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36638,7 +36638,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36700,7 +36700,7 @@
         <v>44943</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36757,7 +36757,7 @@
         <v>44943</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36814,7 +36814,7 @@
         <v>44949</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36876,7 +36876,7 @@
         <v>44957</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36933,7 +36933,7 @@
         <v>44957</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36990,7 +36990,7 @@
         <v>44958</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>44958</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>44960</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>44960</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>44966</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>44970</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>44970</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37399,7 +37399,7 @@
         <v>44971</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37456,7 +37456,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37513,7 +37513,7 @@
         <v>44979</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37570,7 +37570,7 @@
         <v>44979</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37627,7 +37627,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37684,7 +37684,7 @@
         <v>44985</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         <v>44985</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37803,7 +37803,7 @@
         <v>44986</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37860,7 +37860,7 @@
         <v>44988</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37922,7 +37922,7 @@
         <v>44991</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37979,7 +37979,7 @@
         <v>44991</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38036,7 +38036,7 @@
         <v>44998</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38093,7 +38093,7 @@
         <v>44999</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>44999</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45001</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38274,7 +38274,7 @@
         <v>45001</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38336,7 +38336,7 @@
         <v>45001</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38398,7 +38398,7 @@
         <v>45007</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38455,7 +38455,7 @@
         <v>45007</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38517,7 +38517,7 @@
         <v>45012</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38579,7 +38579,7 @@
         <v>45013</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38636,7 +38636,7 @@
         <v>45014</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38698,7 +38698,7 @@
         <v>45014</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         <v>45014</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>45016</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38879,7 +38879,7 @@
         <v>45022</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38936,7 +38936,7 @@
         <v>45022</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38993,7 +38993,7 @@
         <v>45022</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39050,7 +39050,7 @@
         <v>45022</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39107,7 +39107,7 @@
         <v>45029</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39164,7 +39164,7 @@
         <v>45030</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39221,7 +39221,7 @@
         <v>45034</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39278,7 +39278,7 @@
         <v>45036</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39335,7 +39335,7 @@
         <v>45039</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39392,7 +39392,7 @@
         <v>45039</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39449,7 +39449,7 @@
         <v>45039</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         <v>45039</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39563,7 +39563,7 @@
         <v>45041</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39620,7 +39620,7 @@
         <v>45043</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>45048</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>45048</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45051</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>45053</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>45056</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39972,7 +39972,7 @@
         <v>45056</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40029,7 +40029,7 @@
         <v>45056</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40086,7 +40086,7 @@
         <v>45056</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>45056</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40200,7 +40200,7 @@
         <v>45056</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40257,7 +40257,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40314,7 +40314,7 @@
         <v>45066</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40371,7 +40371,7 @@
         <v>45068</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
         <v>45073</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40485,7 +40485,7 @@
         <v>45073</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>45079</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>45081</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40656,7 +40656,7 @@
         <v>45081</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40713,7 +40713,7 @@
         <v>45082</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40770,7 +40770,7 @@
         <v>45085</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40832,7 +40832,7 @@
         <v>45089</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40889,7 +40889,7 @@
         <v>45097</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         <v>45098</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41008,7 +41008,7 @@
         <v>45099</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41065,7 +41065,7 @@
         <v>45103</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41142,7 +41142,7 @@
         <v>45104</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41199,7 +41199,7 @@
         <v>45104</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41256,7 +41256,7 @@
         <v>45105</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41318,7 +41318,7 @@
         <v>45105</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41380,7 +41380,7 @@
         <v>45110</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41437,7 +41437,7 @@
         <v>45113</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41499,7 +41499,7 @@
         <v>45114</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41556,7 +41556,7 @@
         <v>45114</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41613,7 +41613,7 @@
         <v>45114</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41670,7 +41670,7 @@
         <v>45119</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41727,7 +41727,7 @@
         <v>45121</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41784,7 +41784,7 @@
         <v>45121</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41841,7 +41841,7 @@
         <v>45121</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41898,7 +41898,7 @@
         <v>45140</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41955,7 +41955,7 @@
         <v>45140</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42012,7 +42012,7 @@
         <v>45140</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         <v>45140</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>45141</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42188,7 +42188,7 @@
         <v>45141</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42245,7 +42245,7 @@
         <v>45142</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42302,7 +42302,7 @@
         <v>45147</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42359,7 +42359,7 @@
         <v>45147</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42416,7 +42416,7 @@
         <v>45147</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42478,7 +42478,7 @@
         <v>45148</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42535,7 +42535,7 @@
         <v>45149</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45154</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45155</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42716,7 +42716,7 @@
         <v>45159</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42773,7 +42773,7 @@
         <v>45159</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42830,7 +42830,7 @@
         <v>45160</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42892,7 +42892,7 @@
         <v>45160</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42954,7 +42954,7 @@
         <v>45160</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43016,7 +43016,7 @@
         <v>45160</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43078,7 +43078,7 @@
         <v>45161</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43135,7 +43135,7 @@
         <v>45161</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43192,7 +43192,7 @@
         <v>45162</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>45163</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43306,7 +43306,7 @@
         <v>45163</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         <v>45163</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43420,7 +43420,7 @@
         <v>45163</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43477,7 +43477,7 @@
         <v>45166</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43534,7 +43534,7 @@
         <v>45166</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43591,7 +43591,7 @@
         <v>45166</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43648,7 +43648,7 @@
         <v>45169</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43705,7 +43705,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43762,7 +43762,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>

--- a/Översikt FLEN.xlsx
+++ b/Översikt FLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44883</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44587</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>44378</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43776</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>44832</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43493</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43752</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>43838</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43668</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44071</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44578</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>45002</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45039</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>45105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>45142</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43643</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43703</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>44624</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44714</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44819</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44865</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44986</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>45140</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43363</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43661</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43691</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43703</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43747</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43754</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43776</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43858</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43943</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44014</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>44484</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44503</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>44503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>44608</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44624</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44624</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44792</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44931</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44957</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>44971</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>45044</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>45156</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45166</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43324</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43347</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43347</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43347</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43347</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43357</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43368</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43368</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43371</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43388</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43397</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43412</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43431</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43433</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43446</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43450</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43455</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43472</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43483</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43494</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43495</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43497</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43514</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43522</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43535</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43538</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43539</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43539</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43551</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43559</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43559</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43560</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43560</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43565</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43567</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43570</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43616</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>43621</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43635</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43643</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43659</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43661</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>43661</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>43661</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43664</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43668</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43669</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43669</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43669</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43669</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43675</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43676</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>43676</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>43678</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>43679</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43679</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43679</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>43679</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>43682</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43684</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43688</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>43688</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>43691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43697</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43717</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>43725</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>43726</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>43738</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>43739</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>43740</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>43745</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>43746</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43747</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43752</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>43752</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>43753</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>43756</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>43758</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>43758</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>43769</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>43776</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>43776</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>43787</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>43794</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>43795</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>43798</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43803</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>43811</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>43811</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43811</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43823</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43832</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>43839</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43846</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>43847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43847</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43853</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43857</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>43864</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43872</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43873</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43881</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>43885</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>43885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>43889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>43889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>43893</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>43894</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>43901</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>43901</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>43902</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43902</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43907</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43907</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>43911</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>43917</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>43922</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>43943</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>43948</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>43955</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>43955</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>43957</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>43959</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>43959</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>43959</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>43979</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>43980</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>43983</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>43983</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>43983</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>43985</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>43998</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>43999</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43999</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44004</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>44005</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>44007</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>44011</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         <v>44011</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16600,7 +16600,7 @@
         <v>44012</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44018</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44018</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44021</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>44026</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44027</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44028</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44029</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44039</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44039</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44042</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44043</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44043</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44047</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44049</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44053</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>44053</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>44056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>44062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44062</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>44067</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>44085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44085</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44097</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44098</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>44104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44106</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44113</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44127</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44127</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44138</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44138</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44138</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44140</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44140</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44152</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44158</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44158</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44172</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44178</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44187</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44188</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20018,7 +20018,7 @@
         <v>44193</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44201</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44203</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44208</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>44208</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44208</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44209</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44217</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>44218</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44230</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44242</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44242</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44242</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44246</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>44246</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44246</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44248</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44250</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44250</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44252</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44252</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>44258</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>44260</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>44263</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>44263</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>44265</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44281</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44281</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44292</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44292</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44292</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44293</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44297</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44297</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44297</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44301</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22450,7 +22450,7 @@
         <v>44301</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22512,7 +22512,7 @@
         <v>44302</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>44302</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44302</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>44323</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>44323</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44328</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44344</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44350</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44350</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44360</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44360</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>44365</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44365</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44365</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44378</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44384</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44384</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44384</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44386</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44398</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44404</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44411</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44413</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44414</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44414</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44421</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44421</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44423</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44423</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44425</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44425</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44425</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44425</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44431</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44432</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>44432</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44433</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44433</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44435</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44448</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44448</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44449</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44449</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44449</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44452</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>44452</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44453</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44453</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44454</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44454</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44458</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44458</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44459</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44459</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44459</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44463</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44463</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44463</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44463</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44463</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44463</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44466</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44469</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>44469</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>44470</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>44472</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>44473</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>44473</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>44487</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>44490</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>44495</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44495</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>44495</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>44501</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>44508</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44508</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>44511</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>44518</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>44522</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>44522</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>44531</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>44535</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>44536</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>44544</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>44566</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28064,7 +28064,7 @@
         <v>44578</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>44578</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>44579</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>44580</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>44588</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>44588</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>44594</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>44596</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>44602</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>44606</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44608</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>44610</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>44614</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>44614</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>44614</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28939,7 +28939,7 @@
         <v>44616</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28996,7 +28996,7 @@
         <v>44624</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29053,7 +29053,7 @@
         <v>44624</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29110,7 +29110,7 @@
         <v>44624</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29167,7 +29167,7 @@
         <v>44624</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>44624</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29281,7 +29281,7 @@
         <v>44636</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29338,7 +29338,7 @@
         <v>44636</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>44636</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29452,7 +29452,7 @@
         <v>44636</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29509,7 +29509,7 @@
         <v>44637</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44637</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>44640</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29680,7 +29680,7 @@
         <v>44643</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29737,7 +29737,7 @@
         <v>44643</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44643</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29851,7 +29851,7 @@
         <v>44648</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         <v>44667</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44671</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30027,7 +30027,7 @@
         <v>44676</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>44680</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         <v>44697</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30203,7 +30203,7 @@
         <v>44697</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>44701</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>44704</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         <v>44705</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30431,7 +30431,7 @@
         <v>44715</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30493,7 +30493,7 @@
         <v>44715</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>44719</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>44722</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44725</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44733</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44739</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44739</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>44741</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>44742</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44746</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31088,7 +31088,7 @@
         <v>44752</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31145,7 +31145,7 @@
         <v>44752</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>44752</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>44752</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31316,7 +31316,7 @@
         <v>44753</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44769</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44769</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44769</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44769</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44769</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44770</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44771</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44774</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44778</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44778</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44782</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44785</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44785</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44791</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44795</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44796</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44807</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44807</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44814</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44817</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44818</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44818</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44818</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44823</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44826</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44830</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44834</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44837</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44838</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44838</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44838</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44838</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44839</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44839</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44841</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44846</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44846</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44848</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>44848</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33626,7 +33626,7 @@
         <v>44848</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44851</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44855</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44855</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44855</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44855</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44859</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44859</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>44859</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>44862</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44862</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>44864</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>44865</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>44868</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34459,7 +34459,7 @@
         <v>44868</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34516,7 +34516,7 @@
         <v>44868</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44869</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34640,7 +34640,7 @@
         <v>44872</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44873</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44879</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>44881</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>44881</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44886</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>44886</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>44886</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>44887</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>44887</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>44887</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>44887</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>44895</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>44895</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>44896</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44896</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44897</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44897</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44897</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>44897</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44900</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44900</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44904</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44908</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44908</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36090,7 +36090,7 @@
         <v>44908</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44909</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>44909</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36276,7 +36276,7 @@
         <v>44909</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44909</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44911</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44911</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44931</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36581,7 +36581,7 @@
         <v>44934</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36638,7 +36638,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36700,7 +36700,7 @@
         <v>44943</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36757,7 +36757,7 @@
         <v>44943</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36814,7 +36814,7 @@
         <v>44949</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36876,7 +36876,7 @@
         <v>44957</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36933,7 +36933,7 @@
         <v>44957</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36990,7 +36990,7 @@
         <v>44958</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>44958</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>44960</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>44960</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>44966</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>44970</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>44970</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37399,7 +37399,7 @@
         <v>44971</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37456,7 +37456,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37513,7 +37513,7 @@
         <v>44979</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37570,7 +37570,7 @@
         <v>44979</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37627,7 +37627,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37684,7 +37684,7 @@
         <v>44985</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         <v>44985</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37803,7 +37803,7 @@
         <v>44986</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37860,7 +37860,7 @@
         <v>44988</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37922,7 +37922,7 @@
         <v>44991</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37979,7 +37979,7 @@
         <v>44991</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38036,7 +38036,7 @@
         <v>44998</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38093,7 +38093,7 @@
         <v>44999</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>44999</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45001</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38274,7 +38274,7 @@
         <v>45001</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38336,7 +38336,7 @@
         <v>45001</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38398,7 +38398,7 @@
         <v>45007</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38455,7 +38455,7 @@
         <v>45007</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38517,7 +38517,7 @@
         <v>45012</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38579,7 +38579,7 @@
         <v>45013</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38636,7 +38636,7 @@
         <v>45014</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38698,7 +38698,7 @@
         <v>45014</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         <v>45014</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>45016</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38879,7 +38879,7 @@
         <v>45022</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38936,7 +38936,7 @@
         <v>45022</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38993,7 +38993,7 @@
         <v>45022</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39050,7 +39050,7 @@
         <v>45022</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39107,7 +39107,7 @@
         <v>45029</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39164,7 +39164,7 @@
         <v>45030</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39221,7 +39221,7 @@
         <v>45034</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39278,7 +39278,7 @@
         <v>45036</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39335,7 +39335,7 @@
         <v>45039</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39392,7 +39392,7 @@
         <v>45039</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39449,7 +39449,7 @@
         <v>45039</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         <v>45039</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39563,7 +39563,7 @@
         <v>45041</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39620,7 +39620,7 @@
         <v>45043</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>45048</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>45048</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45051</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>45053</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>45056</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39972,7 +39972,7 @@
         <v>45056</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40029,7 +40029,7 @@
         <v>45056</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40086,7 +40086,7 @@
         <v>45056</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>45056</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40200,7 +40200,7 @@
         <v>45056</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40257,7 +40257,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40314,7 +40314,7 @@
         <v>45066</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40371,7 +40371,7 @@
         <v>45068</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
         <v>45073</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40485,7 +40485,7 @@
         <v>45073</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>45079</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>45081</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40656,7 +40656,7 @@
         <v>45081</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40713,7 +40713,7 @@
         <v>45082</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40770,7 +40770,7 @@
         <v>45085</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40832,7 +40832,7 @@
         <v>45089</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40889,7 +40889,7 @@
         <v>45097</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         <v>45098</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41008,7 +41008,7 @@
         <v>45099</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41065,7 +41065,7 @@
         <v>45103</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41142,7 +41142,7 @@
         <v>45104</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41199,7 +41199,7 @@
         <v>45104</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41256,7 +41256,7 @@
         <v>45105</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41318,7 +41318,7 @@
         <v>45105</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41380,7 +41380,7 @@
         <v>45110</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41437,7 +41437,7 @@
         <v>45113</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41499,7 +41499,7 @@
         <v>45114</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41556,7 +41556,7 @@
         <v>45114</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41613,7 +41613,7 @@
         <v>45114</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41670,7 +41670,7 @@
         <v>45119</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41727,7 +41727,7 @@
         <v>45121</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41784,7 +41784,7 @@
         <v>45121</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41841,7 +41841,7 @@
         <v>45121</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41898,7 +41898,7 @@
         <v>45140</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41955,7 +41955,7 @@
         <v>45140</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42012,7 +42012,7 @@
         <v>45140</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         <v>45140</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>45141</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42188,7 +42188,7 @@
         <v>45141</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42245,7 +42245,7 @@
         <v>45142</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42302,7 +42302,7 @@
         <v>45147</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42359,7 +42359,7 @@
         <v>45147</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42416,7 +42416,7 @@
         <v>45147</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42478,7 +42478,7 @@
         <v>45148</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42535,7 +42535,7 @@
         <v>45149</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45154</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45155</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42716,7 +42716,7 @@
         <v>45159</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42773,7 +42773,7 @@
         <v>45159</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42830,7 +42830,7 @@
         <v>45160</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42892,7 +42892,7 @@
         <v>45160</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42954,7 +42954,7 @@
         <v>45160</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43016,7 +43016,7 @@
         <v>45160</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43078,7 +43078,7 @@
         <v>45161</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43135,7 +43135,7 @@
         <v>45161</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43192,7 +43192,7 @@
         <v>45162</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>45163</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43306,7 +43306,7 @@
         <v>45163</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         <v>45163</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43420,7 +43420,7 @@
         <v>45163</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43477,7 +43477,7 @@
         <v>45166</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43534,7 +43534,7 @@
         <v>45166</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43591,7 +43591,7 @@
         <v>45166</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43648,7 +43648,7 @@
         <v>45169</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43705,7 +43705,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43762,7 +43762,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>

--- a/Översikt FLEN.xlsx
+++ b/Översikt FLEN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y711"/>
+  <dimension ref="A1:Y712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44883</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44587</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>44378</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43776</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>44832</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43493</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43752</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>43838</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43668</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44071</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44578</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>45002</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45039</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>45105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>45142</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43643</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43703</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>44624</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44714</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44819</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44865</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44986</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>45140</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43363</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43661</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43691</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43703</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43747</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43754</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43776</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43858</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43943</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44014</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>44484</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44503</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>44503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>44608</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44624</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44624</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44792</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44931</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44957</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>44971</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>45044</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>45156</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45166</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43324</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43347</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43347</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43347</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43347</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43357</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43368</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43368</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43371</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43388</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43397</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43412</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43431</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43433</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43446</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43450</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43455</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43472</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43483</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43494</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43495</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43497</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43514</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43522</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43535</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43538</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43539</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43539</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43551</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43559</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43559</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43560</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43560</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43565</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43567</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43570</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43616</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>43621</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43635</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43643</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43659</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43661</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>43661</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>43661</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43664</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43668</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43669</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43669</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43669</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43669</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43675</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43676</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>43676</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>43678</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>43679</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43679</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43679</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>43679</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>43682</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43684</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43688</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>43688</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>43691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43697</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43717</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>43725</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>43726</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>43738</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>43739</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>43740</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>43745</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>43746</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43747</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43752</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>43752</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>43753</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>43756</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>43758</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>43758</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>43769</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>43776</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>43776</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>43787</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>43794</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>43795</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>43798</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43803</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>43811</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>43811</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43811</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43823</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43832</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>43839</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43846</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>43847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43847</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43853</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43857</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>43864</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43872</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43873</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43881</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>43885</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>43885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>43889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>43889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>43893</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>43894</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>43901</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>43901</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>43902</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43902</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43907</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43907</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>43911</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>43917</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>43922</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>43943</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>43948</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>43955</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>43955</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>43957</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>43959</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>43959</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>43959</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>43979</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>43980</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>43983</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>43983</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>43983</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>43985</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>43998</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>43999</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43999</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44004</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>44005</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>44007</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>44011</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         <v>44011</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16600,7 +16600,7 @@
         <v>44012</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44018</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44018</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44021</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>44026</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44027</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44028</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44029</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44039</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44039</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44042</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44043</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44043</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44047</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44049</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44053</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>44053</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>44056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>44062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44062</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>44067</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>44085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44085</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44097</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44098</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>44104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44106</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44113</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44127</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44127</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44138</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44138</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44138</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44140</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44140</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44152</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44158</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44158</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44172</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44178</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44187</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44188</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20018,7 +20018,7 @@
         <v>44193</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44201</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44203</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44208</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>44208</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44208</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44209</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44217</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>44218</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44230</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44242</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44242</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44242</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44246</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>44246</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44246</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44248</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44250</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44250</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44252</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44252</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>44258</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>44260</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>44263</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>44263</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>44265</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44281</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44281</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44292</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44292</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44292</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44293</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44297</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44297</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44297</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44301</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22450,7 +22450,7 @@
         <v>44301</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22512,7 +22512,7 @@
         <v>44302</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>44302</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44302</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>44323</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>44323</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44328</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44344</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44350</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44350</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44360</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44360</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>44365</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44365</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44365</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44378</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44384</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44384</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44384</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44386</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44398</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44404</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44411</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44413</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44414</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44414</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44421</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44421</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44423</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44423</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44425</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44425</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44425</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44425</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44431</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44432</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>44432</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44433</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44433</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44435</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44448</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44448</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44449</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44449</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44449</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44452</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>44452</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44453</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44453</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44454</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44454</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44458</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44458</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44459</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44459</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44459</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44463</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44463</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44463</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44463</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44463</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44463</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44466</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44469</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>44469</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>44470</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>44472</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>44473</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>44473</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>44487</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>44490</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>44495</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44495</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>44495</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>44501</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>44508</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44508</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>44511</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>44518</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>44522</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>44522</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>44531</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>44535</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>44536</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>44544</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>44566</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28064,7 +28064,7 @@
         <v>44578</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>44578</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>44579</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>44580</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>44588</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>44588</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>44594</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>44596</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>44602</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>44606</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44608</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>44610</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>44614</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>44614</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>44614</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28939,7 +28939,7 @@
         <v>44616</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28996,7 +28996,7 @@
         <v>44624</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29053,7 +29053,7 @@
         <v>44624</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29110,7 +29110,7 @@
         <v>44624</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29167,7 +29167,7 @@
         <v>44624</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>44624</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29281,7 +29281,7 @@
         <v>44636</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29338,7 +29338,7 @@
         <v>44636</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>44636</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29452,7 +29452,7 @@
         <v>44636</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29509,7 +29509,7 @@
         <v>44637</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44637</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>44640</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29680,7 +29680,7 @@
         <v>44643</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29737,7 +29737,7 @@
         <v>44643</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44643</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29851,7 +29851,7 @@
         <v>44648</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         <v>44667</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44671</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30027,7 +30027,7 @@
         <v>44676</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>44680</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         <v>44697</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30203,7 +30203,7 @@
         <v>44697</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>44701</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>44704</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         <v>44705</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30431,7 +30431,7 @@
         <v>44715</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30493,7 +30493,7 @@
         <v>44715</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>44719</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>44722</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44725</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44733</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44739</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44739</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>44741</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>44742</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44746</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31088,7 +31088,7 @@
         <v>44752</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31145,7 +31145,7 @@
         <v>44752</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>44752</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>44752</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31316,7 +31316,7 @@
         <v>44753</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44769</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44769</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44769</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44769</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44769</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44770</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44771</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44774</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44778</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44778</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44782</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44785</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44785</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44791</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44795</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44796</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44807</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44807</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44814</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44817</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44818</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44818</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44818</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44823</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44826</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44830</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44834</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44837</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44838</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44838</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44838</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44838</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44839</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44839</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44841</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44846</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44846</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44848</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>44848</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33626,7 +33626,7 @@
         <v>44848</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44851</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44855</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44855</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44855</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44855</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44859</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44859</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>44859</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>44862</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44862</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>44864</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>44865</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>44868</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34459,7 +34459,7 @@
         <v>44868</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34516,7 +34516,7 @@
         <v>44868</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44869</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34640,7 +34640,7 @@
         <v>44872</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44873</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44879</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>44881</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>44881</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44886</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>44886</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>44886</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>44887</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>44887</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>44887</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>44887</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>44895</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>44895</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>44896</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44896</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44897</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44897</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44897</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>44897</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44900</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44900</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44904</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44908</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44908</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36090,7 +36090,7 @@
         <v>44908</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44909</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>44909</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36276,7 +36276,7 @@
         <v>44909</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44909</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44911</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44911</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44931</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36581,7 +36581,7 @@
         <v>44934</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36638,7 +36638,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36700,7 +36700,7 @@
         <v>44943</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36757,7 +36757,7 @@
         <v>44943</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36814,7 +36814,7 @@
         <v>44949</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36876,7 +36876,7 @@
         <v>44957</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36933,7 +36933,7 @@
         <v>44957</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36990,7 +36990,7 @@
         <v>44958</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>44958</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>44960</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>44960</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>44966</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>44970</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>44970</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37399,7 +37399,7 @@
         <v>44971</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37456,7 +37456,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37513,7 +37513,7 @@
         <v>44979</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37570,7 +37570,7 @@
         <v>44979</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37627,7 +37627,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37684,7 +37684,7 @@
         <v>44985</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         <v>44985</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37803,7 +37803,7 @@
         <v>44986</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37860,7 +37860,7 @@
         <v>44988</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37922,7 +37922,7 @@
         <v>44991</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37979,7 +37979,7 @@
         <v>44991</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38036,7 +38036,7 @@
         <v>44998</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38093,7 +38093,7 @@
         <v>44999</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>44999</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45001</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38274,7 +38274,7 @@
         <v>45001</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38336,7 +38336,7 @@
         <v>45001</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38398,7 +38398,7 @@
         <v>45007</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38455,7 +38455,7 @@
         <v>45007</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38517,7 +38517,7 @@
         <v>45012</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38579,7 +38579,7 @@
         <v>45013</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38636,7 +38636,7 @@
         <v>45014</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38698,7 +38698,7 @@
         <v>45014</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         <v>45014</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>45016</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38879,7 +38879,7 @@
         <v>45022</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38936,7 +38936,7 @@
         <v>45022</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38993,7 +38993,7 @@
         <v>45022</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39050,7 +39050,7 @@
         <v>45022</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39107,7 +39107,7 @@
         <v>45029</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39164,7 +39164,7 @@
         <v>45030</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39221,7 +39221,7 @@
         <v>45034</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39278,7 +39278,7 @@
         <v>45036</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39335,7 +39335,7 @@
         <v>45039</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39392,7 +39392,7 @@
         <v>45039</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39449,7 +39449,7 @@
         <v>45039</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         <v>45039</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39563,7 +39563,7 @@
         <v>45041</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39620,7 +39620,7 @@
         <v>45043</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>45048</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>45048</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45051</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>45053</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>45056</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39972,7 +39972,7 @@
         <v>45056</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40029,7 +40029,7 @@
         <v>45056</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40086,7 +40086,7 @@
         <v>45056</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>45056</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40200,7 +40200,7 @@
         <v>45056</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40257,7 +40257,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40314,7 +40314,7 @@
         <v>45066</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40371,7 +40371,7 @@
         <v>45068</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
         <v>45073</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40485,7 +40485,7 @@
         <v>45073</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>45079</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>45081</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40656,7 +40656,7 @@
         <v>45081</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40713,7 +40713,7 @@
         <v>45082</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40770,7 +40770,7 @@
         <v>45085</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40832,7 +40832,7 @@
         <v>45089</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40889,7 +40889,7 @@
         <v>45097</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         <v>45098</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41008,7 +41008,7 @@
         <v>45099</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41065,7 +41065,7 @@
         <v>45103</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41142,7 +41142,7 @@
         <v>45104</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41199,7 +41199,7 @@
         <v>45104</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41256,7 +41256,7 @@
         <v>45105</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41318,7 +41318,7 @@
         <v>45105</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41380,7 +41380,7 @@
         <v>45110</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41437,7 +41437,7 @@
         <v>45113</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41499,7 +41499,7 @@
         <v>45114</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41556,7 +41556,7 @@
         <v>45114</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41613,7 +41613,7 @@
         <v>45114</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41670,7 +41670,7 @@
         <v>45119</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41727,7 +41727,7 @@
         <v>45121</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41784,7 +41784,7 @@
         <v>45121</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41841,7 +41841,7 @@
         <v>45121</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41898,7 +41898,7 @@
         <v>45140</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41955,7 +41955,7 @@
         <v>45140</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42012,7 +42012,7 @@
         <v>45140</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         <v>45140</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>45141</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42188,7 +42188,7 @@
         <v>45141</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42245,7 +42245,7 @@
         <v>45142</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42302,7 +42302,7 @@
         <v>45147</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42359,7 +42359,7 @@
         <v>45147</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42416,7 +42416,7 @@
         <v>45147</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42478,7 +42478,7 @@
         <v>45148</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42535,7 +42535,7 @@
         <v>45149</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45154</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45155</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42716,7 +42716,7 @@
         <v>45159</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42773,7 +42773,7 @@
         <v>45159</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42830,7 +42830,7 @@
         <v>45160</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42892,7 +42892,7 @@
         <v>45160</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42954,7 +42954,7 @@
         <v>45160</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43016,7 +43016,7 @@
         <v>45160</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43078,7 +43078,7 @@
         <v>45161</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43135,7 +43135,7 @@
         <v>45161</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43192,7 +43192,7 @@
         <v>45162</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>45163</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43306,7 +43306,7 @@
         <v>45163</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         <v>45163</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43420,7 +43420,7 @@
         <v>45163</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43477,7 +43477,7 @@
         <v>45166</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43534,7 +43534,7 @@
         <v>45166</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43591,7 +43591,7 @@
         <v>45166</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43648,7 +43648,7 @@
         <v>45169</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43705,7 +43705,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43752,7 +43752,7 @@
       </c>
       <c r="R710" s="2" t="inlineStr"/>
     </row>
-    <row r="711">
+    <row r="711" ht="15" customHeight="1">
       <c r="A711" t="inlineStr">
         <is>
           <t>A 40194-2023</t>
@@ -43762,7 +43762,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43808,6 +43808,63 @@
         <v>0</v>
       </c>
       <c r="R711" s="2" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>A 42388-2023</t>
+        </is>
+      </c>
+      <c r="B712" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C712" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>FLEN</t>
+        </is>
+      </c>
+      <c r="G712" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H712" t="n">
+        <v>0</v>
+      </c>
+      <c r="I712" t="n">
+        <v>0</v>
+      </c>
+      <c r="J712" t="n">
+        <v>0</v>
+      </c>
+      <c r="K712" t="n">
+        <v>0</v>
+      </c>
+      <c r="L712" t="n">
+        <v>0</v>
+      </c>
+      <c r="M712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N712" t="n">
+        <v>0</v>
+      </c>
+      <c r="O712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R712" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt FLEN.xlsx
+++ b/Översikt FLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44883</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44587</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>44378</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43776</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>44832</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43493</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43752</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>43838</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43668</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44071</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44578</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>45002</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45039</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>45105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>45142</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43643</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43703</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>44624</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44714</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44819</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44865</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44986</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>45140</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43363</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43661</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43691</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43703</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43747</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43754</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43776</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43858</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43943</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44014</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>44484</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44503</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>44503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>44608</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44624</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44624</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44792</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44931</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44957</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>44971</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>45044</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>45156</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45166</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43324</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43347</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43347</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43347</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43347</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43357</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43368</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43368</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43371</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43388</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43397</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43412</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43431</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43433</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43446</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43450</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43455</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43472</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43483</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43494</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43495</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43497</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43514</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43522</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43535</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43538</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43539</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43539</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43551</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43559</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43559</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43560</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43560</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43565</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43567</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43570</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43616</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>43621</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43635</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43643</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43659</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43661</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>43661</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>43661</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43664</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43668</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43669</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43669</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43669</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43669</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43675</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43676</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>43676</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>43678</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>43679</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43679</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43679</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>43679</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>43682</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43684</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43688</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>43688</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>43691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43697</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43717</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>43725</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>43726</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>43738</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>43739</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>43740</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>43745</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>43746</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43747</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43752</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>43752</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>43753</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>43756</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>43758</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>43758</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>43769</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>43776</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>43776</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>43787</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>43794</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>43795</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>43798</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43803</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>43811</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>43811</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43811</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43823</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43832</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>43839</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43846</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>43847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43847</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43853</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43857</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>43864</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43872</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43873</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43881</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>43885</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>43885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>43889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>43889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>43893</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>43894</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>43901</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>43901</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>43902</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43902</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43907</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43907</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>43911</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>43917</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>43922</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>43943</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>43948</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>43955</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>43955</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>43957</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>43959</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>43959</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>43959</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>43979</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>43980</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>43983</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>43983</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>43983</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>43985</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>43998</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>43999</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43999</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44004</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>44005</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>44007</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>44011</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         <v>44011</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16600,7 +16600,7 @@
         <v>44012</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44018</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44018</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44021</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>44026</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44027</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44028</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44029</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44039</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44039</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44042</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44043</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44043</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44047</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44049</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44053</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>44053</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>44056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>44062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44062</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>44067</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>44085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44085</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44097</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44098</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>44104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44106</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44113</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44127</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44127</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44138</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44138</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44138</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44140</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44140</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44152</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44158</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44158</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44172</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44178</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44187</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44188</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20018,7 +20018,7 @@
         <v>44193</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44201</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44203</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44208</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>44208</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44208</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44209</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44217</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>44218</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44230</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44242</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44242</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44242</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44246</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>44246</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44246</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44248</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44250</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44250</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44252</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44252</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>44258</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>44260</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>44263</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>44263</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>44265</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44281</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44281</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44292</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44292</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44292</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44293</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44297</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44297</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44297</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44301</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22450,7 +22450,7 @@
         <v>44301</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22512,7 +22512,7 @@
         <v>44302</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>44302</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44302</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>44323</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>44323</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44328</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44344</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44350</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44350</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44360</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44360</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>44365</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44365</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44365</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44378</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44384</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44384</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44384</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44386</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44398</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44404</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44411</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44413</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44414</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44414</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44421</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44421</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44423</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44423</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44425</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44425</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44425</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44425</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44431</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44432</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>44432</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44433</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44433</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44435</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44448</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44448</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44449</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44449</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44449</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44452</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>44452</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44453</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44453</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44454</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44454</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44458</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44458</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44459</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44459</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44459</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44463</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44463</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44463</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44463</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44463</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44463</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44466</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44469</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>44469</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>44470</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>44472</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>44473</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>44473</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>44487</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>44490</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>44495</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44495</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>44495</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>44501</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>44508</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44508</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>44511</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>44518</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>44522</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>44522</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>44531</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>44535</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>44536</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>44544</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>44566</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28064,7 +28064,7 @@
         <v>44578</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>44578</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>44579</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>44580</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>44588</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>44588</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>44594</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>44596</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>44602</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>44606</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44608</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>44610</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>44614</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>44614</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>44614</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28939,7 +28939,7 @@
         <v>44616</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28996,7 +28996,7 @@
         <v>44624</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29053,7 +29053,7 @@
         <v>44624</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29110,7 +29110,7 @@
         <v>44624</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29167,7 +29167,7 @@
         <v>44624</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>44624</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29281,7 +29281,7 @@
         <v>44636</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29338,7 +29338,7 @@
         <v>44636</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>44636</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29452,7 +29452,7 @@
         <v>44636</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29509,7 +29509,7 @@
         <v>44637</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44637</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>44640</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29680,7 +29680,7 @@
         <v>44643</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29737,7 +29737,7 @@
         <v>44643</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44643</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29851,7 +29851,7 @@
         <v>44648</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         <v>44667</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44671</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30027,7 +30027,7 @@
         <v>44676</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>44680</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         <v>44697</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30203,7 +30203,7 @@
         <v>44697</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>44701</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>44704</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         <v>44705</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30431,7 +30431,7 @@
         <v>44715</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30493,7 +30493,7 @@
         <v>44715</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>44719</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>44722</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44725</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44733</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44739</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44739</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>44741</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>44742</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44746</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31088,7 +31088,7 @@
         <v>44752</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31145,7 +31145,7 @@
         <v>44752</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>44752</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>44752</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31316,7 +31316,7 @@
         <v>44753</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44769</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44769</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44769</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44769</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44769</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44770</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44771</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44774</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44778</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44778</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44782</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44785</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44785</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44791</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44795</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44796</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44807</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44807</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44814</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44817</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44818</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44818</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44818</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44823</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44826</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44830</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44834</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44837</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44838</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44838</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44838</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44838</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44839</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44839</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44841</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44846</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44846</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44848</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>44848</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33626,7 +33626,7 @@
         <v>44848</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44851</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44855</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44855</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44855</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44855</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44859</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44859</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>44859</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>44862</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44862</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>44864</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>44865</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>44868</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34459,7 +34459,7 @@
         <v>44868</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34516,7 +34516,7 @@
         <v>44868</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44869</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34640,7 +34640,7 @@
         <v>44872</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44873</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44879</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>44881</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>44881</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44886</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>44886</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>44886</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>44887</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>44887</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>44887</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>44887</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>44895</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>44895</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>44896</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44896</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44897</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44897</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44897</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>44897</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44900</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44900</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44904</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44908</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44908</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36090,7 +36090,7 @@
         <v>44908</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44909</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>44909</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36276,7 +36276,7 @@
         <v>44909</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44909</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44911</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44911</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44931</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36581,7 +36581,7 @@
         <v>44934</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36638,7 +36638,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36700,7 +36700,7 @@
         <v>44943</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36757,7 +36757,7 @@
         <v>44943</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36814,7 +36814,7 @@
         <v>44949</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36876,7 +36876,7 @@
         <v>44957</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36933,7 +36933,7 @@
         <v>44957</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36990,7 +36990,7 @@
         <v>44958</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>44958</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>44960</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>44960</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>44966</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>44970</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>44970</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37399,7 +37399,7 @@
         <v>44971</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37456,7 +37456,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37513,7 +37513,7 @@
         <v>44979</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37570,7 +37570,7 @@
         <v>44979</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37627,7 +37627,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37684,7 +37684,7 @@
         <v>44985</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         <v>44985</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37803,7 +37803,7 @@
         <v>44986</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37860,7 +37860,7 @@
         <v>44988</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37922,7 +37922,7 @@
         <v>44991</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37979,7 +37979,7 @@
         <v>44991</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38036,7 +38036,7 @@
         <v>44998</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38093,7 +38093,7 @@
         <v>44999</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>44999</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45001</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38274,7 +38274,7 @@
         <v>45001</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38336,7 +38336,7 @@
         <v>45001</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38398,7 +38398,7 @@
         <v>45007</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38455,7 +38455,7 @@
         <v>45007</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38517,7 +38517,7 @@
         <v>45012</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38579,7 +38579,7 @@
         <v>45013</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38636,7 +38636,7 @@
         <v>45014</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38698,7 +38698,7 @@
         <v>45014</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         <v>45014</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>45016</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38879,7 +38879,7 @@
         <v>45022</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38936,7 +38936,7 @@
         <v>45022</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38993,7 +38993,7 @@
         <v>45022</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39050,7 +39050,7 @@
         <v>45022</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39107,7 +39107,7 @@
         <v>45029</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39164,7 +39164,7 @@
         <v>45030</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39221,7 +39221,7 @@
         <v>45034</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39278,7 +39278,7 @@
         <v>45036</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39335,7 +39335,7 @@
         <v>45039</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39392,7 +39392,7 @@
         <v>45039</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39449,7 +39449,7 @@
         <v>45039</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         <v>45039</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39563,7 +39563,7 @@
         <v>45041</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39620,7 +39620,7 @@
         <v>45043</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>45048</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>45048</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45051</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>45053</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>45056</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39972,7 +39972,7 @@
         <v>45056</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40029,7 +40029,7 @@
         <v>45056</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40086,7 +40086,7 @@
         <v>45056</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>45056</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40200,7 +40200,7 @@
         <v>45056</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40257,7 +40257,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40314,7 +40314,7 @@
         <v>45066</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40371,7 +40371,7 @@
         <v>45068</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
         <v>45073</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40485,7 +40485,7 @@
         <v>45073</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>45079</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>45081</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40656,7 +40656,7 @@
         <v>45081</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40713,7 +40713,7 @@
         <v>45082</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40770,7 +40770,7 @@
         <v>45085</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40832,7 +40832,7 @@
         <v>45089</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40889,7 +40889,7 @@
         <v>45097</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         <v>45098</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41008,7 +41008,7 @@
         <v>45099</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41065,7 +41065,7 @@
         <v>45103</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41142,7 +41142,7 @@
         <v>45104</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41199,7 +41199,7 @@
         <v>45104</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41256,7 +41256,7 @@
         <v>45105</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41318,7 +41318,7 @@
         <v>45105</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41380,7 +41380,7 @@
         <v>45110</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41437,7 +41437,7 @@
         <v>45113</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41499,7 +41499,7 @@
         <v>45114</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41556,7 +41556,7 @@
         <v>45114</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41613,7 +41613,7 @@
         <v>45114</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41670,7 +41670,7 @@
         <v>45119</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41727,7 +41727,7 @@
         <v>45121</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41784,7 +41784,7 @@
         <v>45121</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41841,7 +41841,7 @@
         <v>45121</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41898,7 +41898,7 @@
         <v>45140</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41955,7 +41955,7 @@
         <v>45140</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42012,7 +42012,7 @@
         <v>45140</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         <v>45140</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>45141</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42188,7 +42188,7 @@
         <v>45141</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42245,7 +42245,7 @@
         <v>45142</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42302,7 +42302,7 @@
         <v>45147</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42359,7 +42359,7 @@
         <v>45147</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42416,7 +42416,7 @@
         <v>45147</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42478,7 +42478,7 @@
         <v>45148</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42535,7 +42535,7 @@
         <v>45149</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45154</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45155</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42716,7 +42716,7 @@
         <v>45159</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42773,7 +42773,7 @@
         <v>45159</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42830,7 +42830,7 @@
         <v>45160</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42892,7 +42892,7 @@
         <v>45160</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42954,7 +42954,7 @@
         <v>45160</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43016,7 +43016,7 @@
         <v>45160</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43078,7 +43078,7 @@
         <v>45161</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43135,7 +43135,7 @@
         <v>45161</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43192,7 +43192,7 @@
         <v>45162</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>45163</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43306,7 +43306,7 @@
         <v>45163</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         <v>45163</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43420,7 +43420,7 @@
         <v>45163</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43477,7 +43477,7 @@
         <v>45166</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43534,7 +43534,7 @@
         <v>45166</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43591,7 +43591,7 @@
         <v>45166</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43648,7 +43648,7 @@
         <v>45169</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43705,7 +43705,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43762,7 +43762,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43819,7 +43819,7 @@
         <v>45180</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>

--- a/Översikt FLEN.xlsx
+++ b/Översikt FLEN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y712"/>
+  <dimension ref="A1:Y714"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44883</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44587</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>44378</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43776</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>44832</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43493</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43752</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>43838</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43668</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44071</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44578</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>45002</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45039</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>45105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>45142</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43643</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43703</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>44624</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44714</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44819</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44865</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44986</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>45140</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43363</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43661</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43691</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43703</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43747</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43754</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43776</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43858</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43943</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44014</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>44484</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44503</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>44503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>44608</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44624</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44624</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44792</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44931</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44957</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>44971</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>45044</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>45156</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45166</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43324</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43347</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43347</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43347</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43347</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43357</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43368</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43368</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43371</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43388</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43397</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43412</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43431</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43433</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43446</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43450</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43455</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43472</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43483</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43494</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43495</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43497</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43514</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43522</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43535</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43538</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43539</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43539</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43551</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43559</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43559</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43560</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43560</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43565</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43567</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43570</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43616</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>43621</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43635</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43643</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43659</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43661</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>43661</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>43661</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43664</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43668</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43669</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43669</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43669</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43669</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43675</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43676</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>43676</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>43678</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>43679</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43679</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43679</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>43679</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>43682</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43684</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43688</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>43688</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>43691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43697</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43717</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>43725</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>43726</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>43738</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>43739</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>43740</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>43745</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>43746</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43747</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43752</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>43752</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>43753</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>43756</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>43758</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>43758</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>43769</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>43776</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>43776</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>43787</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>43794</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>43795</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>43798</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43803</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>43811</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>43811</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43811</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43823</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43832</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>43839</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43846</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>43847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43847</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43853</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43857</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>43864</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43872</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43873</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43881</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>43885</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>43885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>43889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>43889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>43893</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>43894</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>43901</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>43901</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>43902</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43902</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43907</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43907</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>43911</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>43917</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>43922</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>43943</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>43948</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>43955</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>43955</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>43957</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>43959</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>43959</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>43959</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>43979</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>43980</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>43983</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>43983</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>43983</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>43985</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>43998</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>43999</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43999</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44004</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>44005</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>44007</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>44011</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         <v>44011</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16600,7 +16600,7 @@
         <v>44012</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44018</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44018</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44021</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>44026</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44027</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44028</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44029</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44039</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44039</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44042</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44043</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44043</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44047</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44049</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44053</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>44053</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>44056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>44062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44062</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>44067</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>44085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44085</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44097</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44098</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>44104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44106</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44113</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44127</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44127</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44138</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44138</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44138</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44140</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44140</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44152</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44158</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44158</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44172</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44178</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44187</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44188</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20018,7 +20018,7 @@
         <v>44193</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44201</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44203</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44208</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>44208</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44208</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44209</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44217</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>44218</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44230</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44242</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44242</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44242</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44246</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>44246</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44246</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44248</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44250</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44250</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44252</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44252</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>44258</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>44260</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>44263</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>44263</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>44265</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44281</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44281</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44292</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44292</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44292</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44293</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44297</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44297</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44297</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44301</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22450,7 +22450,7 @@
         <v>44301</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22512,7 +22512,7 @@
         <v>44302</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>44302</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44302</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>44323</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>44323</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44328</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44344</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44350</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44350</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44360</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44360</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>44365</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44365</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44365</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44378</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44384</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44384</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44384</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44386</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44398</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44404</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44411</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44413</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44414</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44414</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44421</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44421</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44423</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44423</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44425</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44425</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44425</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44425</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44431</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44432</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>44432</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44433</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44433</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44435</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44448</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44448</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44449</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44449</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44449</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44452</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>44452</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44453</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44453</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44454</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44454</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44458</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44458</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44459</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44459</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44459</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44463</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44463</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44463</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44463</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44463</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44463</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44466</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44469</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>44469</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>44470</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>44472</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>44473</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>44473</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>44487</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>44490</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>44495</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44495</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>44495</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>44501</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>44508</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44508</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>44511</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>44518</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>44522</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>44522</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>44531</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>44535</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>44536</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>44544</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>44566</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28064,7 +28064,7 @@
         <v>44578</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>44578</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>44579</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>44580</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>44588</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>44588</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>44594</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>44596</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>44602</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>44606</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44608</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>44610</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>44614</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>44614</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>44614</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28939,7 +28939,7 @@
         <v>44616</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28996,7 +28996,7 @@
         <v>44624</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29053,7 +29053,7 @@
         <v>44624</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29110,7 +29110,7 @@
         <v>44624</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29167,7 +29167,7 @@
         <v>44624</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>44624</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29281,7 +29281,7 @@
         <v>44636</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29338,7 +29338,7 @@
         <v>44636</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>44636</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29452,7 +29452,7 @@
         <v>44636</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29509,7 +29509,7 @@
         <v>44637</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44637</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>44640</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29680,7 +29680,7 @@
         <v>44643</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29737,7 +29737,7 @@
         <v>44643</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44643</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29851,7 +29851,7 @@
         <v>44648</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         <v>44667</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44671</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30027,7 +30027,7 @@
         <v>44676</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>44680</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         <v>44697</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30203,7 +30203,7 @@
         <v>44697</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>44701</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>44704</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         <v>44705</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30431,7 +30431,7 @@
         <v>44715</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30493,7 +30493,7 @@
         <v>44715</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>44719</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>44722</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44725</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44733</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44739</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44739</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>44741</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>44742</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44746</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31088,7 +31088,7 @@
         <v>44752</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31145,7 +31145,7 @@
         <v>44752</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>44752</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>44752</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31316,7 +31316,7 @@
         <v>44753</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44769</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44769</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44769</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44769</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44769</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44770</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44771</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44774</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44778</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44778</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44782</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44785</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44785</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44791</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44795</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44796</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44807</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44807</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44814</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44817</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44818</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44818</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44818</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44823</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44826</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44830</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44834</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44837</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44838</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44838</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44838</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44838</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44839</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44839</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44841</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44846</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44846</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44848</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>44848</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33626,7 +33626,7 @@
         <v>44848</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44851</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44855</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44855</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44855</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44855</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44859</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44859</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>44859</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>44862</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44862</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>44864</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>44865</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>44868</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34459,7 +34459,7 @@
         <v>44868</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34516,7 +34516,7 @@
         <v>44868</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44869</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34640,7 +34640,7 @@
         <v>44872</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44873</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44879</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>44881</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>44881</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44886</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>44886</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>44886</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>44887</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>44887</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>44887</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>44887</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>44895</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>44895</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>44896</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44896</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44897</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44897</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44897</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>44897</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44900</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44900</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44904</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44908</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44908</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36090,7 +36090,7 @@
         <v>44908</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44909</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>44909</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36276,7 +36276,7 @@
         <v>44909</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44909</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44911</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44911</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44931</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36581,7 +36581,7 @@
         <v>44934</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36638,7 +36638,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36700,7 +36700,7 @@
         <v>44943</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36757,7 +36757,7 @@
         <v>44943</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36814,7 +36814,7 @@
         <v>44949</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36876,7 +36876,7 @@
         <v>44957</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36933,7 +36933,7 @@
         <v>44957</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36990,7 +36990,7 @@
         <v>44958</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>44958</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>44960</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>44960</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>44966</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>44970</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>44970</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37399,7 +37399,7 @@
         <v>44971</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37456,7 +37456,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37513,7 +37513,7 @@
         <v>44979</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37570,7 +37570,7 @@
         <v>44979</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37627,7 +37627,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37684,7 +37684,7 @@
         <v>44985</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         <v>44985</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37803,7 +37803,7 @@
         <v>44986</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37860,7 +37860,7 @@
         <v>44988</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37922,7 +37922,7 @@
         <v>44991</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37979,7 +37979,7 @@
         <v>44991</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38036,7 +38036,7 @@
         <v>44998</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38093,7 +38093,7 @@
         <v>44999</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>44999</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45001</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38274,7 +38274,7 @@
         <v>45001</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38336,7 +38336,7 @@
         <v>45001</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38398,7 +38398,7 @@
         <v>45007</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38455,7 +38455,7 @@
         <v>45007</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38517,7 +38517,7 @@
         <v>45012</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38579,7 +38579,7 @@
         <v>45013</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38636,7 +38636,7 @@
         <v>45014</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38698,7 +38698,7 @@
         <v>45014</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         <v>45014</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>45016</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38879,7 +38879,7 @@
         <v>45022</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38936,7 +38936,7 @@
         <v>45022</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38993,7 +38993,7 @@
         <v>45022</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39050,7 +39050,7 @@
         <v>45022</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39107,7 +39107,7 @@
         <v>45029</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39164,7 +39164,7 @@
         <v>45030</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39221,7 +39221,7 @@
         <v>45034</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39278,7 +39278,7 @@
         <v>45036</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39335,7 +39335,7 @@
         <v>45039</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39392,7 +39392,7 @@
         <v>45039</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39449,7 +39449,7 @@
         <v>45039</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         <v>45039</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39563,7 +39563,7 @@
         <v>45041</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39620,7 +39620,7 @@
         <v>45043</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>45048</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>45048</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45051</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>45053</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>45056</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39972,7 +39972,7 @@
         <v>45056</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40029,7 +40029,7 @@
         <v>45056</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40086,7 +40086,7 @@
         <v>45056</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>45056</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40200,7 +40200,7 @@
         <v>45056</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40257,7 +40257,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40314,7 +40314,7 @@
         <v>45066</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40371,7 +40371,7 @@
         <v>45068</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
         <v>45073</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40485,7 +40485,7 @@
         <v>45073</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>45079</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>45081</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40656,7 +40656,7 @@
         <v>45081</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40713,7 +40713,7 @@
         <v>45082</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40770,7 +40770,7 @@
         <v>45085</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40832,7 +40832,7 @@
         <v>45089</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40889,7 +40889,7 @@
         <v>45097</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         <v>45098</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41008,7 +41008,7 @@
         <v>45099</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41065,7 +41065,7 @@
         <v>45103</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41142,7 +41142,7 @@
         <v>45104</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41199,7 +41199,7 @@
         <v>45104</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41256,7 +41256,7 @@
         <v>45105</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41318,7 +41318,7 @@
         <v>45105</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41380,7 +41380,7 @@
         <v>45110</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41437,7 +41437,7 @@
         <v>45113</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41499,7 +41499,7 @@
         <v>45114</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41556,7 +41556,7 @@
         <v>45114</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41613,7 +41613,7 @@
         <v>45114</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41670,7 +41670,7 @@
         <v>45119</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41727,7 +41727,7 @@
         <v>45121</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41784,7 +41784,7 @@
         <v>45121</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41841,7 +41841,7 @@
         <v>45121</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41898,7 +41898,7 @@
         <v>45140</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41955,7 +41955,7 @@
         <v>45140</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42012,7 +42012,7 @@
         <v>45140</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         <v>45140</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>45141</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42188,7 +42188,7 @@
         <v>45141</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42245,7 +42245,7 @@
         <v>45142</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42302,7 +42302,7 @@
         <v>45147</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42359,7 +42359,7 @@
         <v>45147</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42416,7 +42416,7 @@
         <v>45147</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42478,7 +42478,7 @@
         <v>45148</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42535,7 +42535,7 @@
         <v>45149</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45154</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45155</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42716,7 +42716,7 @@
         <v>45159</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42773,7 +42773,7 @@
         <v>45159</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42830,7 +42830,7 @@
         <v>45160</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42892,7 +42892,7 @@
         <v>45160</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42954,7 +42954,7 @@
         <v>45160</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43016,7 +43016,7 @@
         <v>45160</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43078,7 +43078,7 @@
         <v>45161</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43135,7 +43135,7 @@
         <v>45161</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43192,7 +43192,7 @@
         <v>45162</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>45163</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43306,7 +43306,7 @@
         <v>45163</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         <v>45163</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43420,7 +43420,7 @@
         <v>45163</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43477,7 +43477,7 @@
         <v>45166</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43534,7 +43534,7 @@
         <v>45166</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43591,7 +43591,7 @@
         <v>45166</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43648,7 +43648,7 @@
         <v>45169</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43705,7 +43705,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43762,7 +43762,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43809,7 +43809,7 @@
       </c>
       <c r="R711" s="2" t="inlineStr"/>
     </row>
-    <row r="712">
+    <row r="712" ht="15" customHeight="1">
       <c r="A712" t="inlineStr">
         <is>
           <t>A 42388-2023</t>
@@ -43819,7 +43819,7 @@
         <v>45180</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43865,6 +43865,120 @@
         <v>0</v>
       </c>
       <c r="R712" s="2" t="inlineStr"/>
+    </row>
+    <row r="713" ht="15" customHeight="1">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>A 43066-2023</t>
+        </is>
+      </c>
+      <c r="B713" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C713" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>FLEN</t>
+        </is>
+      </c>
+      <c r="G713" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H713" t="n">
+        <v>0</v>
+      </c>
+      <c r="I713" t="n">
+        <v>0</v>
+      </c>
+      <c r="J713" t="n">
+        <v>0</v>
+      </c>
+      <c r="K713" t="n">
+        <v>0</v>
+      </c>
+      <c r="L713" t="n">
+        <v>0</v>
+      </c>
+      <c r="M713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N713" t="n">
+        <v>0</v>
+      </c>
+      <c r="O713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R713" s="2" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>A 43008-2023</t>
+        </is>
+      </c>
+      <c r="B714" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C714" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>FLEN</t>
+        </is>
+      </c>
+      <c r="G714" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H714" t="n">
+        <v>0</v>
+      </c>
+      <c r="I714" t="n">
+        <v>0</v>
+      </c>
+      <c r="J714" t="n">
+        <v>0</v>
+      </c>
+      <c r="K714" t="n">
+        <v>0</v>
+      </c>
+      <c r="L714" t="n">
+        <v>0</v>
+      </c>
+      <c r="M714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N714" t="n">
+        <v>0</v>
+      </c>
+      <c r="O714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R714" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt FLEN.xlsx
+++ b/Översikt FLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -649,27 +649,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 16014-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 16014-2019.xlsx", "A 16014-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 16014-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 16014-2019.png", "A 16014-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 16014-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 16014-2019.docx", "A 16014-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 16014-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 16014-2019.docx", "A 16014-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 16014-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 16014-2019.docx", "A 16014-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 16014-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 16014-2019.docx", "A 16014-2019")</f>
         <v/>
       </c>
     </row>
@@ -683,7 +683,7 @@
         <v>44883</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,27 +746,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 54631-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 54631-2022.xlsx", "A 54631-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 54631-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 54631-2022.png", "A 54631-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 54631-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 54631-2022.docx", "A 54631-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 54631-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 54631-2022.docx", "A 54631-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 54631-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 54631-2022.docx", "A 54631-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 54631-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 54631-2022.docx", "A 54631-2022")</f>
         <v/>
       </c>
     </row>
@@ -780,7 +780,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,27 +840,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 54665-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 54665-2022.xlsx", "A 54665-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 54665-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 54665-2022.png", "A 54665-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 54665-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 54665-2022.docx", "A 54665-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 54665-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 54665-2022.docx", "A 54665-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 54665-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 54665-2022.docx", "A 54665-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 54665-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 54665-2022.docx", "A 54665-2022")</f>
         <v/>
       </c>
     </row>
@@ -874,7 +874,7 @@
         <v>44363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -933,27 +933,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 30095-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 30095-2021.xlsx", "A 30095-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 30095-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 30095-2021.png", "A 30095-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 30095-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 30095-2021.docx", "A 30095-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 30095-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 30095-2021.docx", "A 30095-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 30095-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 30095-2021.docx", "A 30095-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 30095-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 30095-2021.docx", "A 30095-2021")</f>
         <v/>
       </c>
     </row>
@@ -967,7 +967,7 @@
         <v>44587</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,27 +1026,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 3873-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 3873-2022.xlsx", "A 3873-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 3873-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 3873-2022.png", "A 3873-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 3873-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 3873-2022.docx", "A 3873-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 3873-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 3873-2022.docx", "A 3873-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 3873-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 3873-2022.docx", "A 3873-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 3873-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 3873-2022.docx", "A 3873-2022")</f>
         <v/>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,27 +1118,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 50828-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 50828-2020.xlsx", "A 50828-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 50828-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 50828-2020.png", "A 50828-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 50828-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 50828-2020.docx", "A 50828-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 50828-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 50828-2020.docx", "A 50828-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 50828-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 50828-2020.docx", "A 50828-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 50828-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 50828-2020.docx", "A 50828-2020")</f>
         <v/>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
         <v>44378</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 33872-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 33872-2021.xlsx", "A 33872-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 33872-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 33872-2021.png", "A 33872-2021")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/knärot/A 33872-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/knärot/A 33872-2021.png", "A 33872-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 33872-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 33872-2021.docx", "A 33872-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 33872-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 33872-2021.docx", "A 33872-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 33872-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 33872-2021.docx", "A 33872-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 33872-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 33872-2021.docx", "A 33872-2021")</f>
         <v/>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
         <v>43776</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1304,27 +1304,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 59510-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 59510-2019.xlsx", "A 59510-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 59510-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 59510-2019.png", "A 59510-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 59510-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 59510-2019.docx", "A 59510-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 59510-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 59510-2019.docx", "A 59510-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 59510-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 59510-2019.docx", "A 59510-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 59510-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 59510-2019.docx", "A 59510-2019")</f>
         <v/>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
         <v>44832</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1398,27 +1398,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 42675-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 42675-2022.xlsx", "A 42675-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 42675-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 42675-2022.png", "A 42675-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 42675-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 42675-2022.docx", "A 42675-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 42675-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 42675-2022.docx", "A 42675-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 42675-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 42675-2022.docx", "A 42675-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 42675-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 42675-2022.docx", "A 42675-2022")</f>
         <v/>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
         <v>43493</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1486,27 +1486,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 6402-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 6402-2019.xlsx", "A 6402-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 6402-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 6402-2019.png", "A 6402-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 6402-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 6402-2019.docx", "A 6402-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 6402-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 6402-2019.docx", "A 6402-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 6402-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 6402-2019.docx", "A 6402-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 6402-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 6402-2019.docx", "A 6402-2019")</f>
         <v/>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1574,27 +1574,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 25367-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 25367-2019.xlsx", "A 25367-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 25367-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 25367-2019.png", "A 25367-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 25367-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 25367-2019.docx", "A 25367-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 25367-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 25367-2019.docx", "A 25367-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 25367-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 25367-2019.docx", "A 25367-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 25367-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 25367-2019.docx", "A 25367-2019")</f>
         <v/>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
         <v>43752</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1667,27 +1667,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 55124-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 55124-2019.xlsx", "A 55124-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 55124-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 55124-2019.png", "A 55124-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 55124-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 55124-2019.docx", "A 55124-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 55124-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 55124-2019.docx", "A 55124-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 55124-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 55124-2019.docx", "A 55124-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 55124-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 55124-2019.docx", "A 55124-2019")</f>
         <v/>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
         <v>43838</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1760,27 +1760,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 676-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 676-2020.xlsx", "A 676-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 676-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 676-2020.png", "A 676-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 676-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 676-2020.docx", "A 676-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 676-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 676-2020.docx", "A 676-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 676-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 676-2020.docx", "A 676-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 676-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 676-2020.docx", "A 676-2020")</f>
         <v/>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1853,27 +1853,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 48790-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 48790-2021.xlsx", "A 48790-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 48790-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 48790-2021.png", "A 48790-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 48790-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 48790-2021.docx", "A 48790-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 48790-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 48790-2021.docx", "A 48790-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 48790-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 48790-2021.docx", "A 48790-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 48790-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 48790-2021.docx", "A 48790-2021")</f>
         <v/>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
         <v>43668</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1945,27 +1945,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 36133-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 36133-2019.xlsx", "A 36133-2019")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 36133-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 36133-2019.png", "A 36133-2019")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 36133-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 36133-2019.docx", "A 36133-2019")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 36133-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 36133-2019.docx", "A 36133-2019")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 36133-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 36133-2019.docx", "A 36133-2019")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 36133-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 36133-2019.docx", "A 36133-2019")</f>
         <v/>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
         <v>44071</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2032,27 +2032,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 41793-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 41793-2020.xlsx", "A 41793-2020")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 41793-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 41793-2020.png", "A 41793-2020")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 41793-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 41793-2020.docx", "A 41793-2020")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 41793-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 41793-2020.docx", "A 41793-2020")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 41793-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 41793-2020.docx", "A 41793-2020")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 41793-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 41793-2020.docx", "A 41793-2020")</f>
         <v/>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
         <v>44578</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2124,31 +2124,31 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 2203-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 2203-2022.xlsx", "A 2203-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 2203-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 2203-2022.png", "A 2203-2022")</f>
         <v/>
       </c>
       <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/knärot/A 2203-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/knärot/A 2203-2022.png", "A 2203-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 2203-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 2203-2022.docx", "A 2203-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 2203-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 2203-2022.docx", "A 2203-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 2203-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 2203-2022.docx", "A 2203-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 2203-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 2203-2022.docx", "A 2203-2022")</f>
         <v/>
       </c>
     </row>
@@ -2162,7 +2162,7 @@
         <v>45002</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2220,27 +2220,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 13230-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 13230-2023.xlsx", "A 13230-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 13230-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 13230-2023.png", "A 13230-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 13230-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 13230-2023.docx", "A 13230-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 13230-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 13230-2023.docx", "A 13230-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 13230-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 13230-2023.docx", "A 13230-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 13230-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 13230-2023.docx", "A 13230-2023")</f>
         <v/>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
         <v>45039</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2307,27 +2307,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 18078-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 18078-2023.xlsx", "A 18078-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 18078-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 18078-2023.png", "A 18078-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 18078-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 18078-2023.docx", "A 18078-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 18078-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 18078-2023.docx", "A 18078-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 18078-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 18078-2023.docx", "A 18078-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 18078-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 18078-2023.docx", "A 18078-2023")</f>
         <v/>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
         <v>45105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2399,27 +2399,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 29138-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 29138-2023.xlsx", "A 29138-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 29138-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 29138-2023.png", "A 29138-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 29138-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 29138-2023.docx", "A 29138-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 29138-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 29138-2023.docx", "A 29138-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 29138-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 29138-2023.docx", "A 29138-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 29138-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 29138-2023.docx", "A 29138-2023")</f>
         <v/>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
         <v>45142</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2491,31 +2491,31 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 34985-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 34985-2023.xlsx", "A 34985-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 34985-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 34985-2023.png", "A 34985-2023")</f>
         <v/>
       </c>
       <c r="U22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/knärot/A 34985-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/knärot/A 34985-2023.png", "A 34985-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 34985-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 34985-2023.docx", "A 34985-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 34985-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 34985-2023.docx", "A 34985-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 34985-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 34985-2023.docx", "A 34985-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 34985-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 34985-2023.docx", "A 34985-2023")</f>
         <v/>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
         <v>43643</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,27 +2581,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 32879-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 32879-2019.xlsx", "A 32879-2019")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 32879-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 32879-2019.png", "A 32879-2019")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 32879-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 32879-2019.docx", "A 32879-2019")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 32879-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 32879-2019.docx", "A 32879-2019")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 32879-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 32879-2019.docx", "A 32879-2019")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 32879-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 32879-2019.docx", "A 32879-2019")</f>
         <v/>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
         <v>43703</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2667,27 +2667,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 43373-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 43373-2019.xlsx", "A 43373-2019")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 43373-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 43373-2019.png", "A 43373-2019")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 43373-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 43373-2019.docx", "A 43373-2019")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 43373-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 43373-2019.docx", "A 43373-2019")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 43373-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 43373-2019.docx", "A 43373-2019")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 43373-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 43373-2019.docx", "A 43373-2019")</f>
         <v/>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
         <v>44411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2753,31 +2753,31 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 38882-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 38882-2021.xlsx", "A 38882-2021")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 38882-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 38882-2021.png", "A 38882-2021")</f>
         <v/>
       </c>
       <c r="U25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/knärot/A 38882-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/knärot/A 38882-2021.png", "A 38882-2021")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 38882-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 38882-2021.docx", "A 38882-2021")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 38882-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 38882-2021.docx", "A 38882-2021")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 38882-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 38882-2021.docx", "A 38882-2021")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 38882-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 38882-2021.docx", "A 38882-2021")</f>
         <v/>
       </c>
     </row>
@@ -2791,7 +2791,7 @@
         <v>44495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2843,31 +2843,31 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 60251-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 60251-2021.xlsx", "A 60251-2021")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 60251-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 60251-2021.png", "A 60251-2021")</f>
         <v/>
       </c>
       <c r="U26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/knärot/A 60251-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/knärot/A 60251-2021.png", "A 60251-2021")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 60251-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 60251-2021.docx", "A 60251-2021")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 60251-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 60251-2021.docx", "A 60251-2021")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 60251-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 60251-2021.docx", "A 60251-2021")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 60251-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 60251-2021.docx", "A 60251-2021")</f>
         <v/>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
         <v>44624</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2933,27 +2933,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 10825-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 10825-2022.xlsx", "A 10825-2022")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 10825-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 10825-2022.png", "A 10825-2022")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 10825-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 10825-2022.docx", "A 10825-2022")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 10825-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 10825-2022.docx", "A 10825-2022")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 10825-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 10825-2022.docx", "A 10825-2022")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 10825-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 10825-2022.docx", "A 10825-2022")</f>
         <v/>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
         <v>44714</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3019,27 +3019,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 22743-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 22743-2022.xlsx", "A 22743-2022")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 22743-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 22743-2022.png", "A 22743-2022")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 22743-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 22743-2022.docx", "A 22743-2022")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 22743-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 22743-2022.docx", "A 22743-2022")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 22743-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 22743-2022.docx", "A 22743-2022")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 22743-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 22743-2022.docx", "A 22743-2022")</f>
         <v/>
       </c>
     </row>
@@ -3053,7 +3053,7 @@
         <v>44819</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3105,27 +3105,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 39885-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 39885-2022.xlsx", "A 39885-2022")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 39885-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 39885-2022.png", "A 39885-2022")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 39885-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 39885-2022.docx", "A 39885-2022")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 39885-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 39885-2022.docx", "A 39885-2022")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 39885-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 39885-2022.docx", "A 39885-2022")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 39885-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 39885-2022.docx", "A 39885-2022")</f>
         <v/>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
         <v>44865</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3196,31 +3196,31 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 50215-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 50215-2022.xlsx", "A 50215-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 50215-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 50215-2022.png", "A 50215-2022")</f>
         <v/>
       </c>
       <c r="U30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/knärot/A 50215-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/knärot/A 50215-2022.png", "A 50215-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 50215-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 50215-2022.docx", "A 50215-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 50215-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 50215-2022.docx", "A 50215-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 50215-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 50215-2022.docx", "A 50215-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 50215-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 50215-2022.docx", "A 50215-2022")</f>
         <v/>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
         <v>44986</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3286,27 +3286,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 11103-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 11103-2023.xlsx", "A 11103-2023")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 11103-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 11103-2023.png", "A 11103-2023")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 11103-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 11103-2023.docx", "A 11103-2023")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 11103-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 11103-2023.docx", "A 11103-2023")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 11103-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 11103-2023.docx", "A 11103-2023")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 11103-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 11103-2023.docx", "A 11103-2023")</f>
         <v/>
       </c>
     </row>
@@ -3320,7 +3320,7 @@
         <v>45140</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3372,27 +3372,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 34785-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 34785-2023.xlsx", "A 34785-2023")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 34785-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 34785-2023.png", "A 34785-2023")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 34785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 34785-2023.docx", "A 34785-2023")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 34785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 34785-2023.docx", "A 34785-2023")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 34785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 34785-2023.docx", "A 34785-2023")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 34785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 34785-2023.docx", "A 34785-2023")</f>
         <v/>
       </c>
     </row>
@@ -3406,7 +3406,7 @@
         <v>43363</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3457,27 +3457,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 45505-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 45505-2018.xlsx", "A 45505-2018")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 45505-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 45505-2018.png", "A 45505-2018")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 45505-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 45505-2018.docx", "A 45505-2018")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 45505-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 45505-2018.docx", "A 45505-2018")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 45505-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 45505-2018.docx", "A 45505-2018")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 45505-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 45505-2018.docx", "A 45505-2018")</f>
         <v/>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3547,27 +3547,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 18548-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 18548-2019.xlsx", "A 18548-2019")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 18548-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 18548-2019.png", "A 18548-2019")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 18548-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 18548-2019.docx", "A 18548-2019")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 18548-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 18548-2019.docx", "A 18548-2019")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 18548-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 18548-2019.docx", "A 18548-2019")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 18548-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 18548-2019.docx", "A 18548-2019")</f>
         <v/>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
         <v>43661</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3637,27 +3637,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 35023-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 35023-2019.xlsx", "A 35023-2019")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 35023-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 35023-2019.png", "A 35023-2019")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 35023-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 35023-2019.docx", "A 35023-2019")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 35023-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 35023-2019.docx", "A 35023-2019")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 35023-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 35023-2019.docx", "A 35023-2019")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 35023-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 35023-2019.docx", "A 35023-2019")</f>
         <v/>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
         <v>43691</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3722,27 +3722,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 39446-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 39446-2019.xlsx", "A 39446-2019")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 39446-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 39446-2019.png", "A 39446-2019")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 39446-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 39446-2019.docx", "A 39446-2019")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 39446-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 39446-2019.docx", "A 39446-2019")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 39446-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 39446-2019.docx", "A 39446-2019")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 39446-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 39446-2019.docx", "A 39446-2019")</f>
         <v/>
       </c>
     </row>
@@ -3756,7 +3756,7 @@
         <v>43703</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3807,27 +3807,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 43369-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 43369-2019.xlsx", "A 43369-2019")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 43369-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 43369-2019.png", "A 43369-2019")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 43369-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 43369-2019.docx", "A 43369-2019")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 43369-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 43369-2019.docx", "A 43369-2019")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 43369-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 43369-2019.docx", "A 43369-2019")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 43369-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 43369-2019.docx", "A 43369-2019")</f>
         <v/>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
         <v>43703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3892,31 +3892,31 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 43329-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 43329-2019.xlsx", "A 43329-2019")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 43329-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 43329-2019.png", "A 43329-2019")</f>
         <v/>
       </c>
       <c r="U38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/knärot/A 43329-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/knärot/A 43329-2019.png", "A 43329-2019")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 43329-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 43329-2019.docx", "A 43329-2019")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 43329-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 43329-2019.docx", "A 43329-2019")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 43329-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 43329-2019.docx", "A 43329-2019")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 43329-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 43329-2019.docx", "A 43329-2019")</f>
         <v/>
       </c>
     </row>
@@ -3930,7 +3930,7 @@
         <v>43747</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3981,27 +3981,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 54418-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 54418-2019.xlsx", "A 54418-2019")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 54418-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 54418-2019.png", "A 54418-2019")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 54418-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 54418-2019.docx", "A 54418-2019")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 54418-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 54418-2019.docx", "A 54418-2019")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 54418-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 54418-2019.docx", "A 54418-2019")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 54418-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 54418-2019.docx", "A 54418-2019")</f>
         <v/>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
         <v>43754</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4066,27 +4066,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 55376-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 55376-2019.xlsx", "A 55376-2019")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 55376-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 55376-2019.png", "A 55376-2019")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 55376-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 55376-2019.docx", "A 55376-2019")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 55376-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 55376-2019.docx", "A 55376-2019")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 55376-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 55376-2019.docx", "A 55376-2019")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 55376-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 55376-2019.docx", "A 55376-2019")</f>
         <v/>
       </c>
     </row>
@@ -4100,7 +4100,7 @@
         <v>43776</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4156,27 +4156,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 60216-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 60216-2019.xlsx", "A 60216-2019")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 60216-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 60216-2019.png", "A 60216-2019")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 60216-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 60216-2019.docx", "A 60216-2019")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 60216-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 60216-2019.docx", "A 60216-2019")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 60216-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 60216-2019.docx", "A 60216-2019")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 60216-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 60216-2019.docx", "A 60216-2019")</f>
         <v/>
       </c>
     </row>
@@ -4190,7 +4190,7 @@
         <v>43858</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4241,27 +4241,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 4372-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 4372-2020.xlsx", "A 4372-2020")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 4372-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 4372-2020.png", "A 4372-2020")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 4372-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 4372-2020.docx", "A 4372-2020")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 4372-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 4372-2020.docx", "A 4372-2020")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 4372-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 4372-2020.docx", "A 4372-2020")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 4372-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 4372-2020.docx", "A 4372-2020")</f>
         <v/>
       </c>
     </row>
@@ -4275,7 +4275,7 @@
         <v>43860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4326,27 +4326,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 5210-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 5210-2020.xlsx", "A 5210-2020")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 5210-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 5210-2020.png", "A 5210-2020")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 5210-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 5210-2020.docx", "A 5210-2020")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 5210-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 5210-2020.docx", "A 5210-2020")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 5210-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 5210-2020.docx", "A 5210-2020")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 5210-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 5210-2020.docx", "A 5210-2020")</f>
         <v/>
       </c>
     </row>
@@ -4360,7 +4360,7 @@
         <v>43943</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4411,27 +4411,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 20001-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 20001-2020.xlsx", "A 20001-2020")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 20001-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 20001-2020.png", "A 20001-2020")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 20001-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 20001-2020.docx", "A 20001-2020")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 20001-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 20001-2020.docx", "A 20001-2020")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 20001-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 20001-2020.docx", "A 20001-2020")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 20001-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 20001-2020.docx", "A 20001-2020")</f>
         <v/>
       </c>
     </row>
@@ -4445,7 +4445,7 @@
         <v>44014</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4501,27 +4501,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 31870-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 31870-2020.xlsx", "A 31870-2020")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 31870-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 31870-2020.png", "A 31870-2020")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 31870-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 31870-2020.docx", "A 31870-2020")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 31870-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 31870-2020.docx", "A 31870-2020")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 31870-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 31870-2020.docx", "A 31870-2020")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 31870-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 31870-2020.docx", "A 31870-2020")</f>
         <v/>
       </c>
     </row>
@@ -4535,7 +4535,7 @@
         <v>44127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4586,27 +4586,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 55009-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 55009-2020.xlsx", "A 55009-2020")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 55009-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 55009-2020.png", "A 55009-2020")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 55009-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 55009-2020.docx", "A 55009-2020")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 55009-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 55009-2020.docx", "A 55009-2020")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 55009-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 55009-2020.docx", "A 55009-2020")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 55009-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 55009-2020.docx", "A 55009-2020")</f>
         <v/>
       </c>
     </row>
@@ -4620,7 +4620,7 @@
         <v>44397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4676,27 +4676,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 37347-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 37347-2021.xlsx", "A 37347-2021")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 37347-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 37347-2021.png", "A 37347-2021")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 37347-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 37347-2021.docx", "A 37347-2021")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 37347-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 37347-2021.docx", "A 37347-2021")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 37347-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 37347-2021.docx", "A 37347-2021")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 37347-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 37347-2021.docx", "A 37347-2021")</f>
         <v/>
       </c>
     </row>
@@ -4710,7 +4710,7 @@
         <v>44484</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4761,27 +4761,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 57766-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 57766-2021.xlsx", "A 57766-2021")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 57766-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 57766-2021.png", "A 57766-2021")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 57766-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 57766-2021.docx", "A 57766-2021")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 57766-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 57766-2021.docx", "A 57766-2021")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 57766-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 57766-2021.docx", "A 57766-2021")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 57766-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 57766-2021.docx", "A 57766-2021")</f>
         <v/>
       </c>
     </row>
@@ -4795,7 +4795,7 @@
         <v>44503</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4846,27 +4846,27 @@
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 62355-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 62355-2021.xlsx", "A 62355-2021")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 62355-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 62355-2021.png", "A 62355-2021")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 62355-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 62355-2021.docx", "A 62355-2021")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 62355-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 62355-2021.docx", "A 62355-2021")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 62355-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 62355-2021.docx", "A 62355-2021")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 62355-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 62355-2021.docx", "A 62355-2021")</f>
         <v/>
       </c>
     </row>
@@ -4880,7 +4880,7 @@
         <v>44503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4931,27 +4931,27 @@
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 62535-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 62535-2021.xlsx", "A 62535-2021")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 62535-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 62535-2021.png", "A 62535-2021")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 62535-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 62535-2021.docx", "A 62535-2021")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 62535-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 62535-2021.docx", "A 62535-2021")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 62535-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 62535-2021.docx", "A 62535-2021")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 62535-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 62535-2021.docx", "A 62535-2021")</f>
         <v/>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
         <v>44533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5016,27 +5016,27 @@
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 70039-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 70039-2021.xlsx", "A 70039-2021")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 70039-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 70039-2021.png", "A 70039-2021")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 70039-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 70039-2021.docx", "A 70039-2021")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 70039-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 70039-2021.docx", "A 70039-2021")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 70039-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 70039-2021.docx", "A 70039-2021")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 70039-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 70039-2021.docx", "A 70039-2021")</f>
         <v/>
       </c>
     </row>
@@ -5050,7 +5050,7 @@
         <v>44608</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5106,27 +5106,27 @@
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 7883-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 7883-2022.xlsx", "A 7883-2022")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 7883-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 7883-2022.png", "A 7883-2022")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 7883-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 7883-2022.docx", "A 7883-2022")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 7883-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 7883-2022.docx", "A 7883-2022")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 7883-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 7883-2022.docx", "A 7883-2022")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 7883-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 7883-2022.docx", "A 7883-2022")</f>
         <v/>
       </c>
     </row>
@@ -5140,7 +5140,7 @@
         <v>44624</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5191,27 +5191,27 @@
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 10770-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 10770-2022.xlsx", "A 10770-2022")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 10770-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 10770-2022.png", "A 10770-2022")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 10770-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 10770-2022.docx", "A 10770-2022")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 10770-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 10770-2022.docx", "A 10770-2022")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 10770-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 10770-2022.docx", "A 10770-2022")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 10770-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 10770-2022.docx", "A 10770-2022")</f>
         <v/>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
         <v>44624</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5276,27 +5276,27 @@
         </is>
       </c>
       <c r="S54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 10789-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 10789-2022.xlsx", "A 10789-2022")</f>
         <v/>
       </c>
       <c r="T54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 10789-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 10789-2022.png", "A 10789-2022")</f>
         <v/>
       </c>
       <c r="V54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 10789-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 10789-2022.docx", "A 10789-2022")</f>
         <v/>
       </c>
       <c r="W54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 10789-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 10789-2022.docx", "A 10789-2022")</f>
         <v/>
       </c>
       <c r="X54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 10789-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 10789-2022.docx", "A 10789-2022")</f>
         <v/>
       </c>
       <c r="Y54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 10789-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 10789-2022.docx", "A 10789-2022")</f>
         <v/>
       </c>
     </row>
@@ -5310,7 +5310,7 @@
         <v>44792</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5361,27 +5361,27 @@
         </is>
       </c>
       <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 34498-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 34498-2022.xlsx", "A 34498-2022")</f>
         <v/>
       </c>
       <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 34498-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 34498-2022.png", "A 34498-2022")</f>
         <v/>
       </c>
       <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 34498-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 34498-2022.docx", "A 34498-2022")</f>
         <v/>
       </c>
       <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 34498-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 34498-2022.docx", "A 34498-2022")</f>
         <v/>
       </c>
       <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 34498-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 34498-2022.docx", "A 34498-2022")</f>
         <v/>
       </c>
       <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 34498-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 34498-2022.docx", "A 34498-2022")</f>
         <v/>
       </c>
     </row>
@@ -5395,7 +5395,7 @@
         <v>44798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5446,27 +5446,27 @@
         </is>
       </c>
       <c r="S56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 35278-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 35278-2022.xlsx", "A 35278-2022")</f>
         <v/>
       </c>
       <c r="T56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 35278-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 35278-2022.png", "A 35278-2022")</f>
         <v/>
       </c>
       <c r="V56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 35278-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 35278-2022.docx", "A 35278-2022")</f>
         <v/>
       </c>
       <c r="W56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 35278-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 35278-2022.docx", "A 35278-2022")</f>
         <v/>
       </c>
       <c r="X56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 35278-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 35278-2022.docx", "A 35278-2022")</f>
         <v/>
       </c>
       <c r="Y56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 35278-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 35278-2022.docx", "A 35278-2022")</f>
         <v/>
       </c>
     </row>
@@ -5480,7 +5480,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5536,27 +5536,27 @@
         </is>
       </c>
       <c r="S57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 50202-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 50202-2022.xlsx", "A 50202-2022")</f>
         <v/>
       </c>
       <c r="T57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 50202-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 50202-2022.png", "A 50202-2022")</f>
         <v/>
       </c>
       <c r="V57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 50202-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 50202-2022.docx", "A 50202-2022")</f>
         <v/>
       </c>
       <c r="W57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 50202-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 50202-2022.docx", "A 50202-2022")</f>
         <v/>
       </c>
       <c r="X57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 50202-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 50202-2022.docx", "A 50202-2022")</f>
         <v/>
       </c>
       <c r="Y57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 50202-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 50202-2022.docx", "A 50202-2022")</f>
         <v/>
       </c>
     </row>
@@ -5570,7 +5570,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5626,27 +5626,27 @@
         </is>
       </c>
       <c r="S58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 60591-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 60591-2022.xlsx", "A 60591-2022")</f>
         <v/>
       </c>
       <c r="T58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 60591-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 60591-2022.png", "A 60591-2022")</f>
         <v/>
       </c>
       <c r="V58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 60591-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 60591-2022.docx", "A 60591-2022")</f>
         <v/>
       </c>
       <c r="W58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 60591-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 60591-2022.docx", "A 60591-2022")</f>
         <v/>
       </c>
       <c r="X58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 60591-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 60591-2022.docx", "A 60591-2022")</f>
         <v/>
       </c>
       <c r="Y58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 60591-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 60591-2022.docx", "A 60591-2022")</f>
         <v/>
       </c>
     </row>
@@ -5660,7 +5660,7 @@
         <v>44931</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5716,27 +5716,27 @@
         </is>
       </c>
       <c r="S59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 882-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 882-2023.xlsx", "A 882-2023")</f>
         <v/>
       </c>
       <c r="T59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 882-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 882-2023.png", "A 882-2023")</f>
         <v/>
       </c>
       <c r="V59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 882-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 882-2023.docx", "A 882-2023")</f>
         <v/>
       </c>
       <c r="W59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 882-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 882-2023.docx", "A 882-2023")</f>
         <v/>
       </c>
       <c r="X59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 882-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 882-2023.docx", "A 882-2023")</f>
         <v/>
       </c>
       <c r="Y59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 882-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 882-2023.docx", "A 882-2023")</f>
         <v/>
       </c>
     </row>
@@ -5750,7 +5750,7 @@
         <v>44957</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5801,27 +5801,27 @@
         </is>
       </c>
       <c r="S60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 4699-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 4699-2023.xlsx", "A 4699-2023")</f>
         <v/>
       </c>
       <c r="T60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 4699-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 4699-2023.png", "A 4699-2023")</f>
         <v/>
       </c>
       <c r="V60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 4699-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 4699-2023.docx", "A 4699-2023")</f>
         <v/>
       </c>
       <c r="W60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 4699-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 4699-2023.docx", "A 4699-2023")</f>
         <v/>
       </c>
       <c r="X60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 4699-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 4699-2023.docx", "A 4699-2023")</f>
         <v/>
       </c>
       <c r="Y60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 4699-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 4699-2023.docx", "A 4699-2023")</f>
         <v/>
       </c>
     </row>
@@ -5835,7 +5835,7 @@
         <v>44971</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5886,27 +5886,27 @@
         </is>
       </c>
       <c r="S61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 7506-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 7506-2023.xlsx", "A 7506-2023")</f>
         <v/>
       </c>
       <c r="T61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 7506-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 7506-2023.png", "A 7506-2023")</f>
         <v/>
       </c>
       <c r="V61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 7506-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 7506-2023.docx", "A 7506-2023")</f>
         <v/>
       </c>
       <c r="W61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 7506-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 7506-2023.docx", "A 7506-2023")</f>
         <v/>
       </c>
       <c r="X61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 7506-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 7506-2023.docx", "A 7506-2023")</f>
         <v/>
       </c>
       <c r="Y61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 7506-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 7506-2023.docx", "A 7506-2023")</f>
         <v/>
       </c>
     </row>
@@ -5920,7 +5920,7 @@
         <v>45044</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5971,27 +5971,27 @@
         </is>
       </c>
       <c r="S62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 18928-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 18928-2023.xlsx", "A 18928-2023")</f>
         <v/>
       </c>
       <c r="T62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 18928-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 18928-2023.png", "A 18928-2023")</f>
         <v/>
       </c>
       <c r="V62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 18928-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 18928-2023.docx", "A 18928-2023")</f>
         <v/>
       </c>
       <c r="W62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 18928-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 18928-2023.docx", "A 18928-2023")</f>
         <v/>
       </c>
       <c r="X62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 18928-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 18928-2023.docx", "A 18928-2023")</f>
         <v/>
       </c>
       <c r="Y62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 18928-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 18928-2023.docx", "A 18928-2023")</f>
         <v/>
       </c>
     </row>
@@ -6005,7 +6005,7 @@
         <v>45156</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6061,27 +6061,27 @@
         </is>
       </c>
       <c r="S63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 37317-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 37317-2023.xlsx", "A 37317-2023")</f>
         <v/>
       </c>
       <c r="T63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 37317-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 37317-2023.png", "A 37317-2023")</f>
         <v/>
       </c>
       <c r="V63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 37317-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 37317-2023.docx", "A 37317-2023")</f>
         <v/>
       </c>
       <c r="W63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 37317-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 37317-2023.docx", "A 37317-2023")</f>
         <v/>
       </c>
       <c r="X63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 37317-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 37317-2023.docx", "A 37317-2023")</f>
         <v/>
       </c>
       <c r="Y63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 37317-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 37317-2023.docx", "A 37317-2023")</f>
         <v/>
       </c>
     </row>
@@ -6095,7 +6095,7 @@
         <v>45166</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6151,27 +6151,27 @@
         </is>
       </c>
       <c r="S64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 39240-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/artfynd/A 39240-2023.xlsx", "A 39240-2023")</f>
         <v/>
       </c>
       <c r="T64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 39240-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/kartor/A 39240-2023.png", "A 39240-2023")</f>
         <v/>
       </c>
       <c r="V64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 39240-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 39240-2023.docx", "A 39240-2023")</f>
         <v/>
       </c>
       <c r="W64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 39240-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 39240-2023.docx", "A 39240-2023")</f>
         <v/>
       </c>
       <c r="X64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 39240-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 39240-2023.docx", "A 39240-2023")</f>
         <v/>
       </c>
       <c r="Y64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 39240-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 39240-2023.docx", "A 39240-2023")</f>
         <v/>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
         <v>43324</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43347</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43347</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43347</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43347</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43357</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43368</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43368</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43371</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43388</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43397</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43412</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43431</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43433</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43446</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43450</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43455</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43472</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43483</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43494</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43495</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43497</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43514</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43522</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43535</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43538</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43539</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43539</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43551</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43559</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43559</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43560</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43560</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43565</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43567</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43570</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43616</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>43621</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43635</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43643</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43659</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43661</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>43661</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>43661</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43664</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43668</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43669</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43669</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43669</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43669</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43675</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43676</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>43676</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>43678</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>43679</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43679</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43679</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>43679</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>43682</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43684</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43688</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>43688</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>43691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43697</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43717</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>43725</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>43726</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>43738</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>43739</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>43740</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>43745</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>43746</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43747</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43752</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>43752</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>43753</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>43756</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>43758</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>43758</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>43769</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>43776</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>43776</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>43787</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>43794</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>43795</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>43798</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43803</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>43811</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>43811</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43811</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43823</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43832</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>43839</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43846</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>43847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43847</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43853</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43857</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>43864</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43872</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43873</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43881</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>43885</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>43885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>43889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>43889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>43893</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>43894</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>43901</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>43901</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>43902</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43902</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43907</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43907</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>43911</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>43917</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>43922</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>43943</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>43948</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>43955</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>43955</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>43957</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>43959</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>43959</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>43959</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>43979</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>43980</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>43983</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>43983</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>43983</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>43985</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>43998</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>43999</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43999</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44004</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>44005</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>44007</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>44011</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         <v>44011</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16600,7 +16600,7 @@
         <v>44012</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44018</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44018</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44021</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>44026</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44027</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44028</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44029</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44039</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44039</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44042</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44043</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44043</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44047</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44049</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44053</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>44053</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>44056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>44062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44062</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>44067</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>44085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44085</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44097</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44098</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>44104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44106</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44113</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44127</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44127</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44138</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44138</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44138</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44140</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44140</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44152</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44158</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44158</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44172</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44178</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44187</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44188</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20018,7 +20018,7 @@
         <v>44193</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44201</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44203</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44208</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>44208</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44208</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44209</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44217</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>44218</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44230</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44242</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20794,23 +20794,23 @@
       </c>
       <c r="R316" s="2" t="inlineStr"/>
       <c r="U316">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/knärot/A 8176-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/knärot/A 8176-2021.png", "A 8176-2021")</f>
         <v/>
       </c>
       <c r="V316">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 8176-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 8176-2021.docx", "A 8176-2021")</f>
         <v/>
       </c>
       <c r="W316">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 8176-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 8176-2021.docx", "A 8176-2021")</f>
         <v/>
       </c>
       <c r="X316">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 8176-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 8176-2021.docx", "A 8176-2021")</f>
         <v/>
       </c>
       <c r="Y316">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 8176-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 8176-2021.docx", "A 8176-2021")</f>
         <v/>
       </c>
     </row>
@@ -20824,7 +20824,7 @@
         <v>44242</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44242</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44246</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>44246</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44246</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44248</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44250</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44250</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44252</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44252</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>44258</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>44260</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>44263</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>44263</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>44265</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44281</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44281</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44292</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44292</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44292</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44293</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44297</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44297</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44297</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44301</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22450,7 +22450,7 @@
         <v>44301</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22512,7 +22512,7 @@
         <v>44302</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>44302</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44302</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>44323</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>44323</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44328</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44344</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44350</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44350</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44360</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44360</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>44365</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44365</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44365</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44378</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44384</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44384</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44384</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44386</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44398</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44404</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44411</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44413</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44414</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44414</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44421</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44421</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44423</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44423</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44425</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44425</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44425</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44425</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44431</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44432</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>44432</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44433</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44433</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44435</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44448</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44448</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44449</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44449</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44449</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44452</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>44452</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44453</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44453</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44454</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44454</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44458</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44458</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44459</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44459</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44459</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44463</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44463</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44463</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44463</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44463</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44463</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44466</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44469</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>44469</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>44470</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>44472</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>44473</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>44473</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>44487</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>44490</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>44495</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44495</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>44495</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>44501</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>44508</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44508</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>44511</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>44518</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>44522</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>44522</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>44531</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>44535</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>44536</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>44544</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>44566</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28064,7 +28064,7 @@
         <v>44578</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>44578</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>44579</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>44580</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>44588</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>44588</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>44594</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>44596</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>44602</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>44606</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44608</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>44610</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>44614</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>44614</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>44614</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28939,7 +28939,7 @@
         <v>44616</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28996,7 +28996,7 @@
         <v>44624</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29053,7 +29053,7 @@
         <v>44624</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29110,7 +29110,7 @@
         <v>44624</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29167,7 +29167,7 @@
         <v>44624</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>44624</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29281,7 +29281,7 @@
         <v>44636</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29338,7 +29338,7 @@
         <v>44636</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>44636</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29452,7 +29452,7 @@
         <v>44636</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29509,7 +29509,7 @@
         <v>44637</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44637</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>44640</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29680,7 +29680,7 @@
         <v>44643</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29737,7 +29737,7 @@
         <v>44643</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44643</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29851,7 +29851,7 @@
         <v>44648</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         <v>44667</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44671</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30027,7 +30027,7 @@
         <v>44676</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>44680</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         <v>44697</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30203,7 +30203,7 @@
         <v>44697</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>44701</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>44704</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         <v>44705</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30431,7 +30431,7 @@
         <v>44715</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30493,7 +30493,7 @@
         <v>44715</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>44719</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30602,23 +30602,23 @@
       </c>
       <c r="R485" s="2" t="inlineStr"/>
       <c r="U485">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/knärot/A 23103-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/knärot/A 23103-2022.png", "A 23103-2022")</f>
         <v/>
       </c>
       <c r="V485">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 23103-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 23103-2022.docx", "A 23103-2022")</f>
         <v/>
       </c>
       <c r="W485">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 23103-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 23103-2022.docx", "A 23103-2022")</f>
         <v/>
       </c>
       <c r="X485">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 23103-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 23103-2022.docx", "A 23103-2022")</f>
         <v/>
       </c>
       <c r="Y485">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 23103-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 23103-2022.docx", "A 23103-2022")</f>
         <v/>
       </c>
     </row>
@@ -30632,7 +30632,7 @@
         <v>44722</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44725</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44733</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44739</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44739</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>44741</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>44742</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44746</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31088,7 +31088,7 @@
         <v>44752</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31145,7 +31145,7 @@
         <v>44752</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>44752</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>44752</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31316,7 +31316,7 @@
         <v>44753</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44769</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44769</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44769</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44769</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44769</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44770</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44771</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44774</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44778</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44778</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44782</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44785</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44785</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44791</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44795</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44796</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44807</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44807</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44814</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44817</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44818</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44818</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44818</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44823</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44826</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44830</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44834</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44837</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44838</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44838</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44838</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44838</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44839</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44839</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44841</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44846</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44846</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44848</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>44848</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33626,7 +33626,7 @@
         <v>44848</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44851</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44855</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44855</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44855</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44855</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44859</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44859</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>44859</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>44862</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44862</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>44864</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>44865</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>44868</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34459,7 +34459,7 @@
         <v>44868</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34516,7 +34516,7 @@
         <v>44868</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44869</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34640,7 +34640,7 @@
         <v>44872</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44873</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44879</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>44881</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>44881</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44886</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>44886</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>44886</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>44887</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>44887</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>44887</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>44887</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>44895</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>44895</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>44896</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44896</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44897</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44897</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44897</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>44897</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44900</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44900</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44904</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44908</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44908</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36090,7 +36090,7 @@
         <v>44908</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44909</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>44909</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36276,7 +36276,7 @@
         <v>44909</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44909</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44911</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44911</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44931</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36581,7 +36581,7 @@
         <v>44934</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36638,7 +36638,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36700,7 +36700,7 @@
         <v>44943</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36757,7 +36757,7 @@
         <v>44943</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36814,7 +36814,7 @@
         <v>44949</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36876,7 +36876,7 @@
         <v>44957</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36933,7 +36933,7 @@
         <v>44957</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36990,7 +36990,7 @@
         <v>44958</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>44958</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>44960</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>44960</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>44966</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>44970</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>44970</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37399,7 +37399,7 @@
         <v>44971</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37456,7 +37456,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37513,7 +37513,7 @@
         <v>44979</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37570,7 +37570,7 @@
         <v>44979</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37627,7 +37627,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37684,7 +37684,7 @@
         <v>44985</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         <v>44985</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37803,7 +37803,7 @@
         <v>44986</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37860,7 +37860,7 @@
         <v>44988</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37922,7 +37922,7 @@
         <v>44991</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37979,7 +37979,7 @@
         <v>44991</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38036,7 +38036,7 @@
         <v>44998</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38093,7 +38093,7 @@
         <v>44999</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>44999</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45001</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38274,7 +38274,7 @@
         <v>45001</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38336,7 +38336,7 @@
         <v>45001</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38398,7 +38398,7 @@
         <v>45007</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38455,7 +38455,7 @@
         <v>45007</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38517,7 +38517,7 @@
         <v>45012</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38579,7 +38579,7 @@
         <v>45013</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38636,7 +38636,7 @@
         <v>45014</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38698,7 +38698,7 @@
         <v>45014</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         <v>45014</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>45016</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38879,7 +38879,7 @@
         <v>45022</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38936,7 +38936,7 @@
         <v>45022</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38993,7 +38993,7 @@
         <v>45022</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39050,7 +39050,7 @@
         <v>45022</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39107,7 +39107,7 @@
         <v>45029</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39164,7 +39164,7 @@
         <v>45030</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39221,7 +39221,7 @@
         <v>45034</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39278,7 +39278,7 @@
         <v>45036</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39335,7 +39335,7 @@
         <v>45039</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39392,7 +39392,7 @@
         <v>45039</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39449,7 +39449,7 @@
         <v>45039</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         <v>45039</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39563,7 +39563,7 @@
         <v>45041</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39620,7 +39620,7 @@
         <v>45043</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>45048</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>45048</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45051</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>45053</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>45056</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39972,7 +39972,7 @@
         <v>45056</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40029,7 +40029,7 @@
         <v>45056</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40086,7 +40086,7 @@
         <v>45056</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>45056</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40200,7 +40200,7 @@
         <v>45056</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40257,7 +40257,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40314,7 +40314,7 @@
         <v>45066</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40371,7 +40371,7 @@
         <v>45068</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
         <v>45073</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40485,7 +40485,7 @@
         <v>45073</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>45079</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>45081</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40656,7 +40656,7 @@
         <v>45081</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40713,7 +40713,7 @@
         <v>45082</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40770,7 +40770,7 @@
         <v>45085</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40832,7 +40832,7 @@
         <v>45089</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40889,7 +40889,7 @@
         <v>45097</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         <v>45098</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41008,7 +41008,7 @@
         <v>45099</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41065,7 +41065,7 @@
         <v>45103</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41112,23 +41112,23 @@
       </c>
       <c r="R665" s="2" t="inlineStr"/>
       <c r="U665">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/knärot/A 31007-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/knärot/A 31007-2023.png", "A 31007-2023")</f>
         <v/>
       </c>
       <c r="V665">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 31007-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomål/A 31007-2023.docx", "A 31007-2023")</f>
         <v/>
       </c>
       <c r="W665">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 31007-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/klagomålsmail/A 31007-2023.docx", "A 31007-2023")</f>
         <v/>
       </c>
       <c r="X665">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 31007-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsyn/A 31007-2023.docx", "A 31007-2023")</f>
         <v/>
       </c>
       <c r="Y665">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 31007-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FLEN/tillsynsmail/A 31007-2023.docx", "A 31007-2023")</f>
         <v/>
       </c>
     </row>
@@ -41142,7 +41142,7 @@
         <v>45104</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41199,7 +41199,7 @@
         <v>45104</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41256,7 +41256,7 @@
         <v>45105</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41318,7 +41318,7 @@
         <v>45105</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41380,7 +41380,7 @@
         <v>45110</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41437,7 +41437,7 @@
         <v>45113</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41499,7 +41499,7 @@
         <v>45114</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41556,7 +41556,7 @@
         <v>45114</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41613,7 +41613,7 @@
         <v>45114</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41670,7 +41670,7 @@
         <v>45119</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41727,7 +41727,7 @@
         <v>45121</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41784,7 +41784,7 @@
         <v>45121</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41841,7 +41841,7 @@
         <v>45121</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41898,7 +41898,7 @@
         <v>45140</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41955,7 +41955,7 @@
         <v>45140</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42012,7 +42012,7 @@
         <v>45140</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         <v>45140</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>45141</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42188,7 +42188,7 @@
         <v>45141</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42245,7 +42245,7 @@
         <v>45142</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42302,7 +42302,7 @@
         <v>45147</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42359,7 +42359,7 @@
         <v>45147</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42416,7 +42416,7 @@
         <v>45147</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42478,7 +42478,7 @@
         <v>45148</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42535,7 +42535,7 @@
         <v>45149</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45154</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45155</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42716,7 +42716,7 @@
         <v>45159</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42773,7 +42773,7 @@
         <v>45159</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42830,7 +42830,7 @@
         <v>45160</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42892,7 +42892,7 @@
         <v>45160</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42954,7 +42954,7 @@
         <v>45160</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43016,7 +43016,7 @@
         <v>45160</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43078,7 +43078,7 @@
         <v>45161</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43135,7 +43135,7 @@
         <v>45161</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43192,7 +43192,7 @@
         <v>45162</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>45163</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43306,7 +43306,7 @@
         <v>45163</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         <v>45163</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43420,7 +43420,7 @@
         <v>45163</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43477,7 +43477,7 @@
         <v>45166</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43534,7 +43534,7 @@
         <v>45166</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43591,7 +43591,7 @@
         <v>45166</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43648,7 +43648,7 @@
         <v>45169</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43705,7 +43705,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43762,7 +43762,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43819,7 +43819,7 @@
         <v>45180</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43876,7 +43876,7 @@
         <v>45182</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43933,7 +43933,7 @@
         <v>45182</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>

--- a/Översikt FLEN.xlsx
+++ b/Översikt FLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44883</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44587</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>44378</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43776</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>44832</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43493</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43752</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>43838</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43668</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44071</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44578</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>45002</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45039</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>45105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>45142</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43643</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43703</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>44624</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44714</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44819</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44865</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44986</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>45140</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43363</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43661</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43691</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43703</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43747</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43754</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43776</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43858</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43943</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44014</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>44484</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44503</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>44503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>44608</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44624</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44624</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44792</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44931</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44957</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>44971</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>45044</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>45156</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45166</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43324</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43347</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43347</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43347</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43347</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43357</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43368</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43368</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43371</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43388</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43397</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43412</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43431</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43433</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43446</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43450</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43455</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43472</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43483</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43494</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43495</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43497</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43514</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43522</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43535</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43538</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43539</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43539</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43551</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43559</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43559</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43560</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43560</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43565</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43567</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43570</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43616</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>43621</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43635</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43643</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43659</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43661</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>43661</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>43661</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43664</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43668</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43669</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43669</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43669</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43669</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43675</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43676</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>43676</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>43678</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>43679</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43679</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43679</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>43679</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>43682</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43684</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43688</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>43688</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>43691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43697</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43717</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>43725</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>43726</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>43738</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>43739</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>43740</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>43745</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>43746</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43747</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43752</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>43752</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>43753</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>43756</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>43758</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>43758</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>43769</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>43776</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>43776</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>43787</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>43794</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>43795</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>43798</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43803</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>43811</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>43811</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43811</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43823</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43832</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>43839</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43846</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>43847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43847</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43853</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43857</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>43864</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43872</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43873</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43881</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>43885</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>43885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>43889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>43889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>43893</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>43894</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>43901</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>43901</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>43902</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43902</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43907</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43907</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>43911</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>43917</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>43922</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>43943</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>43948</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>43955</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>43955</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>43957</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>43959</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>43959</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>43959</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>43979</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>43980</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>43983</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>43983</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>43983</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>43985</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>43998</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>43999</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43999</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44004</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>44005</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>44007</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>44011</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         <v>44011</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16600,7 +16600,7 @@
         <v>44012</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44018</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44018</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44021</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>44026</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44027</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44028</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44029</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44039</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44039</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44042</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44043</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44043</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44047</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44049</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44053</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>44053</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>44056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>44062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44062</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>44067</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>44085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44085</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44097</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44098</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>44104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44106</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44113</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44127</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44127</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44138</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44138</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44138</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44140</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44140</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44152</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44158</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44158</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44172</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44178</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44187</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44188</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20018,7 +20018,7 @@
         <v>44193</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44201</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44203</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44208</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>44208</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44208</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44209</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44217</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>44218</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44230</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44242</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44242</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44242</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44246</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>44246</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44246</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44248</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44250</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44250</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44252</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44252</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>44258</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>44260</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>44263</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>44263</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>44265</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44281</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44281</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44292</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44292</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44292</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44293</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44297</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44297</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44297</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44301</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22450,7 +22450,7 @@
         <v>44301</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22512,7 +22512,7 @@
         <v>44302</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>44302</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44302</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>44323</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>44323</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44328</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44344</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44350</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44350</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44360</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44360</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>44365</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44365</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44365</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44378</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44384</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44384</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44384</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44386</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44398</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44404</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44411</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44413</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44414</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44414</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44421</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44421</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44423</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44423</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44425</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44425</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44425</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44425</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44431</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44432</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>44432</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44433</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44433</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44435</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44448</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44448</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44449</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44449</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44449</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44452</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>44452</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44453</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44453</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44454</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44454</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44458</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44458</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44459</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44459</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44459</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44463</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44463</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44463</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44463</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44463</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44463</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44466</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44469</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>44469</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>44470</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>44472</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>44473</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>44473</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>44487</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>44490</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>44495</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44495</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>44495</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>44501</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>44508</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44508</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>44511</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>44518</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>44522</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>44522</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>44531</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>44535</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>44536</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>44544</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>44566</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28064,7 +28064,7 @@
         <v>44578</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>44578</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>44579</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>44580</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>44588</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>44588</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>44594</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>44596</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>44602</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>44606</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44608</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>44610</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>44614</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>44614</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>44614</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28939,7 +28939,7 @@
         <v>44616</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28996,7 +28996,7 @@
         <v>44624</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29053,7 +29053,7 @@
         <v>44624</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29110,7 +29110,7 @@
         <v>44624</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29167,7 +29167,7 @@
         <v>44624</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>44624</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29281,7 +29281,7 @@
         <v>44636</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29338,7 +29338,7 @@
         <v>44636</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>44636</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29452,7 +29452,7 @@
         <v>44636</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29509,7 +29509,7 @@
         <v>44637</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44637</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>44640</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29680,7 +29680,7 @@
         <v>44643</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29737,7 +29737,7 @@
         <v>44643</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44643</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29851,7 +29851,7 @@
         <v>44648</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         <v>44667</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44671</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30027,7 +30027,7 @@
         <v>44676</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>44680</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         <v>44697</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30203,7 +30203,7 @@
         <v>44697</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>44701</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>44704</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         <v>44705</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30431,7 +30431,7 @@
         <v>44715</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30493,7 +30493,7 @@
         <v>44715</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>44719</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>44722</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44725</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44733</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44739</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44739</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>44741</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>44742</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44746</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31088,7 +31088,7 @@
         <v>44752</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31145,7 +31145,7 @@
         <v>44752</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>44752</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>44752</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31316,7 +31316,7 @@
         <v>44753</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44769</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44769</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44769</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44769</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44769</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44770</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44771</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44774</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44778</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44778</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44782</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44785</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44785</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44791</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44795</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44796</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44807</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44807</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44814</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44817</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44818</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44818</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44818</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44823</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44826</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44830</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44834</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44837</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44838</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44838</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44838</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44838</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44839</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44839</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44841</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44846</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44846</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44848</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>44848</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33626,7 +33626,7 @@
         <v>44848</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44851</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44855</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44855</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44855</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44855</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44859</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44859</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>44859</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>44862</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44862</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>44864</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>44865</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>44868</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34459,7 +34459,7 @@
         <v>44868</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34516,7 +34516,7 @@
         <v>44868</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44869</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34640,7 +34640,7 @@
         <v>44872</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44873</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44879</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>44881</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>44881</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44886</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>44886</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>44886</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>44887</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>44887</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>44887</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>44887</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>44895</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>44895</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>44896</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44896</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44897</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44897</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44897</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>44897</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44900</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44900</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44904</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44908</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44908</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36090,7 +36090,7 @@
         <v>44908</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44909</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>44909</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36276,7 +36276,7 @@
         <v>44909</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44909</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44911</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44911</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44931</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36581,7 +36581,7 @@
         <v>44934</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36638,7 +36638,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36700,7 +36700,7 @@
         <v>44943</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36757,7 +36757,7 @@
         <v>44943</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36814,7 +36814,7 @@
         <v>44949</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36876,7 +36876,7 @@
         <v>44957</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36933,7 +36933,7 @@
         <v>44957</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36990,7 +36990,7 @@
         <v>44958</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>44958</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>44960</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>44960</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>44966</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>44970</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>44970</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37399,7 +37399,7 @@
         <v>44971</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37456,7 +37456,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37513,7 +37513,7 @@
         <v>44979</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37570,7 +37570,7 @@
         <v>44979</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37627,7 +37627,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37684,7 +37684,7 @@
         <v>44985</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         <v>44985</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37803,7 +37803,7 @@
         <v>44986</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37860,7 +37860,7 @@
         <v>44988</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37922,7 +37922,7 @@
         <v>44991</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37979,7 +37979,7 @@
         <v>44991</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38036,7 +38036,7 @@
         <v>44998</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38093,7 +38093,7 @@
         <v>44999</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>44999</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45001</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38274,7 +38274,7 @@
         <v>45001</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38336,7 +38336,7 @@
         <v>45001</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38398,7 +38398,7 @@
         <v>45007</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38455,7 +38455,7 @@
         <v>45007</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38517,7 +38517,7 @@
         <v>45012</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38579,7 +38579,7 @@
         <v>45013</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38636,7 +38636,7 @@
         <v>45014</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38698,7 +38698,7 @@
         <v>45014</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         <v>45014</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>45016</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38879,7 +38879,7 @@
         <v>45022</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38936,7 +38936,7 @@
         <v>45022</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38993,7 +38993,7 @@
         <v>45022</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39050,7 +39050,7 @@
         <v>45022</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39107,7 +39107,7 @@
         <v>45029</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39164,7 +39164,7 @@
         <v>45030</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39221,7 +39221,7 @@
         <v>45034</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39278,7 +39278,7 @@
         <v>45036</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39335,7 +39335,7 @@
         <v>45039</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39392,7 +39392,7 @@
         <v>45039</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39449,7 +39449,7 @@
         <v>45039</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         <v>45039</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39563,7 +39563,7 @@
         <v>45041</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39620,7 +39620,7 @@
         <v>45043</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>45048</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>45048</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45051</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>45053</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>45056</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39972,7 +39972,7 @@
         <v>45056</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40029,7 +40029,7 @@
         <v>45056</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40086,7 +40086,7 @@
         <v>45056</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>45056</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40200,7 +40200,7 @@
         <v>45056</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40257,7 +40257,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40314,7 +40314,7 @@
         <v>45066</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40371,7 +40371,7 @@
         <v>45068</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
         <v>45073</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40485,7 +40485,7 @@
         <v>45073</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>45079</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>45081</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40656,7 +40656,7 @@
         <v>45081</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40713,7 +40713,7 @@
         <v>45082</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40770,7 +40770,7 @@
         <v>45085</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40832,7 +40832,7 @@
         <v>45089</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40889,7 +40889,7 @@
         <v>45097</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         <v>45098</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41008,7 +41008,7 @@
         <v>45099</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41065,7 +41065,7 @@
         <v>45103</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41142,7 +41142,7 @@
         <v>45104</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41199,7 +41199,7 @@
         <v>45104</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41256,7 +41256,7 @@
         <v>45105</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41318,7 +41318,7 @@
         <v>45105</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41380,7 +41380,7 @@
         <v>45110</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41437,7 +41437,7 @@
         <v>45113</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41499,7 +41499,7 @@
         <v>45114</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41556,7 +41556,7 @@
         <v>45114</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41613,7 +41613,7 @@
         <v>45114</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41670,7 +41670,7 @@
         <v>45119</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41727,7 +41727,7 @@
         <v>45121</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41784,7 +41784,7 @@
         <v>45121</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41841,7 +41841,7 @@
         <v>45121</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41898,7 +41898,7 @@
         <v>45140</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41955,7 +41955,7 @@
         <v>45140</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42012,7 +42012,7 @@
         <v>45140</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         <v>45140</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>45141</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42188,7 +42188,7 @@
         <v>45141</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42245,7 +42245,7 @@
         <v>45142</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42302,7 +42302,7 @@
         <v>45147</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42359,7 +42359,7 @@
         <v>45147</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42416,7 +42416,7 @@
         <v>45147</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42478,7 +42478,7 @@
         <v>45148</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42535,7 +42535,7 @@
         <v>45149</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45154</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45155</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42716,7 +42716,7 @@
         <v>45159</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42773,7 +42773,7 @@
         <v>45159</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42830,7 +42830,7 @@
         <v>45160</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42892,7 +42892,7 @@
         <v>45160</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42954,7 +42954,7 @@
         <v>45160</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43016,7 +43016,7 @@
         <v>45160</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43078,7 +43078,7 @@
         <v>45161</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43135,7 +43135,7 @@
         <v>45161</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43192,7 +43192,7 @@
         <v>45162</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>45163</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43306,7 +43306,7 @@
         <v>45163</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         <v>45163</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43420,7 +43420,7 @@
         <v>45163</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43477,7 +43477,7 @@
         <v>45166</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43534,7 +43534,7 @@
         <v>45166</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43591,7 +43591,7 @@
         <v>45166</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43648,7 +43648,7 @@
         <v>45169</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43705,7 +43705,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43762,7 +43762,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43819,7 +43819,7 @@
         <v>45180</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43876,7 +43876,7 @@
         <v>45182</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43933,7 +43933,7 @@
         <v>45182</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>

--- a/Översikt FLEN.xlsx
+++ b/Översikt FLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44883</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44587</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>44378</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43776</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>44832</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43493</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43752</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>43838</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43668</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44071</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44578</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>45002</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45039</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>45105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>45142</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43643</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43703</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>44624</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44714</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44819</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44865</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44986</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>45140</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43363</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43661</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43691</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43703</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43747</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43754</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43776</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43858</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43943</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44014</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>44484</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44503</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>44503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>44608</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44624</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44624</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44792</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44931</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44957</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>44971</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>45044</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>45156</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45166</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43324</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43347</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43347</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43347</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43347</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43357</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43368</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43368</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43371</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43388</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43397</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43412</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43431</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43433</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43446</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43450</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43455</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43472</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43483</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43494</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43495</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43497</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43514</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43522</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43535</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43538</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43539</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43539</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43551</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43559</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43559</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43560</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43560</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43565</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43567</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43570</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43616</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>43621</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43635</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43643</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43659</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43661</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>43661</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>43661</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43664</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43668</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43669</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43669</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43669</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43669</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43675</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43676</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>43676</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>43678</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>43679</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43679</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43679</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>43679</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>43682</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43684</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43688</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>43688</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>43691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43697</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43717</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>43725</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>43726</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>43738</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>43739</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>43740</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>43745</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>43746</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43747</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43752</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>43752</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>43753</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>43756</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>43758</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>43758</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>43769</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>43776</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>43776</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>43787</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>43794</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>43795</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>43798</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43803</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>43811</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>43811</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43811</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43823</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43832</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>43839</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43846</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>43847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43847</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43853</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43857</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>43864</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43872</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43873</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43881</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>43885</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>43885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>43889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>43889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>43893</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>43894</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>43901</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>43901</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>43902</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43902</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43907</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43907</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>43911</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>43917</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>43922</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>43943</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>43948</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>43955</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>43955</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>43957</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>43959</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>43959</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>43959</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>43979</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>43980</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>43983</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>43983</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>43983</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>43985</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>43998</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>43999</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43999</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44004</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>44005</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>44007</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>44011</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         <v>44011</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16600,7 +16600,7 @@
         <v>44012</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44018</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44018</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44021</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>44026</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44027</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44028</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44029</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44039</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44039</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44042</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44043</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44043</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44047</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44049</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44053</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>44053</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>44056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>44062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44062</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>44067</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>44085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44085</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44097</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44098</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>44104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44106</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44113</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44127</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44127</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44138</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44138</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44138</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44140</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44140</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44152</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44158</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44158</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44172</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44178</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44187</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44188</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20018,7 +20018,7 @@
         <v>44193</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44201</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44203</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44208</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>44208</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44208</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44209</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44217</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>44218</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44230</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44242</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44242</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44242</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44246</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>44246</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44246</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44248</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44250</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44250</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44252</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44252</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>44258</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>44260</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>44263</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>44263</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>44265</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44281</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44281</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44292</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44292</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44292</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44293</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44297</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44297</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44297</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44301</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22450,7 +22450,7 @@
         <v>44301</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22512,7 +22512,7 @@
         <v>44302</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>44302</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44302</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>44323</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>44323</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44328</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44344</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44350</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44350</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44360</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44360</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>44365</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44365</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44365</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44378</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44384</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44384</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44384</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44386</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44398</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44404</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44411</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44413</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44414</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44414</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44421</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44421</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44423</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44423</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44425</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44425</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44425</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44425</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44431</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44432</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>44432</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44433</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44433</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44435</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44448</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44448</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44449</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44449</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44449</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44452</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>44452</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44453</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44453</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44454</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44454</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44458</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44458</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44459</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44459</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44459</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44463</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44463</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44463</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44463</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44463</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44463</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44466</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44469</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>44469</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>44470</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>44472</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>44473</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>44473</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>44487</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>44490</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>44495</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44495</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>44495</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>44501</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>44508</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44508</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>44511</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>44518</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>44522</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>44522</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>44531</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>44535</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>44536</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>44544</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>44566</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28064,7 +28064,7 @@
         <v>44578</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>44578</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>44579</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>44580</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>44588</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>44588</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>44594</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>44596</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>44602</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>44606</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44608</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>44610</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>44614</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>44614</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>44614</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28939,7 +28939,7 @@
         <v>44616</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28996,7 +28996,7 @@
         <v>44624</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29053,7 +29053,7 @@
         <v>44624</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29110,7 +29110,7 @@
         <v>44624</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29167,7 +29167,7 @@
         <v>44624</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>44624</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29281,7 +29281,7 @@
         <v>44636</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29338,7 +29338,7 @@
         <v>44636</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>44636</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29452,7 +29452,7 @@
         <v>44636</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29509,7 +29509,7 @@
         <v>44637</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44637</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>44640</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29680,7 +29680,7 @@
         <v>44643</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29737,7 +29737,7 @@
         <v>44643</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44643</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29851,7 +29851,7 @@
         <v>44648</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         <v>44667</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44671</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30027,7 +30027,7 @@
         <v>44676</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>44680</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         <v>44697</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30203,7 +30203,7 @@
         <v>44697</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>44701</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>44704</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         <v>44705</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30431,7 +30431,7 @@
         <v>44715</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30493,7 +30493,7 @@
         <v>44715</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>44719</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>44722</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44725</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44733</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44739</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44739</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>44741</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>44742</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44746</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31088,7 +31088,7 @@
         <v>44752</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31145,7 +31145,7 @@
         <v>44752</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>44752</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>44752</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31316,7 +31316,7 @@
         <v>44753</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44769</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44769</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44769</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44769</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44769</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44770</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44771</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44774</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44778</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44778</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44782</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44785</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44785</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44791</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44795</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44796</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44807</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44807</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44814</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44817</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44818</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44818</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44818</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44823</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44826</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44830</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44834</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44837</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44838</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44838</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44838</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44838</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44839</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44839</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44841</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44846</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44846</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44848</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>44848</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33626,7 +33626,7 @@
         <v>44848</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44851</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44855</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44855</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44855</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44855</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44859</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44859</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>44859</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>44862</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44862</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>44864</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>44865</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>44868</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34459,7 +34459,7 @@
         <v>44868</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34516,7 +34516,7 @@
         <v>44868</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44869</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34640,7 +34640,7 @@
         <v>44872</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44873</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44879</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>44881</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>44881</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44886</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>44886</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>44886</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>44887</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>44887</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>44887</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>44887</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>44895</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>44895</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>44896</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44896</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44897</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44897</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44897</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>44897</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44900</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44900</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44904</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44908</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44908</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36090,7 +36090,7 @@
         <v>44908</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44909</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>44909</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36276,7 +36276,7 @@
         <v>44909</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44909</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44911</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44911</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44931</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36581,7 +36581,7 @@
         <v>44934</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36638,7 +36638,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36700,7 +36700,7 @@
         <v>44943</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36757,7 +36757,7 @@
         <v>44943</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36814,7 +36814,7 @@
         <v>44949</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36876,7 +36876,7 @@
         <v>44957</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36933,7 +36933,7 @@
         <v>44957</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36990,7 +36990,7 @@
         <v>44958</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>44958</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>44960</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>44960</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>44966</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>44970</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>44970</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37399,7 +37399,7 @@
         <v>44971</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37456,7 +37456,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37513,7 +37513,7 @@
         <v>44979</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37570,7 +37570,7 @@
         <v>44979</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37627,7 +37627,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37684,7 +37684,7 @@
         <v>44985</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         <v>44985</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37803,7 +37803,7 @@
         <v>44986</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37860,7 +37860,7 @@
         <v>44988</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37922,7 +37922,7 @@
         <v>44991</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37979,7 +37979,7 @@
         <v>44991</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38036,7 +38036,7 @@
         <v>44998</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38093,7 +38093,7 @@
         <v>44999</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>44999</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45001</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38274,7 +38274,7 @@
         <v>45001</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38336,7 +38336,7 @@
         <v>45001</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38398,7 +38398,7 @@
         <v>45007</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38455,7 +38455,7 @@
         <v>45007</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38517,7 +38517,7 @@
         <v>45012</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38579,7 +38579,7 @@
         <v>45013</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38636,7 +38636,7 @@
         <v>45014</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38698,7 +38698,7 @@
         <v>45014</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         <v>45014</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>45016</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38879,7 +38879,7 @@
         <v>45022</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38936,7 +38936,7 @@
         <v>45022</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38993,7 +38993,7 @@
         <v>45022</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39050,7 +39050,7 @@
         <v>45022</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39107,7 +39107,7 @@
         <v>45029</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39164,7 +39164,7 @@
         <v>45030</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39221,7 +39221,7 @@
         <v>45034</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39278,7 +39278,7 @@
         <v>45036</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39335,7 +39335,7 @@
         <v>45039</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39392,7 +39392,7 @@
         <v>45039</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39449,7 +39449,7 @@
         <v>45039</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         <v>45039</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39563,7 +39563,7 @@
         <v>45041</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39620,7 +39620,7 @@
         <v>45043</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>45048</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>45048</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45051</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>45053</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>45056</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39972,7 +39972,7 @@
         <v>45056</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40029,7 +40029,7 @@
         <v>45056</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40086,7 +40086,7 @@
         <v>45056</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>45056</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40200,7 +40200,7 @@
         <v>45056</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40257,7 +40257,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40314,7 +40314,7 @@
         <v>45066</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40371,7 +40371,7 @@
         <v>45068</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
         <v>45073</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40485,7 +40485,7 @@
         <v>45073</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>45079</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>45081</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40656,7 +40656,7 @@
         <v>45081</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40713,7 +40713,7 @@
         <v>45082</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40770,7 +40770,7 @@
         <v>45085</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40832,7 +40832,7 @@
         <v>45089</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40889,7 +40889,7 @@
         <v>45097</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         <v>45098</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41008,7 +41008,7 @@
         <v>45099</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41065,7 +41065,7 @@
         <v>45103</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41142,7 +41142,7 @@
         <v>45104</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41199,7 +41199,7 @@
         <v>45104</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41256,7 +41256,7 @@
         <v>45105</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41318,7 +41318,7 @@
         <v>45105</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41380,7 +41380,7 @@
         <v>45110</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41437,7 +41437,7 @@
         <v>45113</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41499,7 +41499,7 @@
         <v>45114</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41556,7 +41556,7 @@
         <v>45114</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41613,7 +41613,7 @@
         <v>45114</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41670,7 +41670,7 @@
         <v>45119</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41727,7 +41727,7 @@
         <v>45121</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41784,7 +41784,7 @@
         <v>45121</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41841,7 +41841,7 @@
         <v>45121</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41898,7 +41898,7 @@
         <v>45140</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41955,7 +41955,7 @@
         <v>45140</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42012,7 +42012,7 @@
         <v>45140</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         <v>45140</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>45141</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42188,7 +42188,7 @@
         <v>45141</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42245,7 +42245,7 @@
         <v>45142</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42302,7 +42302,7 @@
         <v>45147</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42359,7 +42359,7 @@
         <v>45147</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42416,7 +42416,7 @@
         <v>45147</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42478,7 +42478,7 @@
         <v>45148</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42535,7 +42535,7 @@
         <v>45149</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45154</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45155</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42716,7 +42716,7 @@
         <v>45159</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42773,7 +42773,7 @@
         <v>45159</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42830,7 +42830,7 @@
         <v>45160</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42892,7 +42892,7 @@
         <v>45160</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42954,7 +42954,7 @@
         <v>45160</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43016,7 +43016,7 @@
         <v>45160</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43078,7 +43078,7 @@
         <v>45161</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43135,7 +43135,7 @@
         <v>45161</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43192,7 +43192,7 @@
         <v>45162</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>45163</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43306,7 +43306,7 @@
         <v>45163</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         <v>45163</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43420,7 +43420,7 @@
         <v>45163</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43477,7 +43477,7 @@
         <v>45166</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43534,7 +43534,7 @@
         <v>45166</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43591,7 +43591,7 @@
         <v>45166</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43648,7 +43648,7 @@
         <v>45169</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43705,7 +43705,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43762,7 +43762,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43819,7 +43819,7 @@
         <v>45180</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43876,7 +43876,7 @@
         <v>45182</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43933,7 +43933,7 @@
         <v>45182</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>

--- a/Översikt FLEN.xlsx
+++ b/Översikt FLEN.xlsx
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44883</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44587</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>44378</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43776</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>44832</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43493</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43752</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>43838</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43668</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44071</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44578</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>45002</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45039</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>45105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>45142</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43643</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43703</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>44624</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44714</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44819</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44865</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44986</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>45140</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43363</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43661</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43691</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43703</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43747</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43754</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43776</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43858</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43943</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44014</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>44484</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44503</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>44503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>44608</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44624</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44624</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44792</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44931</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44957</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>44971</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>45044</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>45156</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45166</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43324</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43347</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43347</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43347</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43347</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43357</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43368</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43368</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43371</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43388</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43397</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43412</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43431</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43433</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43446</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43450</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43455</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43472</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43483</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43494</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43495</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43497</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43514</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43522</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43535</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43538</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43539</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43539</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43551</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43559</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43559</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43560</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43560</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43565</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43567</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43570</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43616</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>43621</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43635</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43643</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43659</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43661</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>43661</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>43661</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43664</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43668</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43669</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43669</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43669</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43669</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43675</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43676</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>43676</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>43678</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>43679</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43679</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43679</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>43679</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>43682</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43684</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43688</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>43688</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>43691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43697</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43717</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>43725</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>43726</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>43738</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>43739</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>43740</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>43745</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>43746</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43747</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43752</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>43752</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>43753</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>43756</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>43758</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>43758</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>43769</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>43776</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>43776</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>43787</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>43794</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>43795</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>43798</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43803</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>43811</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>43811</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43811</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43823</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43832</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>43839</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43846</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>43847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43847</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43853</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43857</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>43864</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43872</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43873</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43881</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>43885</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>43885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>43889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>43889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>43893</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>43894</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>43901</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>43901</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>43902</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43902</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43907</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43907</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>43911</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>43917</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>43922</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>43943</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>43948</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>43955</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>43955</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>43957</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>43959</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>43959</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>43959</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>43979</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>43980</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>43983</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>43983</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>43983</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>43985</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>43998</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>43999</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43999</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44004</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>44005</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>44007</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>44011</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         <v>44011</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16600,7 +16600,7 @@
         <v>44012</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44018</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44018</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44021</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>44026</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44027</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44028</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44029</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44039</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44039</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44042</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44043</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44043</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44047</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44049</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44053</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>44053</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>44056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>44062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44062</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>44067</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>44085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44085</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44097</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44098</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>44104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44106</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44113</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44127</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44127</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44138</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44138</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44138</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44140</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44140</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44152</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44158</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44158</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44172</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44178</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44187</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44188</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20018,7 +20018,7 @@
         <v>44193</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44201</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44203</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44208</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>44208</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44208</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44209</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44217</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>44218</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44230</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44242</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44242</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44242</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44246</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>44246</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44246</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44248</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44250</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44250</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44252</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44252</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>44258</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>44260</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>44263</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>44263</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>44265</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44281</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44281</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44292</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44292</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44292</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44293</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44297</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44297</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44297</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44301</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22450,7 +22450,7 @@
         <v>44301</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22512,7 +22512,7 @@
         <v>44302</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>44302</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44302</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>44323</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>44323</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44328</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44344</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44350</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44350</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44360</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44360</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>44365</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44365</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44365</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44378</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44384</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44384</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44384</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44386</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44398</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44404</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44411</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44413</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44414</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44414</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44421</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44421</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44423</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44423</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44425</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44425</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44425</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44425</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44431</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44432</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>44432</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44433</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44433</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44435</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44448</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44448</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44449</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44449</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44449</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44452</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>44452</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44453</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44453</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44454</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44454</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44458</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44458</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44459</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44459</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44459</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44463</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44463</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44463</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44463</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44463</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44463</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44466</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44469</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>44469</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>44470</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>44472</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>44473</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>44473</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>44487</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>44490</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>44495</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44495</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>44495</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>44501</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>44508</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44508</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>44511</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>44518</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>44522</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>44522</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>44531</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>44535</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>44536</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>44544</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>44566</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28064,7 +28064,7 @@
         <v>44578</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>44578</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>44579</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>44580</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>44588</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>44588</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>44594</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>44596</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>44602</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>44606</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44608</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>44610</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>44614</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>44614</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>44614</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28939,7 +28939,7 @@
         <v>44616</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28996,7 +28996,7 @@
         <v>44624</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29053,7 +29053,7 @@
         <v>44624</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29110,7 +29110,7 @@
         <v>44624</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29167,7 +29167,7 @@
         <v>44624</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>44624</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29281,7 +29281,7 @@
         <v>44636</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29338,7 +29338,7 @@
         <v>44636</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>44636</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29452,7 +29452,7 @@
         <v>44636</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29509,7 +29509,7 @@
         <v>44637</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44637</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>44640</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29680,7 +29680,7 @@
         <v>44643</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29737,7 +29737,7 @@
         <v>44643</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44643</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29851,7 +29851,7 @@
         <v>44648</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         <v>44667</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44671</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30027,7 +30027,7 @@
         <v>44676</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>44680</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         <v>44697</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30203,7 +30203,7 @@
         <v>44697</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>44701</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>44704</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         <v>44705</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30431,7 +30431,7 @@
         <v>44715</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30493,7 +30493,7 @@
         <v>44715</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>44719</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>44722</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44725</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44733</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44739</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44739</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>44741</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>44742</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44746</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31088,7 +31088,7 @@
         <v>44752</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31145,7 +31145,7 @@
         <v>44752</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>44752</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>44752</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31316,7 +31316,7 @@
         <v>44753</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44769</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44769</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44769</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44769</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44769</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44770</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44771</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44774</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44778</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44778</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44782</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44785</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44785</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44791</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44795</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44796</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44807</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44807</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44814</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44817</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44818</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44818</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44818</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44823</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44826</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44830</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44834</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44837</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44838</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44838</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44838</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44838</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44839</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44839</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44841</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44846</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44846</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44848</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33564,7 +33564,7 @@
         <v>44848</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33626,7 +33626,7 @@
         <v>44848</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44851</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44855</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44855</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44855</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44855</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44859</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44859</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>44859</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>44862</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44862</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34283,7 +34283,7 @@
         <v>44864</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34340,7 +34340,7 @@
         <v>44865</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34402,7 +34402,7 @@
         <v>44868</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34459,7 +34459,7 @@
         <v>44868</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34516,7 +34516,7 @@
         <v>44868</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34578,7 +34578,7 @@
         <v>44869</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34640,7 +34640,7 @@
         <v>44872</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44873</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44879</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>44881</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>44881</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>44886</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>44886</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>44886</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>44887</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>44887</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>44887</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>44887</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>44895</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>44895</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>44896</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>44896</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>44897</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35624,7 +35624,7 @@
         <v>44897</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35681,7 +35681,7 @@
         <v>44897</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35743,7 +35743,7 @@
         <v>44897</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35800,7 +35800,7 @@
         <v>44900</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35857,7 +35857,7 @@
         <v>44900</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35914,7 +35914,7 @@
         <v>44904</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35971,7 +35971,7 @@
         <v>44908</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36028,7 +36028,7 @@
         <v>44908</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36090,7 +36090,7 @@
         <v>44908</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44909</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>44909</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36276,7 +36276,7 @@
         <v>44909</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44909</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44911</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44911</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44931</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36581,7 +36581,7 @@
         <v>44934</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36638,7 +36638,7 @@
         <v>44942</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36700,7 +36700,7 @@
         <v>44943</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36757,7 +36757,7 @@
         <v>44943</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36814,7 +36814,7 @@
         <v>44949</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36876,7 +36876,7 @@
         <v>44957</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36933,7 +36933,7 @@
         <v>44957</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36990,7 +36990,7 @@
         <v>44958</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>44958</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37109,7 +37109,7 @@
         <v>44960</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>44960</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>44966</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>44970</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>44970</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37399,7 +37399,7 @@
         <v>44971</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37456,7 +37456,7 @@
         <v>44977</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37513,7 +37513,7 @@
         <v>44979</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37570,7 +37570,7 @@
         <v>44979</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37627,7 +37627,7 @@
         <v>44980</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37684,7 +37684,7 @@
         <v>44985</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         <v>44985</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37803,7 +37803,7 @@
         <v>44986</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37860,7 +37860,7 @@
         <v>44988</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37922,7 +37922,7 @@
         <v>44991</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37979,7 +37979,7 @@
         <v>44991</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38036,7 +38036,7 @@
         <v>44998</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38093,7 +38093,7 @@
         <v>44999</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>44999</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38212,7 +38212,7 @@
         <v>45001</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38274,7 +38274,7 @@
         <v>45001</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38336,7 +38336,7 @@
         <v>45001</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38398,7 +38398,7 @@
         <v>45007</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38455,7 +38455,7 @@
         <v>45007</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38517,7 +38517,7 @@
         <v>45012</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38579,7 +38579,7 @@
         <v>45013</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38636,7 +38636,7 @@
         <v>45014</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38698,7 +38698,7 @@
         <v>45014</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38755,7 +38755,7 @@
         <v>45014</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38817,7 +38817,7 @@
         <v>45016</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38879,7 +38879,7 @@
         <v>45022</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38936,7 +38936,7 @@
         <v>45022</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38993,7 +38993,7 @@
         <v>45022</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39050,7 +39050,7 @@
         <v>45022</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39107,7 +39107,7 @@
         <v>45029</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39164,7 +39164,7 @@
         <v>45030</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39221,7 +39221,7 @@
         <v>45034</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39278,7 +39278,7 @@
         <v>45036</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39335,7 +39335,7 @@
         <v>45039</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39392,7 +39392,7 @@
         <v>45039</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39449,7 +39449,7 @@
         <v>45039</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         <v>45039</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39563,7 +39563,7 @@
         <v>45041</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39620,7 +39620,7 @@
         <v>45043</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39677,7 +39677,7 @@
         <v>45048</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39734,7 +39734,7 @@
         <v>45048</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39791,7 +39791,7 @@
         <v>45051</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39853,7 +39853,7 @@
         <v>45053</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39915,7 +39915,7 @@
         <v>45056</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39972,7 +39972,7 @@
         <v>45056</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40029,7 +40029,7 @@
         <v>45056</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40086,7 +40086,7 @@
         <v>45056</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40143,7 +40143,7 @@
         <v>45056</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40200,7 +40200,7 @@
         <v>45056</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40257,7 +40257,7 @@
         <v>45057</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40314,7 +40314,7 @@
         <v>45066</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40371,7 +40371,7 @@
         <v>45068</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
         <v>45073</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40485,7 +40485,7 @@
         <v>45073</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40542,7 +40542,7 @@
         <v>45079</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40599,7 +40599,7 @@
         <v>45081</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40656,7 +40656,7 @@
         <v>45081</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40713,7 +40713,7 @@
         <v>45082</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40770,7 +40770,7 @@
         <v>45085</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40832,7 +40832,7 @@
         <v>45089</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40889,7 +40889,7 @@
         <v>45097</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         <v>45098</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41008,7 +41008,7 @@
         <v>45099</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41065,7 +41065,7 @@
         <v>45103</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41142,7 +41142,7 @@
         <v>45104</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41199,7 +41199,7 @@
         <v>45104</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41256,7 +41256,7 @@
         <v>45105</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41318,7 +41318,7 @@
         <v>45105</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41380,7 +41380,7 @@
         <v>45110</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41437,7 +41437,7 @@
         <v>45113</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41499,7 +41499,7 @@
         <v>45114</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41556,7 +41556,7 @@
         <v>45114</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41613,7 +41613,7 @@
         <v>45114</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41670,7 +41670,7 @@
         <v>45119</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41727,7 +41727,7 @@
         <v>45121</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41784,7 +41784,7 @@
         <v>45121</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41841,7 +41841,7 @@
         <v>45121</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41898,7 +41898,7 @@
         <v>45140</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41955,7 +41955,7 @@
         <v>45140</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42012,7 +42012,7 @@
         <v>45140</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         <v>45140</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42131,7 +42131,7 @@
         <v>45141</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42188,7 +42188,7 @@
         <v>45141</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42245,7 +42245,7 @@
         <v>45142</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42302,7 +42302,7 @@
         <v>45147</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42359,7 +42359,7 @@
         <v>45147</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42416,7 +42416,7 @@
         <v>45147</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42478,7 +42478,7 @@
         <v>45148</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42535,7 +42535,7 @@
         <v>45149</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42597,7 +42597,7 @@
         <v>45154</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45155</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42716,7 +42716,7 @@
         <v>45159</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42773,7 +42773,7 @@
         <v>45159</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42830,7 +42830,7 @@
         <v>45160</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42892,7 +42892,7 @@
         <v>45160</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42954,7 +42954,7 @@
         <v>45160</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43016,7 +43016,7 @@
         <v>45160</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43078,7 +43078,7 @@
         <v>45161</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43135,7 +43135,7 @@
         <v>45161</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43192,7 +43192,7 @@
         <v>45162</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43249,7 +43249,7 @@
         <v>45163</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43306,7 +43306,7 @@
         <v>45163</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43363,7 +43363,7 @@
         <v>45163</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43420,7 +43420,7 @@
         <v>45163</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43477,7 +43477,7 @@
         <v>45166</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43534,7 +43534,7 @@
         <v>45166</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43591,7 +43591,7 @@
         <v>45166</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43648,7 +43648,7 @@
         <v>45169</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43705,7 +43705,7 @@
         <v>45169</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43762,7 +43762,7 @@
         <v>45169</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43819,7 +43819,7 @@
         <v>45180</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43876,7 +43876,7 @@
         <v>45182</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43933,7 +43933,7 @@
         <v>45182</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>

--- a/Översikt FLEN.xlsx
+++ b/Översikt FLEN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y714"/>
+  <dimension ref="A1:Y715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43544</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         <v>44883</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44883</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>44363</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44587</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>44111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>44378</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>43776</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>44832</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>43493</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>43606</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43752</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>43838</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>44452</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43668</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44071</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>44578</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>45002</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45039</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>45105</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>45142</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43643</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>43703</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>44411</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>44495</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>44624</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>44714</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44819</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>44865</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44986</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>45140</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43363</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43661</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>43691</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>43703</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>43703</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43747</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>43754</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43776</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
         <v>43858</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43860</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43943</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>44014</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44127</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>44484</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         <v>44503</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>44503</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>44533</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>44608</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>44624</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         <v>44624</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44792</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>44865</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>44931</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5750,7 +5750,7 @@
         <v>44957</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>44971</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>45044</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>45156</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45166</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         <v>43324</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         <v>43334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43347</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43347</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>43347</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         <v>43347</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         <v>43347</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>43357</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>43368</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43368</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43370</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43371</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43374</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         <v>43388</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6988,7 +6988,7 @@
         <v>43388</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43395</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43397</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43410</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43412</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43423</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7392,7 +7392,7 @@
         <v>43424</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43426</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43426</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43426</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43431</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43433</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43437</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>43446</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7962,7 +7962,7 @@
         <v>43450</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8019,7 +8019,7 @@
         <v>43455</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
         <v>43472</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8133,7 +8133,7 @@
         <v>43476</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         <v>43483</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>43490</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>43494</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>43495</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>43497</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43503</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43514</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43522</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43530</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43530</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43535</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43538</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43539</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43539</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43544</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43551</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43558</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43559</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43559</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43560</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43560</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43565</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43567</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43570</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43584</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>43616</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>43621</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>43630</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>43635</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>43636</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>43643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>43643</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>43655</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>43659</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>43661</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>43661</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>43661</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43664</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43668</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>43669</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43669</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43669</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43669</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43675</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>43676</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>43676</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>43678</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>43679</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>43679</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>43679</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>43679</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11256,7 +11256,7 @@
         <v>43682</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43684</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43688</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>43688</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>43691</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43691</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43696</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43697</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43717</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43721</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>43725</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>43726</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>43730</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>43738</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>43739</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>43740</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>43745</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>43746</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>43747</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>43752</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>43752</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12463,7 +12463,7 @@
         <v>43753</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>43756</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>43758</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>43758</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>43762</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>43769</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>43774</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         <v>43776</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>43776</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>43776</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>43787</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>43794</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>43795</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>43798</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>43803</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13405,7 +13405,7 @@
         <v>43811</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>43811</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>43811</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>43823</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>43832</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>43834</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>43839</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         <v>43846</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>43847</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>43847</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>43853</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>43857</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>43864</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43872</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43873</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43881</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>43885</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>43885</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>43889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>43889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>43893</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>43894</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>43901</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>43901</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>43902</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43902</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43907</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43907</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15113,7 +15113,7 @@
         <v>43911</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15170,7 +15170,7 @@
         <v>43917</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>43922</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15341,7 +15341,7 @@
         <v>43943</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         <v>43948</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15455,7 +15455,7 @@
         <v>43955</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>43955</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>43957</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
         <v>43959</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15683,7 +15683,7 @@
         <v>43959</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>43959</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15797,7 +15797,7 @@
         <v>43979</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15854,7 +15854,7 @@
         <v>43980</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>43983</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>43983</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>43983</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>43985</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>43998</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16196,7 +16196,7 @@
         <v>43999</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16253,7 +16253,7 @@
         <v>43999</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16310,7 +16310,7 @@
         <v>44004</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16367,7 +16367,7 @@
         <v>44005</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16429,7 +16429,7 @@
         <v>44007</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16486,7 +16486,7 @@
         <v>44011</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16543,7 +16543,7 @@
         <v>44011</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16600,7 +16600,7 @@
         <v>44012</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16662,7 +16662,7 @@
         <v>44015</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
         <v>44018</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16776,7 +16776,7 @@
         <v>44018</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16833,7 +16833,7 @@
         <v>44021</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16890,7 +16890,7 @@
         <v>44026</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>44027</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44028</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>44029</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44039</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>44039</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>44040</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>44042</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>44043</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44043</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44047</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44049</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44049</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44053</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>44053</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44054</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>44054</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>44056</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44057</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44061</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>44062</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44062</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18149,7 +18149,7 @@
         <v>44067</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18206,7 +18206,7 @@
         <v>44085</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18263,7 +18263,7 @@
         <v>44085</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
         <v>44085</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18377,7 +18377,7 @@
         <v>44089</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44097</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44098</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44098</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>44104</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44106</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44109</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44109</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44110</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18915,7 +18915,7 @@
         <v>44113</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18972,7 +18972,7 @@
         <v>44127</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19029,7 +19029,7 @@
         <v>44127</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19086,7 +19086,7 @@
         <v>44138</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19143,7 +19143,7 @@
         <v>44138</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>44138</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44139</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44140</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44140</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19438,7 +19438,7 @@
         <v>44145</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>44146</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>44152</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         <v>44158</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>44158</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19723,7 +19723,7 @@
         <v>44160</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19785,7 +19785,7 @@
         <v>44172</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44178</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19899,7 +19899,7 @@
         <v>44187</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19956,7 +19956,7 @@
         <v>44188</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20018,7 +20018,7 @@
         <v>44193</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44201</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>44203</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>44208</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>44208</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         <v>44208</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>44209</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44214</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>44217</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20566,7 +20566,7 @@
         <v>44218</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20628,7 +20628,7 @@
         <v>44223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20690,7 +20690,7 @@
         <v>44230</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20747,7 +20747,7 @@
         <v>44242</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20824,7 +20824,7 @@
         <v>44242</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20886,7 +20886,7 @@
         <v>44242</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44246</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>44246</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44246</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44248</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>44250</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>44250</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44252</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21352,7 +21352,7 @@
         <v>44252</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>44258</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21471,7 +21471,7 @@
         <v>44260</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21528,7 +21528,7 @@
         <v>44263</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21585,7 +21585,7 @@
         <v>44263</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>44265</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44270</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44281</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>44281</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44285</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44292</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44292</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>44292</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44293</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>44297</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44297</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>44297</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>44301</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22450,7 +22450,7 @@
         <v>44301</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22512,7 +22512,7 @@
         <v>44302</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22574,7 +22574,7 @@
         <v>44302</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22636,7 +22636,7 @@
         <v>44302</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>44307</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         <v>44309</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>44323</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>44323</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>44323</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>44328</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>44344</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>44350</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44350</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23226,7 +23226,7 @@
         <v>44358</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44360</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44360</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>44365</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23454,7 +23454,7 @@
         <v>44365</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23511,7 +23511,7 @@
         <v>44365</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>44378</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44379</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>44384</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44384</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44384</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44386</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44398</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44404</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>44411</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24086,7 +24086,7 @@
         <v>44413</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>44414</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>44414</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44421</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44421</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44423</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
         <v>44423</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24495,7 +24495,7 @@
         <v>44425</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24552,7 +24552,7 @@
         <v>44425</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24609,7 +24609,7 @@
         <v>44425</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24666,7 +24666,7 @@
         <v>44425</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24723,7 +24723,7 @@
         <v>44431</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24785,7 +24785,7 @@
         <v>44432</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24842,7 +24842,7 @@
         <v>44432</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>44433</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>44433</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>44435</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>44439</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>44440</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>44448</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>44448</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>44449</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>44449</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>44449</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>44452</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>44452</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25588,7 +25588,7 @@
         <v>44453</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25645,7 +25645,7 @@
         <v>44453</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25702,7 +25702,7 @@
         <v>44454</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25759,7 +25759,7 @@
         <v>44454</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>44455</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>44458</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44458</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25987,7 +25987,7 @@
         <v>44459</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26044,7 +26044,7 @@
         <v>44459</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26101,7 +26101,7 @@
         <v>44459</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26158,7 +26158,7 @@
         <v>44463</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26215,7 +26215,7 @@
         <v>44463</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26272,7 +26272,7 @@
         <v>44463</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26329,7 +26329,7 @@
         <v>44463</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         <v>44463</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>44463</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26500,7 +26500,7 @@
         <v>44466</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>44469</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26619,7 +26619,7 @@
         <v>44469</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>44470</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26733,7 +26733,7 @@
         <v>44472</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26790,7 +26790,7 @@
         <v>44473</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26847,7 +26847,7 @@
         <v>44473</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26904,7 +26904,7 @@
         <v>44487</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26961,7 +26961,7 @@
         <v>44490</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27018,7 +27018,7 @@
         <v>44495</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>44495</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>44495</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>44501</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>44508</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44508</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>44511</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>44518</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>44522</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27541,7 +27541,7 @@
         <v>44522</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27598,7 +27598,7 @@
         <v>44531</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27655,7 +27655,7 @@
         <v>44535</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>44536</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>44544</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44566</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>44566</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27945,7 +27945,7 @@
         <v>44571</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28002,7 +28002,7 @@
         <v>44572</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28064,7 +28064,7 @@
         <v>44578</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>44578</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28188,7 +28188,7 @@
         <v>44579</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28245,7 +28245,7 @@
         <v>44580</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
         <v>44588</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28359,7 +28359,7 @@
         <v>44588</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28416,7 +28416,7 @@
         <v>44594</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28473,7 +28473,7 @@
         <v>44596</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28530,7 +28530,7 @@
         <v>44602</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28587,7 +28587,7 @@
         <v>44606</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>44608</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>44610</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>44614</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>44614</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>44614</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28939,7 +28939,7 @@
         <v>44616</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28996,7 +28996,7 @@
         <v>44624</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29053,7 +29053,7 @@
         <v>44624</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29110,7 +29110,7 @@
         <v>44624</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29167,7 +29167,7 @@
         <v>44624</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>44624</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29281,7 +29281,7 @@
         <v>44636</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29338,7 +29338,7 @@
         <v>44636</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>44636</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29452,7 +29452,7 @@
         <v>44636</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29509,7 +29509,7 @@
         <v>44637</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44637</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>44640</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29680,7 +29680,7 @@
         <v>44643</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29737,7 +29737,7 @@
         <v>44643</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>44643</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29851,7 +29851,7 @@
         <v>44648</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29908,7 +29908,7 @@
         <v>44667</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29965,7 +29965,7 @@
         <v>44671</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30027,7 +30027,7 @@
         <v>44676</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>44680</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         <v>44697</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30203,7 +30203,7 @@
         <v>44697</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>44701</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>44704</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         <v>44705</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30431,7 +30431,7 @@
         <v>44715</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30493,7 +30493,7 @@
         <v>44715</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>44719</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>44722</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44725</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44733</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44739</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44739</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30917,7 +30917,7 @@
         <v>44741</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         <v>44742</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31031,7 +31031,7 @@
         <v>44746</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31088,7 +31088,7 @@
         <v>44752</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31145,7 +31145,7 @@
         <v>44752</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>44752</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>44752</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31316,7 +31316,7 @@
         <v>44753</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31378,7 +31378,7 @@
         <v>44769</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31435,7 +31435,7 @@
         <v>44769</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>44769</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>44769</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31606,7 +31606,7 @@
         <v>44769</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31663,7 +31663,7 @@
         <v>44770</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44771</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44774</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44778</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44778</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44782</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44785</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44785</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44791</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32181,7 +32181,7 @@
         <v>44795</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44796</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44807</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44807</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>44814</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44817</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44818</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44818</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44818</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32699,7 +32699,7 @@
         <v>44823</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32756,7 +32756,7 @@
         <v>44826</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32813,7 +32813,7 @@
         <v>44830</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32870,7 +32870,7 @@
         <v>44834</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32927,7 +32927,7 @@
         <v>44837</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32984,7 +32984,7 @@
         <v>44838</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33041,7 +33041,7 @@
         <v>44838</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>44838</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33155,7 +33155,7 @@
         <v>44838</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33212,7 +33212,7 @@
         <v>44839</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33269,7 +33269,7 @@
         <v>44839</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44841</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44846</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inline